--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
@@ -3,30 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\AppData\Local\Temp\Rar$DIa0.675\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="值集数据" r:id="rId5" sheetId="2"/>
+    <sheet name="值集数据" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="441">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -3025,9 +3025,6 @@
     <t>UNUSE</t>
   </si>
   <si>
-    <t>测试</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -3037,13 +3034,25 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t>文字水印</t>
+    <t>单一文字</t>
   </si>
   <si>
     <t>IMAGE</t>
   </si>
   <si>
-    <t>图片水印</t>
+    <t>单一图片</t>
+  </si>
+  <si>
+    <t>TILE_TEXT</t>
+  </si>
+  <si>
+    <t>平铺文字</t>
+  </si>
+  <si>
+    <t>TILE_IMAGE</t>
+  </si>
+  <si>
+    <t>平铺图片</t>
   </si>
   <si>
     <t>值集查询视图头表</t>
@@ -3088,7 +3097,7 @@
     <t>children_field_name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-170</t>
+    <t>hpfm_lov_view_header-172</t>
   </si>
   <si>
     <t>HFLE.LOV.SERVER_CONFIG</t>
@@ -3100,10 +3109,10 @@
     <t>服务器上传编码lov</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-171</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-172</t>
+    <t>hpfm_lov_view_header-173</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-174</t>
   </si>
   <si>
     <t>服务器上传编码(租户级)</t>
@@ -3142,13 +3151,13 @@
     <t>table_field_width</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-175</t>
+    <t>hpfm_lov_view_line-177</t>
   </si>
   <si>
     <t>配置编码</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-176</t>
+    <t>hpfm_lov_view_line-178</t>
   </si>
   <si>
     <t>描述</t>
@@ -3157,7 +3166,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-177</t>
+    <t>hpfm_lov_view_line-179</t>
   </si>
   <si>
     <t>所属租户</t>
@@ -3166,29 +3175,32 @@
     <t>tenantName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-178</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-179</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-180</t>
   </si>
   <si>
+    <t>hpfm_lov_view_line-181</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-182</t>
+  </si>
+  <si>
     <t>租户名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-181</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-182</t>
+    <t>hpfm_lov_view_line-183</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-184</t>
+  </si>
+  <si>
+    <t>HFLE.SERVER_PROVIDER</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="45">
     <font>
       <sz val="12"/>
@@ -3308,139 +3320,166 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3581,7 +3620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3633,6 +3672,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3648,33 +3714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4021,33 +4061,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4056,21 +4096,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4181,11 +4221,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4223,19 +4263,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4259,39 +4299,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163:XFD163"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:22">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:22">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4301,13 +4343,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4328,7 +4370,7 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s" s="42">
+      <c r="M7" s="37" t="s">
         <v>62</v>
       </c>
       <c r="N7" t="s">
@@ -4359,7 +4401,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22">
       <c r="E8" t="s">
         <v>72</v>
       </c>
@@ -4397,7 +4439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22">
       <c r="E9" t="s">
         <v>80</v>
       </c>
@@ -4423,7 +4465,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22">
       <c r="E10" t="s">
         <v>83</v>
       </c>
@@ -4449,7 +4491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22">
       <c r="E11" t="s">
         <v>87</v>
       </c>
@@ -4475,7 +4517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22">
       <c r="E12" t="s">
         <v>90</v>
       </c>
@@ -4507,7 +4549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22">
       <c r="E13" t="s">
         <v>93</v>
       </c>
@@ -4533,7 +4575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22">
       <c r="E14" t="s">
         <v>97</v>
       </c>
@@ -4559,7 +4601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22">
       <c r="E15" t="s">
         <v>100</v>
       </c>
@@ -4585,7 +4627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22">
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -4623,7 +4665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21">
       <c r="E17" t="s">
         <v>111</v>
       </c>
@@ -4655,12 +4697,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21">
       <c r="E18" t="s">
         <v>115</v>
       </c>
-      <c r="F18" t="s">
-        <v>78</v>
+      <c r="F18" s="59" t="s">
+        <v>440</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
@@ -4687,7 +4729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21">
       <c r="E19" t="s">
         <v>119</v>
       </c>
@@ -4713,7 +4755,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21">
       <c r="E20" t="s">
         <v>122</v>
       </c>
@@ -4739,7 +4781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -4749,19 +4791,19 @@
       <c r="C22" t="s">
         <v>125</v>
       </c>
-      <c r="D22" t="s" s="43">
+      <c r="D22" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E22" t="s" s="44">
+      <c r="E22" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F22" t="s" s="45">
+      <c r="F22" s="40" t="s">
         <v>128</v>
       </c>
       <c r="G22" t="s">
         <v>129</v>
       </c>
-      <c r="H22" t="s" s="46">
+      <c r="H22" s="41" t="s">
         <v>130</v>
       </c>
       <c r="I22" t="s">
@@ -4776,7 +4818,7 @@
       <c r="L22" t="s">
         <v>61</v>
       </c>
-      <c r="M22" t="s" s="47">
+      <c r="M22" s="42" t="s">
         <v>62</v>
       </c>
       <c r="N22" t="s">
@@ -4785,7 +4827,7 @@
       <c r="O22" t="s">
         <v>134</v>
       </c>
-      <c r="P22" t="s" s="48">
+      <c r="P22" s="43" t="s">
         <v>135</v>
       </c>
       <c r="Q22" t="s">
@@ -4798,12 +4840,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21">
       <c r="E23" t="s">
         <v>138</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G23" t="s">
         <v>73</v>
@@ -4830,12 +4873,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21">
       <c r="E24" t="s">
         <v>138</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G24" t="s">
         <v>73</v>
@@ -4862,12 +4906,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21">
       <c r="E25" t="s">
         <v>138</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G25" t="s">
         <v>73</v>
@@ -4894,12 +4939,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21">
       <c r="E26" t="s">
         <v>138</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G26" t="s">
         <v>73</v>
@@ -4926,12 +4972,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21">
       <c r="E27" t="s">
         <v>138</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G27" t="s">
         <v>73</v>
@@ -4958,12 +5005,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21">
       <c r="E28" t="s">
         <v>138</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G28" t="s">
         <v>73</v>
@@ -4990,12 +5038,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21">
       <c r="E29" t="s">
         <v>138</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G29" t="s">
         <v>73</v>
@@ -5022,12 +5071,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21">
       <c r="E30" t="s">
         <v>138</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G30" t="s">
         <v>73</v>
@@ -5054,12 +5104,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21">
       <c r="E31" t="s">
         <v>138</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G31" t="s">
         <v>73</v>
@@ -5086,12 +5137,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21">
       <c r="E32" t="s">
         <v>138</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G32" t="s">
         <v>73</v>
@@ -5118,12 +5170,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:19">
       <c r="E33" t="s">
         <v>138</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G33" t="s">
         <v>73</v>
@@ -5150,12 +5203,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:19">
       <c r="E34" t="s">
         <v>138</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G34" t="s">
         <v>73</v>
@@ -5182,12 +5236,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:19">
       <c r="E35" t="s">
         <v>138</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G35" t="s">
         <v>73</v>
@@ -5214,12 +5269,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:19">
       <c r="E36" t="s">
         <v>138</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G36" t="s">
         <v>73</v>
@@ -5246,12 +5302,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:19">
       <c r="E37" t="s">
         <v>138</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G37" t="s">
         <v>73</v>
@@ -5278,12 +5335,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:19">
       <c r="E38" t="s">
         <v>138</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G38" t="s">
         <v>73</v>
@@ -5310,12 +5368,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:19">
       <c r="E39" t="s">
         <v>138</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G39" t="s">
         <v>73</v>
@@ -5342,12 +5401,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:19">
       <c r="E40" t="s">
         <v>138</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G40" t="s">
         <v>73</v>
@@ -5374,12 +5434,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:19">
       <c r="E41" t="s">
         <v>138</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G41" t="s">
         <v>73</v>
@@ -5406,12 +5467,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:19">
       <c r="E42" t="s">
         <v>138</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G42" t="s">
         <v>73</v>
@@ -5438,12 +5500,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:19">
       <c r="E43" t="s">
         <v>138</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G43" t="s">
         <v>73</v>
@@ -5470,12 +5533,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:19">
       <c r="E44" t="s">
         <v>138</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G44" t="s">
         <v>73</v>
@@ -5502,12 +5566,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:19">
       <c r="E45" t="s">
         <v>138</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G45" t="s">
         <v>73</v>
@@ -5534,12 +5599,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:19">
       <c r="E46" t="s">
         <v>138</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G46" t="s">
         <v>73</v>
@@ -5566,12 +5632,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:19">
       <c r="E47" t="s">
         <v>138</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G47" t="s">
         <v>73</v>
@@ -5598,12 +5665,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:19">
       <c r="E48" t="s">
         <v>138</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G48" t="s">
         <v>73</v>
@@ -5630,12 +5698,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:19">
       <c r="E49" t="s">
         <v>138</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G49" t="s">
         <v>73</v>
@@ -5662,12 +5731,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:19">
       <c r="E50" t="s">
         <v>138</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G50" t="s">
         <v>73</v>
@@ -5694,12 +5764,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:19">
       <c r="E51" t="s">
         <v>138</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
@@ -5726,12 +5797,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:19">
       <c r="E52" t="s">
         <v>138</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G52" t="s">
         <v>73</v>
@@ -5758,12 +5830,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:19">
       <c r="E53" t="s">
         <v>138</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G53" t="s">
         <v>73</v>
@@ -5790,12 +5863,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:19">
       <c r="E54" t="s">
         <v>138</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G54" t="s">
         <v>73</v>
@@ -5822,12 +5896,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:19">
       <c r="E55" t="s">
         <v>138</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="G55" t="s">
         <v>81</v>
@@ -5851,12 +5926,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:19">
       <c r="E56" t="s">
         <v>138</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="G56" t="s">
         <v>81</v>
@@ -5880,12 +5956,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:19">
       <c r="E57" t="s">
         <v>138</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="G57" t="s">
         <v>81</v>
@@ -5909,12 +5986,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:19">
       <c r="E58" t="s">
         <v>138</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="G58" t="s">
         <v>81</v>
@@ -5938,12 +6016,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:19">
       <c r="E59" t="s">
         <v>138</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="G59" t="s">
         <v>81</v>
@@ -5967,12 +6046,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:19">
       <c r="E60" t="s">
         <v>138</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G60" t="s">
         <v>84</v>
@@ -5996,12 +6076,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:19">
       <c r="E61" t="s">
         <v>138</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G61" t="s">
         <v>84</v>
@@ -6025,12 +6106,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:19">
       <c r="E62" t="s">
         <v>138</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G62" t="s">
         <v>84</v>
@@ -6054,12 +6136,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:19">
       <c r="E63" t="s">
         <v>138</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G63" t="s">
         <v>84</v>
@@ -6083,12 +6166,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:19">
       <c r="E64" t="s">
         <v>138</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G64" t="s">
         <v>84</v>
@@ -6112,12 +6196,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:19">
       <c r="E65" t="s">
         <v>138</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G65" t="s">
         <v>84</v>
@@ -6141,12 +6226,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="5:19">
       <c r="E66" t="s">
         <v>138</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G66" t="s">
         <v>84</v>
@@ -6170,12 +6256,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="5:19">
       <c r="E67" t="s">
         <v>138</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G67" t="s">
         <v>84</v>
@@ -6199,12 +6286,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="5:19">
       <c r="E68" t="s">
         <v>138</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G68" t="s">
         <v>84</v>
@@ -6228,12 +6316,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="5:19">
       <c r="E69" t="s">
         <v>138</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G69" t="s">
         <v>84</v>
@@ -6257,12 +6346,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="5:19">
       <c r="E70" t="s">
         <v>138</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G70" t="s">
         <v>84</v>
@@ -6286,12 +6376,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="5:19">
       <c r="E71" t="s">
         <v>138</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G71" t="s">
         <v>84</v>
@@ -6315,12 +6406,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="5:19">
       <c r="E72" t="s">
         <v>138</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G72" t="s">
         <v>84</v>
@@ -6344,12 +6436,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="5:19">
       <c r="E73" t="s">
         <v>138</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G73" t="s">
         <v>84</v>
@@ -6373,12 +6466,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="5:19">
       <c r="E74" t="s">
         <v>138</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G74" t="s">
         <v>84</v>
@@ -6402,12 +6496,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="5:19">
       <c r="E75" t="s">
         <v>138</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G75" t="s">
         <v>84</v>
@@ -6431,12 +6526,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="5:19">
       <c r="E76" t="s">
         <v>138</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G76" t="s">
         <v>84</v>
@@ -6460,12 +6556,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="5:19">
       <c r="E77" t="s">
         <v>138</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G77" t="s">
         <v>84</v>
@@ -6492,12 +6589,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="5:19">
       <c r="E78" t="s">
         <v>138</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G78" t="s">
         <v>84</v>
@@ -6521,12 +6619,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="5:19">
       <c r="E79" t="s">
         <v>138</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -6550,12 +6649,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="5:19">
       <c r="E80" t="s">
         <v>138</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G80" t="s">
         <v>84</v>
@@ -6579,12 +6679,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="5:19">
       <c r="E81" t="s">
         <v>138</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G81" t="s">
         <v>84</v>
@@ -6608,12 +6709,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="5:19">
       <c r="E82" t="s">
         <v>138</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="str">
         <f>值集数据!$E$11</f>
+        <v>hpfm_lov-11</v>
       </c>
       <c r="G82" t="s">
         <v>88</v>
@@ -6637,12 +6739,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="5:19">
       <c r="E83" t="s">
         <v>138</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="str">
         <f>值集数据!$E$11</f>
+        <v>hpfm_lov-11</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -6666,12 +6769,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="5:19">
       <c r="E84" t="s">
         <v>138</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="str">
         <f>值集数据!$E$11</f>
+        <v>hpfm_lov-11</v>
       </c>
       <c r="G84" t="s">
         <v>88</v>
@@ -6695,12 +6799,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="5:19">
       <c r="E85" t="s">
         <v>138</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G85" t="s">
         <v>91</v>
@@ -6727,12 +6832,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="5:19">
       <c r="E86" t="s">
         <v>138</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G86" t="s">
         <v>91</v>
@@ -6759,12 +6865,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="5:19">
       <c r="E87" t="s">
         <v>138</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>
@@ -6791,12 +6898,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="5:19">
       <c r="E88" t="s">
         <v>138</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G88" t="s">
         <v>91</v>
@@ -6823,12 +6931,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="5:19">
       <c r="E89" t="s">
         <v>138</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G89" t="s">
         <v>91</v>
@@ -6855,12 +6964,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="5:19">
       <c r="E90" t="s">
         <v>138</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G90" t="s">
         <v>91</v>
@@ -6887,12 +6997,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="5:19">
       <c r="E91" t="s">
         <v>138</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G91" t="s">
         <v>91</v>
@@ -6919,12 +7030,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="5:19">
       <c r="E92" t="s">
         <v>138</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G92" t="s">
         <v>91</v>
@@ -6951,12 +7063,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="5:19">
       <c r="E93" t="s">
         <v>138</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G93" t="s">
         <v>91</v>
@@ -6983,12 +7096,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="5:19">
       <c r="E94" t="s">
         <v>138</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G94" t="s">
         <v>91</v>
@@ -7015,12 +7129,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="5:19">
       <c r="E95" t="s">
         <v>138</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G95" t="s">
         <v>91</v>
@@ -7047,12 +7162,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="5:19">
       <c r="E96" t="s">
         <v>138</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G96" t="s">
         <v>91</v>
@@ -7079,12 +7195,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="5:19">
       <c r="E97" t="s">
         <v>138</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G97" t="s">
         <v>91</v>
@@ -7111,12 +7228,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="5:19">
       <c r="E98" t="s">
         <v>138</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G98" t="s">
         <v>91</v>
@@ -7143,12 +7261,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="5:19">
       <c r="E99" t="s">
         <v>138</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G99" t="s">
         <v>91</v>
@@ -7175,12 +7294,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="5:19">
       <c r="E100" t="s">
         <v>138</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G100" t="s">
         <v>91</v>
@@ -7207,12 +7327,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="5:19">
       <c r="E101" t="s">
         <v>138</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G101" t="s">
         <v>91</v>
@@ -7239,12 +7360,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="5:19">
       <c r="E102" t="s">
         <v>138</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G102" t="s">
         <v>91</v>
@@ -7271,12 +7393,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="5:19">
       <c r="E103" t="s">
         <v>138</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G103" t="s">
         <v>91</v>
@@ -7303,12 +7426,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="5:19">
       <c r="E104" t="s">
         <v>138</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G104" t="s">
         <v>91</v>
@@ -7335,12 +7459,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="5:19">
       <c r="E105" t="s">
         <v>138</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G105" t="s">
         <v>91</v>
@@ -7367,12 +7492,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="5:19">
       <c r="E106" t="s">
         <v>138</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G106" t="s">
         <v>91</v>
@@ -7399,12 +7525,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="5:19">
       <c r="E107" t="s">
         <v>138</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G107" t="s">
         <v>91</v>
@@ -7431,12 +7558,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="5:19">
       <c r="E108" t="s">
         <v>138</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G108" t="s">
         <v>91</v>
@@ -7463,12 +7591,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="5:19">
       <c r="E109" t="s">
         <v>138</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G109" t="s">
         <v>91</v>
@@ -7495,12 +7624,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="5:19">
       <c r="E110" t="s">
         <v>138</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G110" t="s">
         <v>91</v>
@@ -7527,12 +7657,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="5:19">
       <c r="E111" t="s">
         <v>138</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G111" t="s">
         <v>91</v>
@@ -7559,12 +7690,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="5:19">
       <c r="E112" t="s">
         <v>138</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G112" t="s">
         <v>91</v>
@@ -7591,12 +7723,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="5:19">
       <c r="E113" t="s">
         <v>138</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G113" t="s">
         <v>91</v>
@@ -7623,12 +7756,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="5:19">
       <c r="E114" t="s">
         <v>138</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G114" t="s">
         <v>91</v>
@@ -7655,12 +7789,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="5:19">
       <c r="E115" t="s">
         <v>138</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G115" t="s">
         <v>91</v>
@@ -7687,12 +7822,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="5:19">
       <c r="E116" t="s">
         <v>138</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G116" t="s">
         <v>91</v>
@@ -7719,12 +7855,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="5:19">
       <c r="E117" t="s">
         <v>138</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G117" t="s">
         <v>91</v>
@@ -7751,12 +7888,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="5:19">
       <c r="E118" t="s">
         <v>138</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G118" t="s">
         <v>91</v>
@@ -7783,12 +7921,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="5:19">
       <c r="E119" t="s">
         <v>138</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G119" t="s">
         <v>91</v>
@@ -7815,12 +7954,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="5:19">
       <c r="E120" t="s">
         <v>138</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G120" t="s">
         <v>91</v>
@@ -7847,12 +7987,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="5:19">
       <c r="E121" t="s">
         <v>138</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G121" t="s">
         <v>91</v>
@@ -7879,12 +8020,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="5:19">
       <c r="E122" t="s">
         <v>138</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G122" t="s">
         <v>91</v>
@@ -7911,12 +8053,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="5:19">
       <c r="E123" t="s">
         <v>138</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G123" t="s">
         <v>91</v>
@@ -7943,12 +8086,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="5:19">
       <c r="E124" t="s">
         <v>138</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G124" t="s">
         <v>91</v>
@@ -7975,12 +8119,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="5:19">
       <c r="E125" t="s">
         <v>138</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G125" t="s">
         <v>91</v>
@@ -8007,12 +8152,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="5:19">
       <c r="E126" t="s">
         <v>138</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G126" t="s">
         <v>91</v>
@@ -8039,12 +8185,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="5:19">
       <c r="E127" t="s">
         <v>138</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G127" t="s">
         <v>91</v>
@@ -8071,12 +8218,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="5:19">
       <c r="E128" t="s">
         <v>138</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G128" t="s">
         <v>91</v>
@@ -8103,12 +8251,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="5:19">
       <c r="E129" t="s">
         <v>138</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G129" t="s">
         <v>91</v>
@@ -8135,12 +8284,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="5:19">
       <c r="E130" t="s">
         <v>138</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G130" t="s">
         <v>91</v>
@@ -8167,12 +8317,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="5:19">
       <c r="E131" t="s">
         <v>138</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G131" t="s">
         <v>91</v>
@@ -8199,12 +8350,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="5:19">
       <c r="E132" t="s">
         <v>138</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G132" t="s">
         <v>91</v>
@@ -8231,12 +8383,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="5:19">
       <c r="E133" t="s">
         <v>138</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G133" t="s">
         <v>91</v>
@@ -8263,12 +8416,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="5:19">
       <c r="E134" t="s">
         <v>138</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G134" t="s">
         <v>91</v>
@@ -8295,12 +8449,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="5:19">
       <c r="E135" t="s">
         <v>138</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G135" t="s">
         <v>91</v>
@@ -8327,12 +8482,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="5:19">
       <c r="E136" t="s">
         <v>138</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G136" t="s">
         <v>91</v>
@@ -8359,12 +8515,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="5:19">
       <c r="E137" t="s">
         <v>138</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G137" t="s">
         <v>91</v>
@@ -8391,12 +8548,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="5:19">
       <c r="E138" t="s">
         <v>138</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G138" t="s">
         <v>91</v>
@@ -8423,12 +8581,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="5:19">
       <c r="E139" t="s">
         <v>138</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G139" t="s">
         <v>91</v>
@@ -8455,12 +8614,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="5:19">
       <c r="E140" t="s">
         <v>138</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G140" t="s">
         <v>91</v>
@@ -8487,12 +8647,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="5:19">
       <c r="E141" t="s">
         <v>138</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G141" t="s">
         <v>91</v>
@@ -8519,12 +8680,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="5:19">
       <c r="E142" t="s">
         <v>138</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G142" t="s">
         <v>91</v>
@@ -8551,12 +8713,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="5:19">
       <c r="E143" t="s">
         <v>138</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G143" t="s">
         <v>91</v>
@@ -8583,12 +8746,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="5:19">
       <c r="E144" t="s">
         <v>138</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G144" t="s">
         <v>91</v>
@@ -8615,12 +8779,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="5:19">
       <c r="E145" t="s">
         <v>138</v>
       </c>
-      <c r="F145">
+      <c r="F145" t="str">
         <f>值集数据!$E$13</f>
+        <v>hpfm_lov-13</v>
       </c>
       <c r="G145" t="s">
         <v>94</v>
@@ -8644,12 +8809,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="5:19">
       <c r="E146" t="s">
         <v>138</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="str">
         <f>值集数据!$E$13</f>
+        <v>hpfm_lov-13</v>
       </c>
       <c r="G146" t="s">
         <v>94</v>
@@ -8673,12 +8839,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="5:19">
       <c r="E147" t="s">
         <v>138</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="str">
         <f>值集数据!$E$14</f>
+        <v>hpfm_lov-14</v>
       </c>
       <c r="G147" t="s">
         <v>98</v>
@@ -8702,12 +8869,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="5:19">
       <c r="E148" t="s">
         <v>138</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="str">
         <f>值集数据!$E$14</f>
+        <v>hpfm_lov-14</v>
       </c>
       <c r="G148" t="s">
         <v>98</v>
@@ -8731,12 +8899,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="5:19">
       <c r="E149" t="s">
         <v>138</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="str">
         <f>值集数据!$E$14</f>
+        <v>hpfm_lov-14</v>
       </c>
       <c r="G149" t="s">
         <v>98</v>
@@ -8760,12 +8929,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="5:19">
       <c r="E150" t="s">
         <v>138</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G150" t="s">
         <v>101</v>
@@ -8789,12 +8959,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="5:19">
       <c r="E151" t="s">
         <v>138</v>
       </c>
-      <c r="F151">
+      <c r="F151" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G151" t="s">
         <v>101</v>
@@ -8818,12 +8989,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="5:19">
       <c r="E152" t="s">
         <v>138</v>
       </c>
-      <c r="F152">
+      <c r="F152" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G152" t="s">
         <v>78</v>
@@ -8847,12 +9019,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="5:19">
       <c r="E153" t="s">
         <v>138</v>
       </c>
-      <c r="F153">
+      <c r="F153" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G153" t="s">
         <v>78</v>
@@ -8876,12 +9049,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="5:19">
       <c r="E154" t="s">
         <v>138</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G154" t="s">
         <v>78</v>
@@ -8905,12 +9079,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="5:19">
       <c r="E155" t="s">
         <v>138</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G155" t="s">
         <v>78</v>
@@ -8934,12 +9109,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="5:19">
       <c r="E156" t="s">
         <v>138</v>
       </c>
-      <c r="F156">
+      <c r="F156" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G156" t="s">
         <v>78</v>
@@ -8963,12 +9139,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="5:19">
       <c r="E157" t="s">
         <v>138</v>
       </c>
-      <c r="F157">
+      <c r="F157" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G157" t="s">
         <v>78</v>
@@ -8992,12 +9169,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="5:19">
       <c r="E158" t="s">
         <v>138</v>
       </c>
-      <c r="F158">
+      <c r="F158" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G158" t="s">
         <v>78</v>
@@ -9021,12 +9199,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="5:19">
       <c r="E159" t="s">
         <v>138</v>
       </c>
-      <c r="F159">
+      <c r="F159" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G159" t="s">
         <v>78</v>
@@ -9050,12 +9229,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="5:19">
       <c r="E160" t="s">
         <v>138</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G160" t="s">
         <v>78</v>
@@ -9079,12 +9259,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20">
       <c r="E161" t="s">
         <v>138</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G161" t="s">
         <v>78</v>
@@ -9108,12 +9289,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20">
       <c r="E162" t="s">
         <v>138</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="str">
         <f>值集数据!$E$18</f>
+        <v>hpfm_lov-18</v>
       </c>
       <c r="G162" t="s">
         <v>78</v>
@@ -9140,18 +9322,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20">
       <c r="E163" t="s">
         <v>138</v>
       </c>
-      <c r="F163">
-        <f>值集数据!$E$18</f>
+      <c r="F163" t="str">
+        <f>值集数据!$E$19</f>
+        <v>hpfm_lov-19</v>
       </c>
       <c r="G163" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="H163" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="I163" t="s">
         <v>384</v>
@@ -9163,18 +9346,19 @@
         <v>77</v>
       </c>
       <c r="O163" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S163" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20">
       <c r="E164" t="s">
         <v>138</v>
       </c>
-      <c r="F164">
+      <c r="F164" t="str">
         <f>值集数据!$E$19</f>
+        <v>hpfm_lov-19</v>
       </c>
       <c r="G164" t="s">
         <v>120</v>
@@ -9192,88 +9376,91 @@
         <v>77</v>
       </c>
       <c r="O164" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S164" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20">
       <c r="E165" t="s">
         <v>138</v>
       </c>
-      <c r="F165">
-        <f>值集数据!$E$19</f>
+      <c r="F165" t="str">
+        <f>值集数据!$E$20</f>
+        <v>hpfm_lov-20</v>
       </c>
       <c r="G165" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H165" t="s">
         <v>386</v>
       </c>
       <c r="I165" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J165" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M165" t="s">
         <v>77</v>
       </c>
       <c r="O165" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S165" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20">
       <c r="E166" t="s">
         <v>138</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="str">
         <f>值集数据!$E$20</f>
+        <v>hpfm_lov-20</v>
       </c>
       <c r="G166" t="s">
         <v>123</v>
       </c>
       <c r="H166" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I166" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J166" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M166" t="s">
         <v>77</v>
       </c>
       <c r="O166" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="S166" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20">
       <c r="E167" t="s">
         <v>138</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="str">
         <f>值集数据!$E$20</f>
+        <v>hpfm_lov-20</v>
       </c>
       <c r="G167" t="s">
         <v>123</v>
       </c>
       <c r="H167" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I167" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J167" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M167" t="s">
         <v>77</v>
@@ -9285,118 +9472,114 @@
         <v>79</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="s">
+    <row r="168" spans="1:20">
+      <c r="E168" t="s">
+        <v>138</v>
+      </c>
+      <c r="F168" t="str">
+        <f>值集数据!$E$20</f>
+        <v>hpfm_lov-20</v>
+      </c>
+      <c r="G168" t="s">
+        <v>123</v>
+      </c>
+      <c r="H168" t="s">
+        <v>392</v>
+      </c>
+      <c r="I168" t="s">
+        <v>393</v>
+      </c>
+      <c r="J168" t="s">
+        <v>393</v>
+      </c>
+      <c r="M168" t="s">
+        <v>77</v>
+      </c>
+      <c r="O168" t="s">
+        <v>150</v>
+      </c>
+      <c r="S168" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
+      <c r="A170" t="s">
         <v>50</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>51</v>
       </c>
-      <c r="C169" t="s">
-        <v>391</v>
-      </c>
-      <c r="D169" t="s" s="49">
-        <v>392</v>
-      </c>
-      <c r="E169" t="s" s="50">
-        <v>393</v>
-      </c>
-      <c r="F169" t="s" s="51">
+      <c r="C170" t="s">
         <v>394</v>
       </c>
-      <c r="G169" t="s">
+      <c r="D170" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="H169" t="s">
+      <c r="E170" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="I169" t="s" s="52">
+      <c r="F170" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="J169" t="s" s="53">
+      <c r="G170" t="s">
+        <v>398</v>
+      </c>
+      <c r="H170" t="s">
+        <v>399</v>
+      </c>
+      <c r="I170" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="J170" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K169" t="s">
+      <c r="K170" t="s">
         <v>67</v>
       </c>
-      <c r="L169" t="s">
+      <c r="L170" t="s">
         <v>68</v>
       </c>
-      <c r="M169" t="s">
-        <v>398</v>
-      </c>
-      <c r="N169" t="s">
-        <v>399</v>
-      </c>
-      <c r="O169" t="s">
-        <v>400</v>
-      </c>
-      <c r="P169" t="s">
+      <c r="M170" t="s">
         <v>401</v>
       </c>
-      <c r="Q169" t="s">
+      <c r="N170" t="s">
         <v>402</v>
       </c>
-      <c r="R169" t="s">
+      <c r="O170" t="s">
         <v>403</v>
       </c>
-      <c r="S169" t="s">
+      <c r="P170" t="s">
         <v>404</v>
       </c>
-      <c r="T169" t="s">
+      <c r="Q170" t="s">
+        <v>405</v>
+      </c>
+      <c r="R170" t="s">
+        <v>406</v>
+      </c>
+      <c r="S170" t="s">
+        <v>407</v>
+      </c>
+      <c r="T170" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="170">
-      <c r="E170" t="s">
-        <v>405</v>
-      </c>
-      <c r="F170" t="s">
-        <v>406</v>
-      </c>
-      <c r="G170" t="s">
-        <v>407</v>
-      </c>
-      <c r="H170" t="s">
+    <row r="171" spans="1:20">
+      <c r="E171" t="s">
         <v>408</v>
       </c>
-      <c r="I170">
+      <c r="F171" t="s">
+        <v>409</v>
+      </c>
+      <c r="G171" t="s">
+        <v>410</v>
+      </c>
+      <c r="H171" t="s">
+        <v>411</v>
+      </c>
+      <c r="I171" t="str">
         <f>值集数据!$E$16</f>
-      </c>
-      <c r="J170" t="s">
-        <v>77</v>
-      </c>
-      <c r="K170" t="s">
-        <v>110</v>
-      </c>
-      <c r="L170" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>141</v>
-      </c>
-      <c r="R170" t="s">
-        <v>77</v>
-      </c>
-      <c r="T170" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="E171" t="s">
-        <v>409</v>
-      </c>
-      <c r="F171" t="s">
-        <v>104</v>
-      </c>
-      <c r="G171" t="s">
-        <v>407</v>
-      </c>
-      <c r="H171" t="s">
-        <v>408</v>
-      </c>
-      <c r="I171">
-        <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="J171" t="s">
         <v>77</v>
@@ -9417,21 +9600,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20">
       <c r="E172" t="s">
+        <v>412</v>
+      </c>
+      <c r="F172" t="s">
+        <v>104</v>
+      </c>
+      <c r="G172" t="s">
         <v>410</v>
-      </c>
-      <c r="F172" t="s">
-        <v>112</v>
-      </c>
-      <c r="G172" t="s">
-        <v>411</v>
       </c>
       <c r="H172" t="s">
         <v>411</v>
       </c>
-      <c r="I172">
-        <f>值集数据!$E$17</f>
+      <c r="I172" t="str">
+        <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="J172" t="s">
         <v>77</v>
@@ -9452,121 +9636,121 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="s">
+    <row r="173" spans="1:20">
+      <c r="E173" t="s">
+        <v>413</v>
+      </c>
+      <c r="F173" t="s">
+        <v>112</v>
+      </c>
+      <c r="G173" t="s">
+        <v>414</v>
+      </c>
+      <c r="H173" t="s">
+        <v>414</v>
+      </c>
+      <c r="I173" t="str">
+        <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
+      </c>
+      <c r="J173" t="s">
+        <v>77</v>
+      </c>
+      <c r="K173" t="s">
+        <v>110</v>
+      </c>
+      <c r="L173" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>141</v>
+      </c>
+      <c r="R173" t="s">
+        <v>77</v>
+      </c>
+      <c r="T173" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
+      <c r="A175" t="s">
         <v>50</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>51</v>
       </c>
-      <c r="C174" t="s">
-        <v>412</v>
-      </c>
-      <c r="D174" t="s" s="54">
-        <v>413</v>
-      </c>
-      <c r="E174" t="s" s="55">
-        <v>414</v>
-      </c>
-      <c r="F174" t="s" s="56">
+      <c r="C175" t="s">
         <v>415</v>
       </c>
-      <c r="G174" t="s">
+      <c r="D175" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="H174" t="s" s="57">
-        <v>397</v>
-      </c>
-      <c r="I174" t="s">
+      <c r="E175" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="J174" t="s">
+      <c r="F175" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="K174" t="s">
+      <c r="G175" t="s">
+        <v>419</v>
+      </c>
+      <c r="H175" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="I175" t="s">
+        <v>420</v>
+      </c>
+      <c r="J175" t="s">
+        <v>421</v>
+      </c>
+      <c r="K175" t="s">
         <v>134</v>
       </c>
-      <c r="L174" t="s" s="58">
-        <v>419</v>
-      </c>
-      <c r="M174" t="s">
-        <v>420</v>
-      </c>
-      <c r="N174" t="s">
-        <v>421</v>
-      </c>
-      <c r="O174" t="s">
+      <c r="L175" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="P174" t="s">
+      <c r="M175" t="s">
+        <v>423</v>
+      </c>
+      <c r="N175" t="s">
+        <v>424</v>
+      </c>
+      <c r="O175" t="s">
+        <v>425</v>
+      </c>
+      <c r="P175" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="175">
-      <c r="E175" t="s">
-        <v>423</v>
-      </c>
-      <c r="F175">
-        <f>值集数据!$E$170</f>
-      </c>
-      <c r="G175" t="s">
-        <v>77</v>
-      </c>
-      <c r="H175">
+    <row r="176" spans="1:20">
+      <c r="E176" t="s">
+        <v>426</v>
+      </c>
+      <c r="F176" t="str">
+        <f>值集数据!$E$171</f>
+        <v>hpfm_lov_view_header-172</v>
+      </c>
+      <c r="G176" t="s">
+        <v>77</v>
+      </c>
+      <c r="H176" t="str">
         <f>值集数据!$E$16</f>
-      </c>
-      <c r="I175" t="s">
-        <v>424</v>
-      </c>
-      <c r="J175" t="s">
-        <v>424</v>
-      </c>
-      <c r="K175" t="s">
-        <v>144</v>
-      </c>
-      <c r="L175" t="s">
-        <v>110</v>
-      </c>
-      <c r="M175" t="s">
-        <v>79</v>
-      </c>
-      <c r="N175" t="s">
-        <v>79</v>
-      </c>
-      <c r="O175" t="s">
-        <v>151</v>
-      </c>
-      <c r="P175" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="E176" t="s">
-        <v>425</v>
-      </c>
-      <c r="F176">
-        <f>值集数据!$E$170</f>
-      </c>
-      <c r="G176" t="s">
-        <v>77</v>
-      </c>
-      <c r="H176">
-        <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="I176" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J176" t="s">
         <v>427</v>
       </c>
       <c r="K176" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L176" t="s">
-        <v>427</v>
+        <v>110</v>
       </c>
       <c r="M176" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N176" t="s">
         <v>79</v>
@@ -9578,27 +9762,29 @@
         <v>79</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="5:16">
       <c r="E177" t="s">
         <v>428</v>
       </c>
-      <c r="F177">
-        <f>值集数据!$E$170</f>
+      <c r="F177" t="str">
+        <f>值集数据!$E$171</f>
+        <v>hpfm_lov_view_header-172</v>
       </c>
       <c r="G177" t="s">
         <v>77</v>
       </c>
-      <c r="H177">
+      <c r="H177" t="str">
         <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="I177" t="s">
         <v>429</v>
       </c>
       <c r="J177" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K177" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L177" t="s">
         <v>430</v>
@@ -9616,103 +9802,109 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="5:16">
       <c r="E178" t="s">
         <v>431</v>
       </c>
-      <c r="F178">
+      <c r="F178" t="str">
         <f>值集数据!$E$171</f>
+        <v>hpfm_lov_view_header-172</v>
       </c>
       <c r="G178" t="s">
         <v>77</v>
       </c>
-      <c r="H178">
+      <c r="H178" t="str">
         <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="I178" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="J178" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K178" t="s">
+        <v>141</v>
+      </c>
+      <c r="L178" t="s">
+        <v>433</v>
+      </c>
+      <c r="M178" t="s">
+        <v>77</v>
+      </c>
+      <c r="N178" t="s">
+        <v>79</v>
+      </c>
+      <c r="O178" t="s">
+        <v>151</v>
+      </c>
+      <c r="P178" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="179" spans="5:16">
+      <c r="E179" t="s">
+        <v>434</v>
+      </c>
+      <c r="F179" t="str">
+        <f>值集数据!$E$172</f>
+        <v>hpfm_lov_view_header-173</v>
+      </c>
+      <c r="G179" t="s">
+        <v>77</v>
+      </c>
+      <c r="H179" t="str">
+        <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
+      </c>
+      <c r="I179" t="s">
+        <v>427</v>
+      </c>
+      <c r="J179" t="s">
+        <v>427</v>
+      </c>
+      <c r="K179" t="s">
         <v>144</v>
       </c>
-      <c r="L178" t="s">
+      <c r="L179" t="s">
         <v>110</v>
       </c>
-      <c r="M178" t="s">
-        <v>79</v>
-      </c>
-      <c r="N178" t="s">
-        <v>79</v>
-      </c>
-      <c r="O178" t="s">
+      <c r="M179" t="s">
+        <v>79</v>
+      </c>
+      <c r="N179" t="s">
+        <v>79</v>
+      </c>
+      <c r="O179" t="s">
         <v>180</v>
       </c>
-      <c r="P178" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="E179" t="s">
-        <v>432</v>
-      </c>
-      <c r="F179">
-        <f>值集数据!$E$171</f>
-      </c>
-      <c r="G179" t="s">
-        <v>77</v>
-      </c>
-      <c r="H179">
+      <c r="P179" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="5:16">
+      <c r="E180" t="s">
+        <v>435</v>
+      </c>
+      <c r="F180" t="str">
+        <f>值集数据!$E$172</f>
+        <v>hpfm_lov_view_header-173</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="str">
         <f>值集数据!$E$16</f>
-      </c>
-      <c r="I179" t="s">
-        <v>426</v>
-      </c>
-      <c r="J179" t="s">
-        <v>426</v>
-      </c>
-      <c r="K179" t="s">
+        <v>hpfm_lov-16</v>
+      </c>
+      <c r="I180" t="s">
+        <v>429</v>
+      </c>
+      <c r="J180" t="s">
+        <v>429</v>
+      </c>
+      <c r="K180" t="s">
         <v>147</v>
-      </c>
-      <c r="L179" t="s">
-        <v>427</v>
-      </c>
-      <c r="M179" t="s">
-        <v>77</v>
-      </c>
-      <c r="N179" t="s">
-        <v>79</v>
-      </c>
-      <c r="O179" t="s">
-        <v>164</v>
-      </c>
-      <c r="P179" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="E180" t="s">
-        <v>433</v>
-      </c>
-      <c r="F180">
-        <f>值集数据!$E$171</f>
-      </c>
-      <c r="G180" t="s">
-        <v>77</v>
-      </c>
-      <c r="H180">
-        <f>值集数据!$E$16</f>
-      </c>
-      <c r="I180" t="s">
-        <v>434</v>
-      </c>
-      <c r="J180" t="s">
-        <v>77</v>
-      </c>
-      <c r="K180" t="s">
-        <v>141</v>
       </c>
       <c r="L180" t="s">
         <v>430</v>
@@ -9724,27 +9916,29 @@
         <v>79</v>
       </c>
       <c r="O180" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="P180" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="5:16">
       <c r="E181" t="s">
-        <v>435</v>
-      </c>
-      <c r="F181">
+        <v>436</v>
+      </c>
+      <c r="F181" t="str">
         <f>值集数据!$E$172</f>
+        <v>hpfm_lov_view_header-173</v>
       </c>
       <c r="G181" t="s">
         <v>77</v>
       </c>
-      <c r="H181">
-        <f>值集数据!$E$17</f>
+      <c r="H181" t="str">
+        <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="I181" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="J181" t="s">
         <v>77</v>
@@ -9753,10 +9947,10 @@
         <v>141</v>
       </c>
       <c r="L181" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="M181" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N181" t="s">
         <v>79</v>
@@ -9768,33 +9962,35 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="5:16">
       <c r="E182" t="s">
-        <v>436</v>
-      </c>
-      <c r="F182">
-        <f>值集数据!$E$172</f>
+        <v>438</v>
+      </c>
+      <c r="F182" t="str">
+        <f>值集数据!$E$173</f>
+        <v>hpfm_lov_view_header-174</v>
       </c>
       <c r="G182" t="s">
         <v>77</v>
       </c>
-      <c r="H182">
+      <c r="H182" t="str">
         <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
       </c>
       <c r="I182" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J182" t="s">
         <v>77</v>
       </c>
       <c r="K182" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L182" t="s">
-        <v>427</v>
+        <v>110</v>
       </c>
       <c r="M182" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N182" t="s">
         <v>79</v>
@@ -9806,7 +10002,49 @@
         <v>79</v>
       </c>
     </row>
+    <row r="183" spans="5:16">
+      <c r="E183" t="s">
+        <v>439</v>
+      </c>
+      <c r="F183" t="str">
+        <f>值集数据!$E$173</f>
+        <v>hpfm_lov_view_header-174</v>
+      </c>
+      <c r="G183" t="s">
+        <v>77</v>
+      </c>
+      <c r="H183" t="str">
+        <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
+      </c>
+      <c r="I183" t="s">
+        <v>429</v>
+      </c>
+      <c r="J183" t="s">
+        <v>77</v>
+      </c>
+      <c r="K183" t="s">
+        <v>144</v>
+      </c>
+      <c r="L183" t="s">
+        <v>430</v>
+      </c>
+      <c r="M183" t="s">
+        <v>77</v>
+      </c>
+      <c r="N183" t="s">
+        <v>79</v>
+      </c>
+      <c r="O183" t="s">
+        <v>180</v>
+      </c>
+      <c r="P183" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="447">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,7 +2031,10 @@
     <t>description:en_US</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>parent_lov_code</t>
@@ -2065,6 +2068,9 @@
   </si>
   <si>
     <t>public_flag</t>
+  </si>
+  <si>
+    <t>decrypt_field</t>
   </si>
   <si>
     <t>hpfm_lov-8</t>
@@ -2665,6 +2671,12 @@
     <t>hfle_watermark_config</t>
   </si>
   <si>
+    <t>hrpt03/</t>
+  </si>
+  <si>
+    <t>hrpt_ureport_file</t>
+  </si>
+  <si>
     <t>删除</t>
   </si>
   <si>
@@ -3109,7 +3121,7 @@
     <t>children_field_name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-171</t>
+    <t>hpfm_lov_view_header-172</t>
   </si>
   <si>
     <t>HFLE.LOV.SERVER_CONFIG</t>
@@ -3121,12 +3133,12 @@
     <t>服务器上传编码lov</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-172</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_header-173</t>
   </si>
   <si>
+    <t>hpfm_lov_view_header-174</t>
+  </si>
+  <si>
     <t>服务器上传编码(租户级)</t>
   </si>
   <si>
@@ -3142,9 +3154,6 @@
     <t>#view_header_id</t>
   </si>
   <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
     <t>display:zh_CN</t>
   </si>
   <si>
@@ -3163,13 +3172,13 @@
     <t>table_field_width</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-176</t>
+    <t>hpfm_lov_view_line-177</t>
   </si>
   <si>
     <t>配置编码</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-177</t>
+    <t>hpfm_lov_view_line-178</t>
   </si>
   <si>
     <t>描述</t>
@@ -3178,7 +3187,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-178</t>
+    <t>hpfm_lov_view_line-179</t>
   </si>
   <si>
     <t>所属租户</t>
@@ -3187,22 +3196,22 @@
     <t>tenantName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-179</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-180</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-181</t>
   </si>
   <si>
+    <t>hpfm_lov_view_line-182</t>
+  </si>
+  <si>
     <t>租户名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-182</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-183</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-184</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3219,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="45">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3386,12 +3395,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3432,6 +3451,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3602,7 +3626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3696,6 +3720,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4281,7 +4308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X183"/>
+  <dimension ref="A1:Z184"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4352,7 +4379,7 @@
       <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="43">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -4385,430 +4412,475 @@
       <c r="X7" t="s">
         <v>73</v>
       </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="s">
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" t="s">
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s">
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
-      </c>
-      <c r="X12" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="T13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" t="s">
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
-      </c>
-      <c r="X13" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
         <v>81</v>
       </c>
       <c r="U14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X14" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="T15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" t="s">
         <v>81</v>
       </c>
       <c r="U15" t="s">
-        <v>81</v>
-      </c>
-      <c r="X15" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" t="s">
-        <v>111</v>
-      </c>
-      <c r="R16" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="N16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>113</v>
       </c>
       <c r="S16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="U16" t="s">
-        <v>81</v>
-      </c>
-      <c r="W16" t="s">
-        <v>113</v>
+        <v>83</v>
+      </c>
+      <c r="V16" t="s">
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>79</v>
+        <v>115</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>119</v>
+      </c>
+      <c r="U17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" t="s">
+        <v>83</v>
+      </c>
+      <c r="X17" t="s">
         <v>115</v>
       </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" t="s">
-        <v>117</v>
-      </c>
-      <c r="T17" t="s">
-        <v>81</v>
-      </c>
-      <c r="U17" t="s">
-        <v>81</v>
-      </c>
-      <c r="W17" t="s">
-        <v>113</v>
-      </c>
-      <c r="X17" t="s">
-        <v>79</v>
+      <c r="Y17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="T18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" t="s">
         <v>81</v>
       </c>
       <c r="U18" t="s">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
-      </c>
-      <c r="T19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
         <v>81</v>
       </c>
       <c r="U19" t="s">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="T20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" t="s">
         <v>81</v>
       </c>
       <c r="U20" t="s">
-        <v>81</v>
-      </c>
-      <c r="X20" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -4819,28 +4891,28 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s" s="43">
-        <v>129</v>
-      </c>
-      <c r="E22" t="s" s="44">
         <v>130</v>
       </c>
-      <c r="F22" t="s" s="45">
+      <c r="D22" t="s" s="44">
         <v>131</v>
       </c>
+      <c r="E22" t="s" s="45">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s" s="46">
+        <v>133</v>
+      </c>
       <c r="G22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" t="s" s="46">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="H22" t="s" s="47">
+        <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" t="s">
         <v>60</v>
@@ -4848,4639 +4920,5080 @@
       <c r="L22" t="s">
         <v>61</v>
       </c>
-      <c r="M22" t="s" s="47">
+      <c r="M22" t="s" s="48">
         <v>62</v>
       </c>
-      <c r="N22" t="s">
-        <v>136</v>
+      <c r="N22" t="s" s="49">
+        <v>63</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" t="s" s="48">
         <v>138</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="P22" t="s">
         <v>139</v>
       </c>
+      <c r="Q22" t="s" s="50">
+        <v>140</v>
+      </c>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S22" t="s">
-        <v>70</v>
+        <v>142</v>
+      </c>
+      <c r="T22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F23">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" t="s">
-        <v>144</v>
+        <v>81</v>
+      </c>
+      <c r="N23" t="s">
+        <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>81</v>
-      </c>
-      <c r="S23" t="s">
-        <v>81</v>
+        <v>146</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F24">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" t="s">
-        <v>147</v>
+        <v>81</v>
+      </c>
+      <c r="N24" t="s">
+        <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>81</v>
-      </c>
-      <c r="S24" t="s">
-        <v>81</v>
+        <v>149</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>83</v>
+      </c>
+      <c r="T24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F25">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" t="s">
-        <v>150</v>
+        <v>81</v>
+      </c>
+      <c r="N25" t="s">
+        <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>81</v>
-      </c>
-      <c r="S25" t="s">
-        <v>81</v>
+        <v>152</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>83</v>
+      </c>
+      <c r="T25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F26">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" t="s">
-        <v>153</v>
+        <v>81</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
       </c>
       <c r="P26" t="s">
-        <v>81</v>
-      </c>
-      <c r="S26" t="s">
-        <v>81</v>
+        <v>155</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>83</v>
+      </c>
+      <c r="T26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F27">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
-      </c>
-      <c r="O27" t="s">
-        <v>154</v>
+        <v>81</v>
+      </c>
+      <c r="N27" t="s">
+        <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
-      </c>
-      <c r="S27" t="s">
-        <v>81</v>
+        <v>156</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>157</v>
+      </c>
+      <c r="T27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F28">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" t="s">
-        <v>156</v>
+        <v>81</v>
+      </c>
+      <c r="N28" t="s">
+        <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
-      </c>
-      <c r="S28" t="s">
-        <v>81</v>
+        <v>158</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>157</v>
+      </c>
+      <c r="T28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F29">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q29" t="s">
         <v>157</v>
       </c>
-      <c r="P29" t="s">
-        <v>155</v>
-      </c>
-      <c r="S29" t="s">
-        <v>81</v>
+      <c r="T29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F30">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
-      </c>
-      <c r="O30" t="s">
-        <v>160</v>
+        <v>81</v>
+      </c>
+      <c r="N30" t="s">
+        <v>81</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
-      </c>
-      <c r="S30" t="s">
-        <v>81</v>
+        <v>162</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>163</v>
+      </c>
+      <c r="T30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F31">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I31" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" t="s">
+        <v>165</v>
+      </c>
+      <c r="M31" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q31" t="s">
         <v>163</v>
       </c>
-      <c r="J31" t="s">
-        <v>163</v>
-      </c>
-      <c r="M31" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" t="s">
-        <v>164</v>
-      </c>
-      <c r="P31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S31" t="s">
-        <v>81</v>
+      <c r="T31" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F32">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
-      </c>
-      <c r="O32" t="s">
-        <v>167</v>
+        <v>81</v>
+      </c>
+      <c r="N32" t="s">
+        <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
-      </c>
-      <c r="S32" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>163</v>
+      </c>
+      <c r="T32" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M33" t="s">
-        <v>79</v>
-      </c>
-      <c r="O33" t="s">
-        <v>170</v>
+        <v>81</v>
+      </c>
+      <c r="N33" t="s">
+        <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
-      </c>
-      <c r="S33" t="s">
-        <v>81</v>
+        <v>172</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>163</v>
+      </c>
+      <c r="T33" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F34">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M34" t="s">
-        <v>79</v>
-      </c>
-      <c r="O34" t="s">
-        <v>171</v>
+        <v>81</v>
+      </c>
+      <c r="N34" t="s">
+        <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
-      </c>
-      <c r="S34" t="s">
-        <v>81</v>
+        <v>173</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>174</v>
+      </c>
+      <c r="T34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F35">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M35" t="s">
-        <v>79</v>
-      </c>
-      <c r="O35" t="s">
-        <v>173</v>
+        <v>81</v>
+      </c>
+      <c r="N35" t="s">
+        <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
-      </c>
-      <c r="S35" t="s">
-        <v>81</v>
+        <v>175</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>174</v>
+      </c>
+      <c r="T35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F36">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="N36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q36" t="s">
         <v>174</v>
       </c>
-      <c r="P36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S36" t="s">
-        <v>81</v>
+      <c r="T36" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F37">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M37" t="s">
-        <v>79</v>
-      </c>
-      <c r="O37" t="s">
-        <v>175</v>
+        <v>81</v>
+      </c>
+      <c r="N37" t="s">
+        <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
-      </c>
-      <c r="S37" t="s">
-        <v>81</v>
+        <v>177</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>174</v>
+      </c>
+      <c r="T37" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F38">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M38" t="s">
-        <v>79</v>
-      </c>
-      <c r="O38" t="s">
-        <v>176</v>
+        <v>81</v>
+      </c>
+      <c r="N38" t="s">
+        <v>81</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
-      </c>
-      <c r="S38" t="s">
-        <v>81</v>
+        <v>178</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>179</v>
+      </c>
+      <c r="T38" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F39">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M39" t="s">
-        <v>79</v>
-      </c>
-      <c r="O39" t="s">
-        <v>178</v>
+        <v>81</v>
+      </c>
+      <c r="N39" t="s">
+        <v>81</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
-      </c>
-      <c r="S39" t="s">
-        <v>81</v>
+        <v>180</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>181</v>
+      </c>
+      <c r="T39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F40">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M40" t="s">
-        <v>79</v>
-      </c>
-      <c r="O40" t="s">
-        <v>180</v>
+        <v>81</v>
+      </c>
+      <c r="N40" t="s">
+        <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
-      </c>
-      <c r="S40" t="s">
-        <v>81</v>
+        <v>182</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>183</v>
+      </c>
+      <c r="T40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F41">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I41" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s">
-        <v>79</v>
-      </c>
-      <c r="O41" t="s">
-        <v>182</v>
+        <v>81</v>
+      </c>
+      <c r="N41" t="s">
+        <v>81</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
-      </c>
-      <c r="S41" t="s">
-        <v>81</v>
+        <v>184</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>183</v>
+      </c>
+      <c r="T41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F42">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M42" t="s">
-        <v>79</v>
-      </c>
-      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="N42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" t="s">
         <v>183</v>
       </c>
-      <c r="P42" t="s">
-        <v>181</v>
-      </c>
-      <c r="S42" t="s">
-        <v>81</v>
+      <c r="T42" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F43">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O43" t="s">
-        <v>184</v>
+        <v>81</v>
+      </c>
+      <c r="N43" t="s">
+        <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
-      </c>
-      <c r="S43" t="s">
-        <v>81</v>
+        <v>186</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>187</v>
+      </c>
+      <c r="T43" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F44">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M44" t="s">
-        <v>79</v>
-      </c>
-      <c r="O44" t="s">
-        <v>186</v>
+        <v>81</v>
+      </c>
+      <c r="N44" t="s">
+        <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
-      </c>
-      <c r="S44" t="s">
-        <v>81</v>
+        <v>188</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>187</v>
+      </c>
+      <c r="T44" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F45">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M45" t="s">
-        <v>79</v>
-      </c>
-      <c r="O45" t="s">
+        <v>81</v>
+      </c>
+      <c r="N45" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q45" t="s">
         <v>187</v>
       </c>
-      <c r="P45" t="s">
-        <v>185</v>
-      </c>
-      <c r="S45" t="s">
-        <v>81</v>
+      <c r="T45" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F46">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M46" t="s">
-        <v>79</v>
-      </c>
-      <c r="O46" t="s">
-        <v>188</v>
+        <v>81</v>
+      </c>
+      <c r="N46" t="s">
+        <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
-      </c>
-      <c r="S46" t="s">
-        <v>81</v>
+        <v>190</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>191</v>
+      </c>
+      <c r="T46" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F47">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M47" t="s">
-        <v>79</v>
-      </c>
-      <c r="O47" t="s">
-        <v>190</v>
+        <v>81</v>
+      </c>
+      <c r="N47" t="s">
+        <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
-      </c>
-      <c r="S47" t="s">
-        <v>81</v>
+        <v>192</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>191</v>
+      </c>
+      <c r="T47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F48">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O48" t="s">
+        <v>81</v>
+      </c>
+      <c r="N48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q48" t="s">
         <v>191</v>
       </c>
-      <c r="P48" t="s">
-        <v>189</v>
-      </c>
-      <c r="S48" t="s">
-        <v>81</v>
+      <c r="T48" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F49">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M49" t="s">
-        <v>79</v>
-      </c>
-      <c r="O49" t="s">
-        <v>195</v>
+        <v>81</v>
+      </c>
+      <c r="N49" t="s">
+        <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
-      </c>
-      <c r="S49" t="s">
-        <v>81</v>
+        <v>197</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>198</v>
+      </c>
+      <c r="T49" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F50">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I50" t="s">
+        <v>200</v>
+      </c>
+      <c r="J50" t="s">
+        <v>201</v>
+      </c>
+      <c r="M50" t="s">
+        <v>81</v>
+      </c>
+      <c r="N50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P50" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q50" t="s">
         <v>198</v>
       </c>
-      <c r="J50" t="s">
-        <v>199</v>
-      </c>
-      <c r="M50" t="s">
-        <v>79</v>
-      </c>
-      <c r="O50" t="s">
-        <v>200</v>
-      </c>
-      <c r="P50" t="s">
-        <v>196</v>
-      </c>
-      <c r="S50" t="s">
-        <v>81</v>
+      <c r="T50" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F51">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M51" t="s">
-        <v>79</v>
-      </c>
-      <c r="O51" t="s">
-        <v>204</v>
+        <v>81</v>
+      </c>
+      <c r="N51" t="s">
+        <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
-      </c>
-      <c r="S51" t="s">
-        <v>81</v>
+        <v>206</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>198</v>
+      </c>
+      <c r="T51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F52">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M52" t="s">
-        <v>79</v>
-      </c>
-      <c r="O52" t="s">
-        <v>205</v>
+        <v>81</v>
+      </c>
+      <c r="N52" t="s">
+        <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
-      </c>
-      <c r="S52" t="s">
-        <v>81</v>
+        <v>207</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>208</v>
+      </c>
+      <c r="T52" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F53">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I53" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J53" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M53" t="s">
-        <v>79</v>
-      </c>
-      <c r="O53" t="s">
-        <v>207</v>
+        <v>81</v>
+      </c>
+      <c r="N53" t="s">
+        <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
-      </c>
-      <c r="S53" t="s">
-        <v>81</v>
+        <v>209</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>208</v>
+      </c>
+      <c r="T53" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F54">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M54" t="s">
-        <v>79</v>
-      </c>
-      <c r="O54" t="s">
+        <v>81</v>
+      </c>
+      <c r="N54" t="s">
+        <v>81</v>
+      </c>
+      <c r="P54" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q54" t="s">
         <v>208</v>
       </c>
-      <c r="P54" t="s">
-        <v>206</v>
-      </c>
-      <c r="S54" t="s">
-        <v>81</v>
+      <c r="T54" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F55">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I55" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J55" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M55" t="s">
-        <v>79</v>
-      </c>
-      <c r="O55" t="s">
-        <v>147</v>
-      </c>
-      <c r="S55" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N55" t="s">
+        <v>81</v>
+      </c>
+      <c r="P55" t="s">
+        <v>149</v>
+      </c>
+      <c r="T55" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F56">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M56" t="s">
-        <v>79</v>
-      </c>
-      <c r="O56" t="s">
-        <v>150</v>
-      </c>
-      <c r="S56" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N56" t="s">
+        <v>81</v>
+      </c>
+      <c r="P56" t="s">
+        <v>152</v>
+      </c>
+      <c r="T56" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F57">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I57" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J57" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M57" t="s">
-        <v>79</v>
-      </c>
-      <c r="O57" t="s">
-        <v>153</v>
-      </c>
-      <c r="S57" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N57" t="s">
+        <v>81</v>
+      </c>
+      <c r="P57" t="s">
+        <v>155</v>
+      </c>
+      <c r="T57" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F58">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M58" t="s">
-        <v>79</v>
-      </c>
-      <c r="O58" t="s">
-        <v>154</v>
-      </c>
-      <c r="S58" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T58" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F59">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M59" t="s">
-        <v>79</v>
-      </c>
-      <c r="O59" t="s">
-        <v>156</v>
-      </c>
-      <c r="S59" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N59" t="s">
+        <v>81</v>
+      </c>
+      <c r="P59" t="s">
+        <v>158</v>
+      </c>
+      <c r="T59" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F60">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M60" t="s">
-        <v>79</v>
-      </c>
-      <c r="O60" t="s">
-        <v>144</v>
-      </c>
-      <c r="S60" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N60" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60" t="s">
+        <v>146</v>
+      </c>
+      <c r="T60" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F61">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M61" t="s">
-        <v>79</v>
-      </c>
-      <c r="O61" t="s">
-        <v>147</v>
-      </c>
-      <c r="S61" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N61" t="s">
+        <v>81</v>
+      </c>
+      <c r="P61" t="s">
+        <v>149</v>
+      </c>
+      <c r="T61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F62">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M62" t="s">
-        <v>79</v>
-      </c>
-      <c r="O62" t="s">
-        <v>150</v>
-      </c>
-      <c r="S62" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N62" t="s">
+        <v>81</v>
+      </c>
+      <c r="P62" t="s">
+        <v>152</v>
+      </c>
+      <c r="T62" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F63">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I63" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J63" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M63" t="s">
-        <v>79</v>
-      </c>
-      <c r="O63" t="s">
-        <v>153</v>
-      </c>
-      <c r="S63" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N63" t="s">
+        <v>81</v>
+      </c>
+      <c r="P63" t="s">
+        <v>155</v>
+      </c>
+      <c r="T63" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F64">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I64" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J64" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s">
-        <v>79</v>
-      </c>
-      <c r="O64" t="s">
-        <v>154</v>
-      </c>
-      <c r="S64" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N64" t="s">
+        <v>81</v>
+      </c>
+      <c r="P64" t="s">
+        <v>156</v>
+      </c>
+      <c r="T64" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F65">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I65" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J65" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M65" t="s">
-        <v>79</v>
-      </c>
-      <c r="O65" t="s">
-        <v>156</v>
-      </c>
-      <c r="S65" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N65" t="s">
+        <v>81</v>
+      </c>
+      <c r="P65" t="s">
+        <v>158</v>
+      </c>
+      <c r="T65" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F66">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I66" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J66" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M66" t="s">
-        <v>79</v>
-      </c>
-      <c r="O66" t="s">
-        <v>157</v>
-      </c>
-      <c r="S66" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="s">
+        <v>159</v>
+      </c>
+      <c r="T66" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F67">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I67" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J67" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M67" t="s">
-        <v>79</v>
-      </c>
-      <c r="O67" t="s">
-        <v>160</v>
-      </c>
-      <c r="S67" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N67" t="s">
+        <v>81</v>
+      </c>
+      <c r="P67" t="s">
+        <v>162</v>
+      </c>
+      <c r="T67" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F68">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M68" t="s">
-        <v>79</v>
-      </c>
-      <c r="O68" t="s">
-        <v>164</v>
-      </c>
-      <c r="S68" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N68" t="s">
+        <v>81</v>
+      </c>
+      <c r="P68" t="s">
+        <v>166</v>
+      </c>
+      <c r="T68" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F69">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M69" t="s">
-        <v>79</v>
-      </c>
-      <c r="O69" t="s">
-        <v>167</v>
-      </c>
-      <c r="S69" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P69" t="s">
+        <v>169</v>
+      </c>
+      <c r="T69" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F70">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M70" t="s">
-        <v>79</v>
-      </c>
-      <c r="O70" t="s">
-        <v>170</v>
-      </c>
-      <c r="S70" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N70" t="s">
+        <v>81</v>
+      </c>
+      <c r="P70" t="s">
+        <v>172</v>
+      </c>
+      <c r="T70" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F71">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M71" t="s">
-        <v>79</v>
-      </c>
-      <c r="O71" t="s">
-        <v>171</v>
-      </c>
-      <c r="S71" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N71" t="s">
+        <v>81</v>
+      </c>
+      <c r="P71" t="s">
+        <v>173</v>
+      </c>
+      <c r="T71" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F72">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M72" t="s">
-        <v>79</v>
-      </c>
-      <c r="O72" t="s">
-        <v>173</v>
-      </c>
-      <c r="S72" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N72" t="s">
+        <v>81</v>
+      </c>
+      <c r="P72" t="s">
+        <v>175</v>
+      </c>
+      <c r="T72" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F73">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I73" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J73" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M73" t="s">
-        <v>79</v>
-      </c>
-      <c r="O73" t="s">
-        <v>174</v>
-      </c>
-      <c r="S73" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" t="s">
+        <v>176</v>
+      </c>
+      <c r="T73" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F74">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G74" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M74" t="s">
-        <v>79</v>
-      </c>
-      <c r="O74" t="s">
-        <v>175</v>
-      </c>
-      <c r="S74" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N74" t="s">
+        <v>81</v>
+      </c>
+      <c r="P74" t="s">
+        <v>177</v>
+      </c>
+      <c r="T74" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F75">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G75" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I75" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J75" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M75" t="s">
-        <v>79</v>
-      </c>
-      <c r="O75" t="s">
-        <v>176</v>
-      </c>
-      <c r="S75" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N75" t="s">
+        <v>81</v>
+      </c>
+      <c r="P75" t="s">
+        <v>178</v>
+      </c>
+      <c r="T75" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F76">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G76" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M76" t="s">
-        <v>79</v>
-      </c>
-      <c r="O76" t="s">
-        <v>178</v>
-      </c>
-      <c r="S76" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N76" t="s">
+        <v>81</v>
+      </c>
+      <c r="P76" t="s">
+        <v>180</v>
+      </c>
+      <c r="T76" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F77">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I77" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M77" t="s">
-        <v>79</v>
-      </c>
-      <c r="O77" t="s">
-        <v>180</v>
-      </c>
-      <c r="S77" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N77" t="s">
+        <v>81</v>
+      </c>
+      <c r="P77" t="s">
+        <v>182</v>
+      </c>
+      <c r="T77" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F78">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M78" t="s">
-        <v>79</v>
-      </c>
-      <c r="O78" t="s">
-        <v>182</v>
-      </c>
-      <c r="S78" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N78" t="s">
+        <v>81</v>
+      </c>
+      <c r="P78" t="s">
+        <v>184</v>
+      </c>
+      <c r="T78" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F79">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M79" t="s">
-        <v>79</v>
-      </c>
-      <c r="O79" t="s">
-        <v>183</v>
-      </c>
-      <c r="S79" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N79" t="s">
+        <v>81</v>
+      </c>
+      <c r="P79" t="s">
+        <v>185</v>
+      </c>
+      <c r="T79" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F80">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I80" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J80" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M80" t="s">
-        <v>79</v>
-      </c>
-      <c r="O80" t="s">
-        <v>184</v>
-      </c>
-      <c r="S80" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N80" t="s">
+        <v>81</v>
+      </c>
+      <c r="P80" t="s">
+        <v>186</v>
+      </c>
+      <c r="T80" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F81">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M81" t="s">
-        <v>79</v>
-      </c>
-      <c r="O81" t="s">
-        <v>186</v>
-      </c>
-      <c r="S81" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N81" t="s">
+        <v>81</v>
+      </c>
+      <c r="P81" t="s">
+        <v>188</v>
+      </c>
+      <c r="T81" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F82">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$10</f>
       </c>
       <c r="G82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I82" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J82" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M82" t="s">
-        <v>79</v>
-      </c>
-      <c r="O82" t="s">
-        <v>144</v>
-      </c>
-      <c r="S82" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N82" t="s">
+        <v>81</v>
+      </c>
+      <c r="P82" t="s">
+        <v>189</v>
+      </c>
+      <c r="T82" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F83">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I83" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J83" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M83" t="s">
-        <v>79</v>
-      </c>
-      <c r="O83" t="s">
-        <v>150</v>
-      </c>
-      <c r="S83" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N83" t="s">
+        <v>81</v>
+      </c>
+      <c r="P83" t="s">
+        <v>146</v>
+      </c>
+      <c r="T83" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F84">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G84" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I84" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J84" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M84" t="s">
-        <v>79</v>
-      </c>
-      <c r="O84" t="s">
-        <v>147</v>
-      </c>
-      <c r="S84" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N84" t="s">
+        <v>81</v>
+      </c>
+      <c r="P84" t="s">
+        <v>152</v>
+      </c>
+      <c r="T84" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F85">
-        <f>值集数据!$E$12</f>
+        <f>值集数据!$E$11</f>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I85" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J85" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M85" t="s">
-        <v>79</v>
-      </c>
-      <c r="O85" t="s">
-        <v>147</v>
+        <v>81</v>
+      </c>
+      <c r="N85" t="s">
+        <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
-      </c>
-      <c r="S85" t="s">
-        <v>81</v>
+        <v>149</v>
+      </c>
+      <c r="T85" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F86">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G86" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H86" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I86" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J86" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M86" t="s">
-        <v>79</v>
-      </c>
-      <c r="O86" t="s">
-        <v>150</v>
+        <v>81</v>
+      </c>
+      <c r="N86" t="s">
+        <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
-      </c>
-      <c r="S86" t="s">
-        <v>81</v>
+        <v>149</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>211</v>
+      </c>
+      <c r="T86" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F87">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G87" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H87" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I87" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J87" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M87" t="s">
-        <v>79</v>
-      </c>
-      <c r="O87" t="s">
-        <v>153</v>
+        <v>81</v>
+      </c>
+      <c r="N87" t="s">
+        <v>81</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
-      </c>
-      <c r="S87" t="s">
-        <v>81</v>
+        <v>152</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>211</v>
+      </c>
+      <c r="T87" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F88">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G88" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H88" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I88" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J88" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M88" t="s">
-        <v>79</v>
-      </c>
-      <c r="O88" t="s">
-        <v>154</v>
+        <v>81</v>
+      </c>
+      <c r="N88" t="s">
+        <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
-      </c>
-      <c r="S88" t="s">
-        <v>81</v>
+        <v>155</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>211</v>
+      </c>
+      <c r="T88" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F89">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H89" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I89" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J89" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M89" t="s">
-        <v>79</v>
-      </c>
-      <c r="O89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P89" t="s">
         <v>156</v>
       </c>
-      <c r="P89" t="s">
-        <v>209</v>
-      </c>
-      <c r="S89" t="s">
-        <v>81</v>
+      <c r="Q89" t="s">
+        <v>211</v>
+      </c>
+      <c r="T89" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F90">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H90" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I90" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J90" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M90" t="s">
-        <v>79</v>
-      </c>
-      <c r="O90" t="s">
-        <v>157</v>
+        <v>81</v>
+      </c>
+      <c r="N90" t="s">
+        <v>81</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
-      </c>
-      <c r="S90" t="s">
-        <v>81</v>
+        <v>158</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>211</v>
+      </c>
+      <c r="T90" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F91">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H91" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I91" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J91" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M91" t="s">
-        <v>79</v>
-      </c>
-      <c r="O91" t="s">
-        <v>160</v>
+        <v>81</v>
+      </c>
+      <c r="N91" t="s">
+        <v>81</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
-      </c>
-      <c r="S91" t="s">
-        <v>81</v>
+        <v>159</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>211</v>
+      </c>
+      <c r="T91" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F92">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G92" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H92" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I92" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J92" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O92" t="s">
-        <v>164</v>
+        <v>81</v>
+      </c>
+      <c r="N92" t="s">
+        <v>81</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
-      </c>
-      <c r="S92" t="s">
-        <v>81</v>
+        <v>162</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>211</v>
+      </c>
+      <c r="T92" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F93">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G93" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H93" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I93" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J93" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M93" t="s">
-        <v>79</v>
-      </c>
-      <c r="O93" t="s">
-        <v>171</v>
+        <v>81</v>
+      </c>
+      <c r="N93" t="s">
+        <v>81</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
-      </c>
-      <c r="S93" t="s">
-        <v>81</v>
+        <v>166</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>211</v>
+      </c>
+      <c r="T93" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F94">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H94" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I94" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J94" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M94" t="s">
-        <v>79</v>
-      </c>
-      <c r="O94" t="s">
+        <v>81</v>
+      </c>
+      <c r="N94" t="s">
+        <v>81</v>
+      </c>
+      <c r="P94" t="s">
         <v>173</v>
       </c>
-      <c r="P94" t="s">
-        <v>209</v>
-      </c>
-      <c r="S94" t="s">
-        <v>81</v>
+      <c r="Q94" t="s">
+        <v>211</v>
+      </c>
+      <c r="T94" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F95">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H95" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I95" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J95" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M95" t="s">
-        <v>79</v>
-      </c>
-      <c r="O95" t="s">
-        <v>174</v>
+        <v>81</v>
+      </c>
+      <c r="N95" t="s">
+        <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
-      </c>
-      <c r="S95" t="s">
-        <v>81</v>
+        <v>175</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>211</v>
+      </c>
+      <c r="T95" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F96">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I96" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J96" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M96" t="s">
-        <v>79</v>
-      </c>
-      <c r="O96" t="s">
-        <v>175</v>
+        <v>81</v>
+      </c>
+      <c r="N96" t="s">
+        <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
-      </c>
-      <c r="S96" t="s">
-        <v>81</v>
+        <v>176</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>211</v>
+      </c>
+      <c r="T96" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F97">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G97" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H97" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I97" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J97" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M97" t="s">
-        <v>79</v>
-      </c>
-      <c r="O97" t="s">
-        <v>176</v>
+        <v>81</v>
+      </c>
+      <c r="N97" t="s">
+        <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
-      </c>
-      <c r="S97" t="s">
-        <v>81</v>
+        <v>177</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>211</v>
+      </c>
+      <c r="T97" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F98">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H98" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I98" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J98" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M98" t="s">
-        <v>79</v>
-      </c>
-      <c r="O98" t="s">
+        <v>81</v>
+      </c>
+      <c r="N98" t="s">
+        <v>81</v>
+      </c>
+      <c r="P98" t="s">
         <v>178</v>
       </c>
-      <c r="P98" t="s">
-        <v>209</v>
-      </c>
-      <c r="S98" t="s">
-        <v>81</v>
+      <c r="Q98" t="s">
+        <v>211</v>
+      </c>
+      <c r="T98" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F99">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G99" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H99" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I99" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J99" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M99" t="s">
-        <v>79</v>
-      </c>
-      <c r="O99" t="s">
+        <v>81</v>
+      </c>
+      <c r="N99" t="s">
+        <v>81</v>
+      </c>
+      <c r="P99" t="s">
         <v>180</v>
       </c>
-      <c r="P99" t="s">
-        <v>209</v>
-      </c>
-      <c r="S99" t="s">
-        <v>81</v>
+      <c r="Q99" t="s">
+        <v>211</v>
+      </c>
+      <c r="T99" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F100">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G100" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H100" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I100" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J100" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M100" t="s">
-        <v>79</v>
-      </c>
-      <c r="O100" t="s">
+        <v>81</v>
+      </c>
+      <c r="N100" t="s">
+        <v>81</v>
+      </c>
+      <c r="P100" t="s">
         <v>182</v>
       </c>
-      <c r="P100" t="s">
-        <v>209</v>
-      </c>
-      <c r="S100" t="s">
-        <v>81</v>
+      <c r="Q100" t="s">
+        <v>211</v>
+      </c>
+      <c r="T100" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F101">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G101" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H101" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I101" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J101" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M101" t="s">
-        <v>79</v>
-      </c>
-      <c r="O101" t="s">
-        <v>183</v>
+        <v>81</v>
+      </c>
+      <c r="N101" t="s">
+        <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
-      </c>
-      <c r="S101" t="s">
-        <v>81</v>
+        <v>184</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>211</v>
+      </c>
+      <c r="T101" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F102">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G102" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H102" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I102" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J102" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M102" t="s">
-        <v>79</v>
-      </c>
-      <c r="O102" t="s">
-        <v>184</v>
+        <v>81</v>
+      </c>
+      <c r="N102" t="s">
+        <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>209</v>
-      </c>
-      <c r="S102" t="s">
-        <v>81</v>
+        <v>185</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>211</v>
+      </c>
+      <c r="T102" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F103">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G103" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H103" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I103" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J103" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M103" t="s">
-        <v>79</v>
-      </c>
-      <c r="O103" t="s">
+        <v>81</v>
+      </c>
+      <c r="N103" t="s">
+        <v>81</v>
+      </c>
+      <c r="P103" t="s">
         <v>186</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>211</v>
       </c>
-      <c r="S103" t="s">
-        <v>81</v>
+      <c r="T103" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F104">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G104" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H104" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I104" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J104" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M104" t="s">
-        <v>79</v>
-      </c>
-      <c r="O104" t="s">
-        <v>187</v>
+        <v>81</v>
+      </c>
+      <c r="N104" t="s">
+        <v>81</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
-      </c>
-      <c r="S104" t="s">
-        <v>81</v>
+        <v>188</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>213</v>
+      </c>
+      <c r="T104" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F105">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G105" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H105" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I105" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J105" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M105" t="s">
-        <v>79</v>
-      </c>
-      <c r="O105" t="s">
-        <v>188</v>
+        <v>81</v>
+      </c>
+      <c r="N105" t="s">
+        <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>211</v>
-      </c>
-      <c r="S105" t="s">
-        <v>81</v>
+        <v>189</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>213</v>
+      </c>
+      <c r="T105" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F106">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G106" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H106" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I106" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J106" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M106" t="s">
-        <v>79</v>
-      </c>
-      <c r="O106" t="s">
-        <v>191</v>
+        <v>81</v>
+      </c>
+      <c r="N106" t="s">
+        <v>81</v>
       </c>
       <c r="P106" t="s">
-        <v>211</v>
-      </c>
-      <c r="S106" t="s">
-        <v>81</v>
+        <v>190</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>213</v>
+      </c>
+      <c r="T106" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F107">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G107" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H107" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I107" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J107" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M107" t="s">
-        <v>79</v>
-      </c>
-      <c r="O107" t="s">
-        <v>195</v>
+        <v>81</v>
+      </c>
+      <c r="N107" t="s">
+        <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
-      </c>
-      <c r="S107" t="s">
-        <v>81</v>
+        <v>193</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>213</v>
+      </c>
+      <c r="T107" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F108">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G108" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H108" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I108" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J108" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M108" t="s">
-        <v>79</v>
-      </c>
-      <c r="O108" t="s">
-        <v>200</v>
+        <v>81</v>
+      </c>
+      <c r="N108" t="s">
+        <v>81</v>
       </c>
       <c r="P108" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q108" t="s">
         <v>213</v>
       </c>
-      <c r="S108" t="s">
-        <v>81</v>
+      <c r="T108" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F109">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G109" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H109" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I109" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J109" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M109" t="s">
-        <v>79</v>
-      </c>
-      <c r="O109" t="s">
-        <v>204</v>
+        <v>81</v>
+      </c>
+      <c r="N109" t="s">
+        <v>81</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
-      </c>
-      <c r="S109" t="s">
-        <v>81</v>
+        <v>202</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>215</v>
+      </c>
+      <c r="T109" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F110">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G110" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H110" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I110" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J110" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M110" t="s">
-        <v>79</v>
-      </c>
-      <c r="O110" t="s">
-        <v>207</v>
+        <v>81</v>
+      </c>
+      <c r="N110" t="s">
+        <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>213</v>
-      </c>
-      <c r="S110" t="s">
-        <v>81</v>
+        <v>206</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>215</v>
+      </c>
+      <c r="T110" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F111">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G111" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H111" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I111" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J111" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M111" t="s">
-        <v>79</v>
-      </c>
-      <c r="O111" t="s">
-        <v>205</v>
+        <v>81</v>
+      </c>
+      <c r="N111" t="s">
+        <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>213</v>
-      </c>
-      <c r="S111" t="s">
-        <v>81</v>
+        <v>209</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>215</v>
+      </c>
+      <c r="T111" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F112">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G112" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H112" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I112" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J112" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M112" t="s">
-        <v>79</v>
-      </c>
-      <c r="O112" t="s">
-        <v>208</v>
+        <v>81</v>
+      </c>
+      <c r="N112" t="s">
+        <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>213</v>
-      </c>
-      <c r="S112" t="s">
-        <v>81</v>
+        <v>207</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>215</v>
+      </c>
+      <c r="T112" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F113">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G113" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H113" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I113" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J113" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M113" t="s">
-        <v>79</v>
-      </c>
-      <c r="O113" t="s">
-        <v>296</v>
+        <v>81</v>
+      </c>
+      <c r="N113" t="s">
+        <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>213</v>
-      </c>
-      <c r="S113" t="s">
-        <v>81</v>
+        <v>210</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>215</v>
+      </c>
+      <c r="T113" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F114">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G114" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H114" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I114" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J114" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M114" t="s">
-        <v>79</v>
-      </c>
-      <c r="O114" t="s">
-        <v>298</v>
+        <v>81</v>
+      </c>
+      <c r="N114" t="s">
+        <v>81</v>
       </c>
       <c r="P114" t="s">
-        <v>213</v>
-      </c>
-      <c r="S114" t="s">
-        <v>81</v>
+        <v>300</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>215</v>
+      </c>
+      <c r="T114" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F115">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G115" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H115" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I115" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J115" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M115" t="s">
-        <v>79</v>
-      </c>
-      <c r="O115" t="s">
-        <v>300</v>
+        <v>81</v>
+      </c>
+      <c r="N115" t="s">
+        <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>213</v>
-      </c>
-      <c r="S115" t="s">
-        <v>81</v>
+        <v>302</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>215</v>
+      </c>
+      <c r="T115" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F116">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G116" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H116" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I116" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J116" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M116" t="s">
-        <v>79</v>
-      </c>
-      <c r="O116" t="s">
-        <v>302</v>
+        <v>81</v>
+      </c>
+      <c r="N116" t="s">
+        <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>213</v>
-      </c>
-      <c r="S116" t="s">
-        <v>81</v>
+        <v>304</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>215</v>
+      </c>
+      <c r="T116" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F117">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G117" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H117" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I117" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J117" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M117" t="s">
-        <v>79</v>
-      </c>
-      <c r="O117" t="s">
-        <v>304</v>
+        <v>81</v>
+      </c>
+      <c r="N117" t="s">
+        <v>81</v>
       </c>
       <c r="P117" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q117" t="s">
         <v>215</v>
       </c>
-      <c r="S117" t="s">
-        <v>81</v>
+      <c r="T117" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F118">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G118" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H118" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I118" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J118" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M118" t="s">
-        <v>79</v>
-      </c>
-      <c r="O118" t="s">
-        <v>306</v>
+        <v>81</v>
+      </c>
+      <c r="N118" t="s">
+        <v>81</v>
       </c>
       <c r="P118" t="s">
-        <v>215</v>
-      </c>
-      <c r="S118" t="s">
-        <v>81</v>
+        <v>308</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>217</v>
+      </c>
+      <c r="T118" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F119">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G119" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H119" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I119" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J119" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M119" t="s">
-        <v>79</v>
-      </c>
-      <c r="O119" t="s">
-        <v>308</v>
+        <v>81</v>
+      </c>
+      <c r="N119" t="s">
+        <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>215</v>
-      </c>
-      <c r="S119" t="s">
-        <v>81</v>
+        <v>310</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>217</v>
+      </c>
+      <c r="T119" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F120">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H120" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I120" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J120" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M120" t="s">
-        <v>79</v>
-      </c>
-      <c r="O120" t="s">
-        <v>310</v>
+        <v>81</v>
+      </c>
+      <c r="N120" t="s">
+        <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>215</v>
-      </c>
-      <c r="S120" t="s">
-        <v>81</v>
+        <v>312</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>217</v>
+      </c>
+      <c r="T120" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F121">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H121" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I121" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J121" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O121" t="s">
-        <v>312</v>
+        <v>81</v>
+      </c>
+      <c r="N121" t="s">
+        <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>215</v>
-      </c>
-      <c r="S121" t="s">
-        <v>81</v>
+        <v>314</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>217</v>
+      </c>
+      <c r="T121" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F122">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G122" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H122" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I122" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J122" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M122" t="s">
-        <v>79</v>
-      </c>
-      <c r="O122" t="s">
-        <v>314</v>
+        <v>81</v>
+      </c>
+      <c r="N122" t="s">
+        <v>81</v>
       </c>
       <c r="P122" t="s">
-        <v>215</v>
-      </c>
-      <c r="S122" t="s">
-        <v>81</v>
+        <v>316</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>217</v>
+      </c>
+      <c r="T122" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F123">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G123" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H123" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I123" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J123" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M123" t="s">
-        <v>79</v>
-      </c>
-      <c r="O123" t="s">
-        <v>316</v>
+        <v>81</v>
+      </c>
+      <c r="N123" t="s">
+        <v>81</v>
       </c>
       <c r="P123" t="s">
-        <v>215</v>
-      </c>
-      <c r="S123" t="s">
-        <v>81</v>
+        <v>318</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>217</v>
+      </c>
+      <c r="T123" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F124">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G124" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H124" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I124" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J124" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M124" t="s">
-        <v>79</v>
-      </c>
-      <c r="O124" t="s">
-        <v>318</v>
+        <v>81</v>
+      </c>
+      <c r="N124" t="s">
+        <v>81</v>
       </c>
       <c r="P124" t="s">
-        <v>215</v>
-      </c>
-      <c r="S124" t="s">
-        <v>81</v>
+        <v>320</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>217</v>
+      </c>
+      <c r="T124" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F125">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G125" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H125" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I125" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J125" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M125" t="s">
-        <v>79</v>
-      </c>
-      <c r="O125" t="s">
-        <v>320</v>
+        <v>81</v>
+      </c>
+      <c r="N125" t="s">
+        <v>81</v>
       </c>
       <c r="P125" t="s">
-        <v>215</v>
-      </c>
-      <c r="S125" t="s">
-        <v>81</v>
+        <v>322</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>217</v>
+      </c>
+      <c r="T125" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F126">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G126" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H126" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I126" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J126" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M126" t="s">
-        <v>79</v>
-      </c>
-      <c r="O126" t="s">
-        <v>322</v>
+        <v>81</v>
+      </c>
+      <c r="N126" t="s">
+        <v>81</v>
       </c>
       <c r="P126" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q126" t="s">
         <v>217</v>
       </c>
-      <c r="S126" t="s">
-        <v>81</v>
+      <c r="T126" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F127">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G127" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H127" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I127" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J127" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M127" t="s">
-        <v>79</v>
-      </c>
-      <c r="O127" t="s">
-        <v>324</v>
+        <v>81</v>
+      </c>
+      <c r="N127" t="s">
+        <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>217</v>
-      </c>
-      <c r="S127" t="s">
-        <v>81</v>
+        <v>326</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>219</v>
+      </c>
+      <c r="T127" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F128">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G128" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H128" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I128" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J128" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M128" t="s">
-        <v>79</v>
-      </c>
-      <c r="O128" t="s">
-        <v>326</v>
+        <v>81</v>
+      </c>
+      <c r="N128" t="s">
+        <v>81</v>
       </c>
       <c r="P128" t="s">
-        <v>217</v>
-      </c>
-      <c r="S128" t="s">
-        <v>81</v>
+        <v>328</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>219</v>
+      </c>
+      <c r="T128" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F129">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G129" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H129" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I129" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J129" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M129" t="s">
-        <v>79</v>
-      </c>
-      <c r="O129" t="s">
-        <v>328</v>
+        <v>81</v>
+      </c>
+      <c r="N129" t="s">
+        <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>217</v>
-      </c>
-      <c r="S129" t="s">
-        <v>81</v>
+        <v>330</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>219</v>
+      </c>
+      <c r="T129" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F130">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G130" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H130" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I130" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J130" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M130" t="s">
-        <v>79</v>
-      </c>
-      <c r="O130" t="s">
-        <v>330</v>
+        <v>81</v>
+      </c>
+      <c r="N130" t="s">
+        <v>81</v>
       </c>
       <c r="P130" t="s">
-        <v>217</v>
-      </c>
-      <c r="S130" t="s">
-        <v>81</v>
+        <v>332</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>219</v>
+      </c>
+      <c r="T130" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F131">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G131" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H131" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I131" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J131" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M131" t="s">
-        <v>79</v>
-      </c>
-      <c r="O131" t="s">
-        <v>332</v>
+        <v>81</v>
+      </c>
+      <c r="N131" t="s">
+        <v>81</v>
       </c>
       <c r="P131" t="s">
-        <v>217</v>
-      </c>
-      <c r="S131" t="s">
-        <v>81</v>
+        <v>334</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>219</v>
+      </c>
+      <c r="T131" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F132">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G132" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H132" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I132" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J132" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M132" t="s">
-        <v>79</v>
-      </c>
-      <c r="O132" t="s">
-        <v>334</v>
+        <v>81</v>
+      </c>
+      <c r="N132" t="s">
+        <v>81</v>
       </c>
       <c r="P132" t="s">
-        <v>217</v>
-      </c>
-      <c r="S132" t="s">
-        <v>81</v>
+        <v>336</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>219</v>
+      </c>
+      <c r="T132" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F133">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G133" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H133" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I133" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J133" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M133" t="s">
-        <v>79</v>
-      </c>
-      <c r="O133" t="s">
-        <v>336</v>
+        <v>81</v>
+      </c>
+      <c r="N133" t="s">
+        <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>217</v>
-      </c>
-      <c r="S133" t="s">
-        <v>81</v>
+        <v>338</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>219</v>
+      </c>
+      <c r="T133" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F134">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G134" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H134" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I134" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J134" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M134" t="s">
-        <v>79</v>
-      </c>
-      <c r="O134" t="s">
-        <v>338</v>
+        <v>81</v>
+      </c>
+      <c r="N134" t="s">
+        <v>81</v>
       </c>
       <c r="P134" t="s">
-        <v>217</v>
-      </c>
-      <c r="S134" t="s">
-        <v>81</v>
+        <v>340</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>219</v>
+      </c>
+      <c r="T134" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F135">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G135" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H135" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I135" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J135" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M135" t="s">
-        <v>79</v>
-      </c>
-      <c r="O135" t="s">
-        <v>340</v>
+        <v>81</v>
+      </c>
+      <c r="N135" t="s">
+        <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>217</v>
-      </c>
-      <c r="S135" t="s">
-        <v>81</v>
+        <v>342</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>219</v>
+      </c>
+      <c r="T135" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F136">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G136" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H136" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I136" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J136" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M136" t="s">
-        <v>79</v>
-      </c>
-      <c r="O136" t="s">
-        <v>342</v>
+        <v>81</v>
+      </c>
+      <c r="N136" t="s">
+        <v>81</v>
       </c>
       <c r="P136" t="s">
-        <v>217</v>
-      </c>
-      <c r="S136" t="s">
-        <v>81</v>
+        <v>344</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>219</v>
+      </c>
+      <c r="T136" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F137">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G137" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H137" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I137" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J137" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M137" t="s">
-        <v>79</v>
-      </c>
-      <c r="O137" t="s">
-        <v>344</v>
+        <v>81</v>
+      </c>
+      <c r="N137" t="s">
+        <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>217</v>
-      </c>
-      <c r="S137" t="s">
-        <v>81</v>
+        <v>346</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>219</v>
+      </c>
+      <c r="T137" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F138">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G138" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H138" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I138" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J138" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M138" t="s">
-        <v>79</v>
-      </c>
-      <c r="O138" t="s">
-        <v>346</v>
+        <v>81</v>
+      </c>
+      <c r="N138" t="s">
+        <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>217</v>
-      </c>
-      <c r="S138" t="s">
-        <v>81</v>
+        <v>348</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>219</v>
+      </c>
+      <c r="T138" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F139">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G139" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H139" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I139" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J139" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M139" t="s">
-        <v>79</v>
-      </c>
-      <c r="O139" t="s">
-        <v>348</v>
+        <v>81</v>
+      </c>
+      <c r="N139" t="s">
+        <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>217</v>
-      </c>
-      <c r="S139" t="s">
-        <v>81</v>
+        <v>350</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>219</v>
+      </c>
+      <c r="T139" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F140">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G140" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H140" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I140" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J140" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M140" t="s">
-        <v>79</v>
-      </c>
-      <c r="O140" t="s">
-        <v>190</v>
+        <v>81</v>
+      </c>
+      <c r="N140" t="s">
+        <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>211</v>
-      </c>
-      <c r="S140" t="s">
-        <v>81</v>
+        <v>352</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>219</v>
+      </c>
+      <c r="T140" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F141">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G141" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H141" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I141" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="J141" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M141" t="s">
-        <v>79</v>
-      </c>
-      <c r="O141" t="s">
-        <v>167</v>
+        <v>81</v>
+      </c>
+      <c r="N141" t="s">
+        <v>81</v>
       </c>
       <c r="P141" t="s">
-        <v>209</v>
-      </c>
-      <c r="S141" t="s">
-        <v>81</v>
+        <v>192</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>213</v>
+      </c>
+      <c r="T141" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F142">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G142" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H142" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I142" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J142" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M142" t="s">
-        <v>79</v>
-      </c>
-      <c r="O142" t="s">
-        <v>170</v>
+        <v>81</v>
+      </c>
+      <c r="N142" t="s">
+        <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>209</v>
-      </c>
-      <c r="S142" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>211</v>
+      </c>
+      <c r="T142" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F143">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G143" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H143" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I143" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J143" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M143" t="s">
-        <v>79</v>
-      </c>
-      <c r="O143" t="s">
-        <v>190</v>
+        <v>81</v>
+      </c>
+      <c r="N143" t="s">
+        <v>81</v>
       </c>
       <c r="P143" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q143" t="s">
         <v>211</v>
       </c>
-      <c r="S143" t="s">
-        <v>81</v>
+      <c r="T143" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F144">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G144" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H144" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I144" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J144" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M144" t="s">
-        <v>79</v>
-      </c>
-      <c r="O144" t="s">
-        <v>353</v>
+        <v>81</v>
+      </c>
+      <c r="N144" t="s">
+        <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>217</v>
-      </c>
-      <c r="S144" t="s">
-        <v>81</v>
+        <v>192</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>213</v>
+      </c>
+      <c r="T144" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F145">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G145" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H145" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I145" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J145" t="s">
         <v>356</v>
       </c>
       <c r="M145" t="s">
-        <v>79</v>
-      </c>
-      <c r="O145" t="s">
-        <v>144</v>
-      </c>
-      <c r="S145" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N145" t="s">
+        <v>81</v>
+      </c>
+      <c r="P145" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>219</v>
+      </c>
+      <c r="T145" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F146">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G146" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H146" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I146" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J146" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M146" t="s">
-        <v>79</v>
-      </c>
-      <c r="O146" t="s">
-        <v>147</v>
-      </c>
-      <c r="S146" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N146" t="s">
+        <v>81</v>
+      </c>
+      <c r="P146" t="s">
+        <v>146</v>
+      </c>
+      <c r="T146" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F147">
-        <f>值集数据!$E$14</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G147" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H147" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I147" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J147" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M147" t="s">
-        <v>79</v>
-      </c>
-      <c r="O147" t="s">
-        <v>144</v>
-      </c>
-      <c r="S147" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N147" t="s">
+        <v>81</v>
+      </c>
+      <c r="P147" t="s">
+        <v>149</v>
+      </c>
+      <c r="T147" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F148">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G148" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H148" t="s">
-        <v>158</v>
+        <v>364</v>
       </c>
       <c r="I148" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
       <c r="J148" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
       <c r="M148" t="s">
-        <v>79</v>
-      </c>
-      <c r="O148" t="s">
-        <v>147</v>
-      </c>
-      <c r="S148" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N148" t="s">
+        <v>81</v>
+      </c>
+      <c r="P148" t="s">
+        <v>146</v>
+      </c>
+      <c r="T148" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F149">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G149" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H149" t="s">
-        <v>362</v>
+        <v>160</v>
       </c>
       <c r="I149" t="s">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="J149" t="s">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="M149" t="s">
-        <v>79</v>
-      </c>
-      <c r="O149" t="s">
-        <v>364</v>
-      </c>
-      <c r="S149" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N149" t="s">
+        <v>81</v>
+      </c>
+      <c r="P149" t="s">
+        <v>149</v>
+      </c>
+      <c r="T149" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F150">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G150" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H150" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I150" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J150" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M150" t="s">
-        <v>79</v>
-      </c>
-      <c r="O150" t="s">
-        <v>144</v>
-      </c>
-      <c r="S150" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N150" t="s">
+        <v>81</v>
+      </c>
+      <c r="P150" t="s">
+        <v>368</v>
+      </c>
+      <c r="T150" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F151">
         <f>值集数据!$E$15</f>
       </c>
       <c r="G151" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H151" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I151" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J151" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M151" t="s">
-        <v>79</v>
-      </c>
-      <c r="O151" t="s">
-        <v>147</v>
-      </c>
-      <c r="S151" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N151" t="s">
+        <v>81</v>
+      </c>
+      <c r="P151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T151" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F152">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$15</f>
       </c>
       <c r="G152" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H152" t="s">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="I152" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J152" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M152" t="s">
-        <v>79</v>
-      </c>
-      <c r="O152" t="s">
-        <v>144</v>
-      </c>
-      <c r="S152" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N152" t="s">
+        <v>81</v>
+      </c>
+      <c r="P152" t="s">
+        <v>149</v>
+      </c>
+      <c r="T152" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F153">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G153" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H153" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="I153" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J153" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M153" t="s">
-        <v>79</v>
-      </c>
-      <c r="O153" t="s">
-        <v>147</v>
-      </c>
-      <c r="S153" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N153" t="s">
+        <v>81</v>
+      </c>
+      <c r="P153" t="s">
+        <v>146</v>
+      </c>
+      <c r="T153" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F154">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G154" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H154" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I154" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J154" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M154" t="s">
-        <v>79</v>
-      </c>
-      <c r="O154" t="s">
-        <v>150</v>
-      </c>
-      <c r="S154" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N154" t="s">
+        <v>81</v>
+      </c>
+      <c r="P154" t="s">
+        <v>149</v>
+      </c>
+      <c r="T154" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F155">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G155" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H155" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I155" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J155" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M155" t="s">
-        <v>79</v>
-      </c>
-      <c r="O155" t="s">
-        <v>153</v>
-      </c>
-      <c r="S155" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N155" t="s">
+        <v>81</v>
+      </c>
+      <c r="P155" t="s">
+        <v>152</v>
+      </c>
+      <c r="T155" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F156">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G156" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I156" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J156" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M156" t="s">
-        <v>79</v>
-      </c>
-      <c r="O156" t="s">
-        <v>154</v>
-      </c>
-      <c r="S156" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N156" t="s">
+        <v>81</v>
+      </c>
+      <c r="P156" t="s">
+        <v>155</v>
+      </c>
+      <c r="T156" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F157">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G157" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H157" t="s">
         <v>181</v>
       </c>
       <c r="I157" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J157" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M157" t="s">
-        <v>79</v>
-      </c>
-      <c r="O157" t="s">
-        <v>157</v>
-      </c>
-      <c r="S157" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N157" t="s">
+        <v>81</v>
+      </c>
+      <c r="P157" t="s">
+        <v>156</v>
+      </c>
+      <c r="T157" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F158">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G158" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I158" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J158" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M158" t="s">
-        <v>79</v>
-      </c>
-      <c r="O158" t="s">
-        <v>160</v>
-      </c>
-      <c r="S158" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N158" t="s">
+        <v>81</v>
+      </c>
+      <c r="P158" t="s">
+        <v>159</v>
+      </c>
+      <c r="T158" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F159">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G159" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I159" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J159" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M159" t="s">
-        <v>79</v>
-      </c>
-      <c r="O159" t="s">
-        <v>164</v>
-      </c>
-      <c r="S159" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N159" t="s">
+        <v>81</v>
+      </c>
+      <c r="P159" t="s">
+        <v>162</v>
+      </c>
+      <c r="T159" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F160">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G160" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H160" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I160" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J160" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M160" t="s">
-        <v>79</v>
-      </c>
-      <c r="O160" t="s">
-        <v>170</v>
-      </c>
-      <c r="S160" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N160" t="s">
+        <v>81</v>
+      </c>
+      <c r="P160" t="s">
+        <v>166</v>
+      </c>
+      <c r="T160" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F161">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G161" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H161" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I161" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J161" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M161" t="s">
-        <v>79</v>
-      </c>
-      <c r="O161" t="s">
-        <v>171</v>
-      </c>
-      <c r="S161" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N161" t="s">
+        <v>81</v>
+      </c>
+      <c r="P161" t="s">
+        <v>172</v>
+      </c>
+      <c r="T161" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F162">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G162" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H162" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="I162" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="J162" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M162" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N162" t="s">
-        <v>387</v>
-      </c>
-      <c r="O162" t="s">
-        <v>167</v>
-      </c>
-      <c r="S162" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="P162" t="s">
+        <v>173</v>
+      </c>
+      <c r="T162" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F163">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G163" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="H163" t="s">
-        <v>388</v>
+        <v>146</v>
       </c>
       <c r="I163" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="J163" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M163" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="N163" t="s">
+        <v>81</v>
       </c>
       <c r="O163" t="s">
-        <v>144</v>
-      </c>
-      <c r="S163" t="s">
-        <v>81</v>
+        <v>391</v>
+      </c>
+      <c r="P163" t="s">
+        <v>169</v>
+      </c>
+      <c r="T163" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F164">
         <f>值集数据!$E$19</f>
       </c>
       <c r="G164" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H164" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I164" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J164" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M164" t="s">
-        <v>79</v>
-      </c>
-      <c r="O164" t="s">
-        <v>147</v>
-      </c>
-      <c r="S164" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N164" t="s">
+        <v>81</v>
+      </c>
+      <c r="P164" t="s">
+        <v>146</v>
+      </c>
+      <c r="T164" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F165">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G165" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H165" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I165" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J165" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M165" t="s">
-        <v>79</v>
-      </c>
-      <c r="O165" t="s">
-        <v>144</v>
-      </c>
-      <c r="S165" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N165" t="s">
+        <v>81</v>
+      </c>
+      <c r="P165" t="s">
+        <v>149</v>
+      </c>
+      <c r="T165" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F166">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G166" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H166" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I166" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J166" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M166" t="s">
-        <v>79</v>
-      </c>
-      <c r="O166" t="s">
-        <v>150</v>
-      </c>
-      <c r="S166" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N166" t="s">
+        <v>81</v>
+      </c>
+      <c r="P166" t="s">
+        <v>146</v>
+      </c>
+      <c r="T166" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F167">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G167" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H167" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I167" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J167" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M167" t="s">
-        <v>79</v>
-      </c>
-      <c r="O167" t="s">
-        <v>147</v>
-      </c>
-      <c r="S167" t="s">
-        <v>81</v>
+        <v>81</v>
+      </c>
+      <c r="N167" t="s">
+        <v>81</v>
+      </c>
+      <c r="P167" t="s">
+        <v>152</v>
+      </c>
+      <c r="T167" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F168">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G168" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H168" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I168" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J168" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M168" t="s">
-        <v>79</v>
-      </c>
-      <c r="O168" t="s">
-        <v>153</v>
-      </c>
-      <c r="S168" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
+        <v>81</v>
+      </c>
+      <c r="N168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P168" t="s">
+        <v>149</v>
+      </c>
+      <c r="T168" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="E169" t="s">
+        <v>143</v>
+      </c>
+      <c r="F169">
+        <f>值集数据!$E$20</f>
+      </c>
+      <c r="G169" t="s">
+        <v>128</v>
+      </c>
+      <c r="H169" t="s">
+        <v>400</v>
+      </c>
+      <c r="I169" t="s">
+        <v>401</v>
+      </c>
+      <c r="J169" t="s">
+        <v>401</v>
+      </c>
+      <c r="M169" t="s">
+        <v>81</v>
+      </c>
+      <c r="N169" t="s">
+        <v>81</v>
+      </c>
+      <c r="P169" t="s">
+        <v>155</v>
+      </c>
+      <c r="T169" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
         <v>50</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>51</v>
       </c>
-      <c r="C170" t="s">
-        <v>398</v>
-      </c>
-      <c r="D170" t="s" s="49">
-        <v>399</v>
-      </c>
-      <c r="E170" t="s" s="50">
-        <v>400</v>
-      </c>
-      <c r="F170" t="s" s="51">
-        <v>401</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="C171" t="s">
         <v>402</v>
       </c>
-      <c r="H170" t="s">
+      <c r="D171" t="s" s="51">
         <v>403</v>
       </c>
-      <c r="I170" t="s" s="52">
+      <c r="E171" t="s" s="52">
         <v>404</v>
       </c>
-      <c r="J170" t="s" s="53">
+      <c r="F171" t="s" s="53">
+        <v>405</v>
+      </c>
+      <c r="G171" t="s">
+        <v>406</v>
+      </c>
+      <c r="H171" t="s">
+        <v>407</v>
+      </c>
+      <c r="I171" t="s" s="54">
+        <v>408</v>
+      </c>
+      <c r="J171" t="s" s="55">
         <v>62</v>
       </c>
-      <c r="K170" t="s">
-        <v>67</v>
-      </c>
-      <c r="L170" t="s">
+      <c r="K171" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="L171" t="s">
         <v>68</v>
       </c>
-      <c r="M170" t="s">
-        <v>405</v>
-      </c>
-      <c r="N170" t="s">
-        <v>406</v>
-      </c>
-      <c r="O170" t="s">
-        <v>407</v>
-      </c>
-      <c r="P170" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q170" t="s">
+      <c r="M171" t="s">
+        <v>69</v>
+      </c>
+      <c r="N171" t="s">
         <v>409</v>
       </c>
-      <c r="R170" t="s">
+      <c r="O171" t="s">
         <v>410</v>
       </c>
-      <c r="S170" t="s">
+      <c r="P171" t="s">
         <v>411</v>
       </c>
-      <c r="T170" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="E171" t="s">
+      <c r="Q171" t="s">
         <v>412</v>
       </c>
-      <c r="F171" t="s">
+      <c r="R171" t="s">
         <v>413</v>
       </c>
-      <c r="G171" t="s">
+      <c r="S171" t="s">
         <v>414</v>
       </c>
-      <c r="H171" t="s">
+      <c r="T171" t="s">
         <v>415</v>
       </c>
-      <c r="I171">
-        <f>值集数据!$E$16</f>
-      </c>
-      <c r="J171" t="s">
-        <v>79</v>
-      </c>
-      <c r="K171" t="s">
-        <v>112</v>
-      </c>
-      <c r="L171" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>144</v>
-      </c>
-      <c r="R171" t="s">
-        <v>79</v>
-      </c>
-      <c r="T171" t="s">
-        <v>81</v>
+      <c r="U171" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="172">
@@ -9488,195 +10001,207 @@
         <v>416</v>
       </c>
       <c r="F172" t="s">
-        <v>106</v>
+        <v>417</v>
       </c>
       <c r="G172" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H172" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I172">
         <f>值集数据!$E$16</f>
       </c>
       <c r="J172" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K172" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="L172" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>144</v>
+        <v>114</v>
+      </c>
+      <c r="M172" t="s">
+        <v>114</v>
       </c>
       <c r="R172" t="s">
-        <v>79</v>
-      </c>
-      <c r="T172" t="s">
-        <v>81</v>
+        <v>146</v>
+      </c>
+      <c r="S172" t="s">
+        <v>81</v>
+      </c>
+      <c r="U172" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F173" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G173" t="s">
         <v>418</v>
       </c>
       <c r="H173" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I173">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="J173" t="s">
+        <v>81</v>
+      </c>
+      <c r="K173" t="s">
+        <v>81</v>
+      </c>
+      <c r="L173" t="s">
+        <v>114</v>
+      </c>
+      <c r="M173" t="s">
+        <v>114</v>
+      </c>
+      <c r="R173" t="s">
+        <v>146</v>
+      </c>
+      <c r="S173" t="s">
+        <v>81</v>
+      </c>
+      <c r="U173" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="E174" t="s">
+        <v>421</v>
+      </c>
+      <c r="F174" t="s">
+        <v>117</v>
+      </c>
+      <c r="G174" t="s">
+        <v>422</v>
+      </c>
+      <c r="H174" t="s">
+        <v>422</v>
+      </c>
+      <c r="I174">
         <f>值集数据!$E$17</f>
       </c>
-      <c r="J173" t="s">
-        <v>79</v>
-      </c>
-      <c r="K173" t="s">
-        <v>112</v>
-      </c>
-      <c r="L173" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>144</v>
-      </c>
-      <c r="R173" t="s">
-        <v>79</v>
-      </c>
-      <c r="T173" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
+      <c r="J174" t="s">
+        <v>81</v>
+      </c>
+      <c r="K174" t="s">
+        <v>81</v>
+      </c>
+      <c r="L174" t="s">
+        <v>114</v>
+      </c>
+      <c r="M174" t="s">
+        <v>114</v>
+      </c>
+      <c r="R174" t="s">
+        <v>146</v>
+      </c>
+      <c r="S174" t="s">
+        <v>81</v>
+      </c>
+      <c r="U174" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
         <v>50</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>51</v>
       </c>
-      <c r="C175" t="s">
-        <v>419</v>
-      </c>
-      <c r="D175" t="s" s="54">
-        <v>420</v>
-      </c>
-      <c r="E175" t="s" s="55">
-        <v>421</v>
-      </c>
-      <c r="F175" t="s" s="56">
-        <v>422</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="C176" t="s">
         <v>423</v>
       </c>
-      <c r="H175" t="s" s="57">
-        <v>404</v>
-      </c>
-      <c r="I175" t="s">
+      <c r="D176" t="s" s="57">
         <v>424</v>
       </c>
-      <c r="J175" t="s">
+      <c r="E176" t="s" s="58">
         <v>425</v>
       </c>
-      <c r="K175" t="s">
-        <v>137</v>
-      </c>
-      <c r="L175" t="s" s="58">
+      <c r="F176" t="s" s="59">
         <v>426</v>
       </c>
-      <c r="M175" t="s">
+      <c r="G176" t="s">
+        <v>62</v>
+      </c>
+      <c r="H176" t="s">
+        <v>63</v>
+      </c>
+      <c r="I176" t="s" s="60">
+        <v>408</v>
+      </c>
+      <c r="J176" t="s">
         <v>427</v>
       </c>
-      <c r="N175" t="s">
+      <c r="K176" t="s">
         <v>428</v>
       </c>
-      <c r="O175" t="s">
+      <c r="L176" t="s">
+        <v>139</v>
+      </c>
+      <c r="M176" t="s" s="61">
         <v>429</v>
       </c>
-      <c r="P175" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="E176" t="s">
+      <c r="N176" t="s">
         <v>430</v>
       </c>
-      <c r="F176">
-        <f>值集数据!$E$171</f>
-      </c>
-      <c r="G176" t="s">
-        <v>79</v>
-      </c>
-      <c r="H176">
-        <f>值集数据!$E$16</f>
-      </c>
-      <c r="I176" t="s">
+      <c r="O176" t="s">
         <v>431</v>
       </c>
-      <c r="J176" t="s">
-        <v>431</v>
-      </c>
-      <c r="K176" t="s">
-        <v>147</v>
-      </c>
-      <c r="L176" t="s">
-        <v>112</v>
-      </c>
-      <c r="M176" t="s">
-        <v>81</v>
-      </c>
-      <c r="N176" t="s">
-        <v>81</v>
-      </c>
-      <c r="O176" t="s">
-        <v>154</v>
-      </c>
       <c r="P176" t="s">
-        <v>81</v>
+        <v>432</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F177">
-        <f>值集数据!$E$171</f>
+        <f>值集数据!$E$172</f>
       </c>
       <c r="G177" t="s">
-        <v>79</v>
-      </c>
-      <c r="H177">
+        <v>81</v>
+      </c>
+      <c r="H177" t="s">
+        <v>81</v>
+      </c>
+      <c r="I177">
         <f>值集数据!$E$16</f>
-      </c>
-      <c r="I177" t="s">
-        <v>433</v>
       </c>
       <c r="J177" t="s">
         <v>434</v>
       </c>
       <c r="K177" t="s">
-        <v>150</v>
+        <v>434</v>
       </c>
       <c r="L177" t="s">
-        <v>434</v>
+        <v>149</v>
       </c>
       <c r="M177" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="N177" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O177" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>81</v>
+        <v>156</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="178">
@@ -9684,37 +10209,40 @@
         <v>435</v>
       </c>
       <c r="F178">
-        <f>值集数据!$E$171</f>
+        <f>值集数据!$E$172</f>
       </c>
       <c r="G178" t="s">
-        <v>79</v>
-      </c>
-      <c r="H178">
+        <v>81</v>
+      </c>
+      <c r="H178" t="s">
+        <v>81</v>
+      </c>
+      <c r="I178">
         <f>值集数据!$E$16</f>
-      </c>
-      <c r="I178" t="s">
-        <v>436</v>
       </c>
       <c r="J178" t="s">
         <v>436</v>
       </c>
       <c r="K178" t="s">
-        <v>144</v>
+        <v>437</v>
       </c>
       <c r="L178" t="s">
+        <v>152</v>
+      </c>
+      <c r="M178" t="s">
         <v>437</v>
       </c>
-      <c r="M178" t="s">
-        <v>79</v>
-      </c>
       <c r="N178" t="s">
         <v>81</v>
       </c>
       <c r="O178" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="P178" t="s">
-        <v>81</v>
+        <v>156</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="179">
@@ -9725,186 +10253,242 @@
         <f>值集数据!$E$172</f>
       </c>
       <c r="G179" t="s">
-        <v>79</v>
-      </c>
-      <c r="H179">
+        <v>81</v>
+      </c>
+      <c r="H179" t="s">
+        <v>81</v>
+      </c>
+      <c r="I179">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="I179" t="s">
-        <v>431</v>
-      </c>
       <c r="J179" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="K179" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="L179" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="M179" t="s">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="N179" t="s">
         <v>81</v>
       </c>
       <c r="O179" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="P179" t="s">
-        <v>81</v>
+        <v>156</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F180">
-        <f>值集数据!$E$172</f>
+        <f>值集数据!$E$173</f>
       </c>
       <c r="G180" t="s">
-        <v>79</v>
-      </c>
-      <c r="H180">
+        <v>81</v>
+      </c>
+      <c r="H180" t="s">
+        <v>81</v>
+      </c>
+      <c r="I180">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="I180" t="s">
-        <v>433</v>
-      </c>
       <c r="J180" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K180" t="s">
-        <v>150</v>
+        <v>434</v>
       </c>
       <c r="L180" t="s">
-        <v>434</v>
+        <v>149</v>
       </c>
       <c r="M180" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="N180" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O180" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="P180" t="s">
-        <v>81</v>
+        <v>185</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F181">
-        <f>值集数据!$E$172</f>
+        <f>值集数据!$E$173</f>
       </c>
       <c r="G181" t="s">
-        <v>79</v>
-      </c>
-      <c r="H181">
+        <v>81</v>
+      </c>
+      <c r="H181" t="s">
+        <v>81</v>
+      </c>
+      <c r="I181">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="I181" t="s">
-        <v>441</v>
-      </c>
       <c r="J181" t="s">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="K181" t="s">
-        <v>144</v>
+        <v>436</v>
       </c>
       <c r="L181" t="s">
+        <v>152</v>
+      </c>
+      <c r="M181" t="s">
         <v>437</v>
       </c>
-      <c r="M181" t="s">
-        <v>79</v>
-      </c>
       <c r="N181" t="s">
         <v>81</v>
       </c>
       <c r="O181" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="P181" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F182">
         <f>值集数据!$E$173</f>
       </c>
       <c r="G182" t="s">
-        <v>79</v>
-      </c>
-      <c r="H182">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="I182" t="s">
-        <v>431</v>
+        <v>81</v>
+      </c>
+      <c r="H182" t="s">
+        <v>81</v>
+      </c>
+      <c r="I182">
+        <f>值集数据!$E$16</f>
       </c>
       <c r="J182" t="s">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="K182" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="L182" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="M182" t="s">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="N182" t="s">
         <v>81</v>
       </c>
       <c r="O182" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="P182" t="s">
-        <v>81</v>
+        <v>185</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F183">
-        <f>值集数据!$E$173</f>
+        <f>值集数据!$E$174</f>
       </c>
       <c r="G183" t="s">
-        <v>79</v>
-      </c>
-      <c r="H183">
+        <v>81</v>
+      </c>
+      <c r="H183" t="s">
+        <v>81</v>
+      </c>
+      <c r="I183">
         <f>值集数据!$E$17</f>
       </c>
-      <c r="I183" t="s">
-        <v>433</v>
-      </c>
       <c r="J183" t="s">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="K183" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="L183" t="s">
-        <v>434</v>
+        <v>146</v>
       </c>
       <c r="M183" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="N183" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O183" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="P183" t="s">
-        <v>81</v>
+        <v>185</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="E184" t="s">
+        <v>446</v>
+      </c>
+      <c r="F184">
+        <f>值集数据!$E$174</f>
+      </c>
+      <c r="G184" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" t="s">
+        <v>81</v>
+      </c>
+      <c r="I184">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J184" t="s">
+        <v>436</v>
+      </c>
+      <c r="K184" t="s">
+        <v>81</v>
+      </c>
+      <c r="L184" t="s">
+        <v>149</v>
+      </c>
+      <c r="M184" t="s">
+        <v>437</v>
+      </c>
+      <c r="N184" t="s">
+        <v>81</v>
+      </c>
+      <c r="O184" t="s">
+        <v>83</v>
+      </c>
+      <c r="P184" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="490">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-11-17</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,10 +2031,10 @@
     <t>description:en_US</t>
   </si>
   <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>parent_lov_code</t>
@@ -2085,6 +2085,9 @@
     <t>存储配置目录权限</t>
   </si>
   <si>
+    <t>Storage Configuration Directory Permissions</t>
+  </si>
+  <si>
     <t>存储配置目录权限值集(父值集为服务供应商)</t>
   </si>
   <si>
@@ -2106,6 +2109,9 @@
     <t>文件分类</t>
   </si>
   <si>
+    <t>File Classification</t>
+  </si>
+  <si>
     <t>hpfm_lov-10</t>
   </si>
   <si>
@@ -2127,6 +2133,9 @@
     <t>文件编辑类型</t>
   </si>
   <si>
+    <t>File Editing Type</t>
+  </si>
+  <si>
     <t>hpfm_lov-12</t>
   </si>
   <si>
@@ -2136,6 +2145,9 @@
     <t>文件格式</t>
   </si>
   <si>
+    <t>File Format</t>
+  </si>
+  <si>
     <t>hpfm_lov-13</t>
   </si>
   <si>
@@ -2157,6 +2169,9 @@
     <t>文件名前缀策略</t>
   </si>
   <si>
+    <t>File Name Prefix Strategy</t>
+  </si>
+  <si>
     <t>hpfm_lov-15</t>
   </si>
   <si>
@@ -2166,6 +2181,9 @@
     <t>服务器上传类型</t>
   </si>
   <si>
+    <t>Server Upload Type</t>
+  </si>
+  <si>
     <t>hpfm_lov-16</t>
   </si>
   <si>
@@ -2181,7 +2199,7 @@
     <t>服务器上传配置</t>
   </si>
   <si>
-    <t>服务器配置</t>
+    <t>Server Upload Configuration</t>
   </si>
   <si>
     <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
@@ -2216,6 +2234,9 @@
     <t>服务器上传配置(租户级)</t>
   </si>
   <si>
+    <t>Server Upload Configuration (Tenant Level)</t>
+  </si>
+  <si>
     <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
 SELECT
 	hsc.config_id,
@@ -2254,6 +2275,9 @@
     <t>存储大小限制单位</t>
   </si>
   <si>
+    <t>Storage Size Limit Unit</t>
+  </si>
+  <si>
     <t>hpfm_lov-20</t>
   </si>
   <si>
@@ -2263,6 +2287,9 @@
     <t>水印类型</t>
   </si>
   <si>
+    <t>Watermark Type</t>
+  </si>
+  <si>
     <t>LOV独立值集表</t>
   </si>
   <si>
@@ -2311,6 +2338,9 @@
     <t>默认</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -2320,6 +2350,9 @@
     <t>私有</t>
   </si>
   <si>
+    <t>Private</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -2329,6 +2362,9 @@
     <t>公共可读</t>
   </si>
   <si>
+    <t>Publicly Readable</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -2338,6 +2374,9 @@
     <t>公共读写</t>
   </si>
   <si>
+    <t>Public Read And Write</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -2359,6 +2398,9 @@
     <t>无</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
@@ -2371,6 +2413,9 @@
     <t>只读</t>
   </si>
   <si>
+    <t>Read Only</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
@@ -2380,6 +2425,9 @@
     <t>只写</t>
   </si>
   <si>
+    <t>Just Write</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -2389,6 +2437,9 @@
     <t>可读写</t>
   </si>
   <si>
+    <t>Can Read And Write</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
@@ -2512,30 +2563,45 @@
     <t>文件</t>
   </si>
   <si>
+    <t>File</t>
+  </si>
+  <si>
     <t>audio</t>
   </si>
   <si>
     <t>音频</t>
   </si>
   <si>
+    <t>Audio</t>
+  </si>
+  <si>
     <t>video</t>
   </si>
   <si>
     <t>视频</t>
   </si>
   <si>
+    <t>Video</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
     <t>图片</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
     <t>文本</t>
   </si>
   <si>
+    <t>Text</t>
+  </si>
+  <si>
     <t>hpfm01/</t>
   </si>
   <si>
@@ -2644,6 +2710,9 @@
     <t>hitf_document_param</t>
   </si>
   <si>
+    <t>Hitf_Document_Param</t>
+  </si>
+  <si>
     <t>接口服务-文件参数</t>
   </si>
   <si>
@@ -2680,12 +2749,21 @@
     <t>删除</t>
   </si>
   <si>
+    <t>Delete</t>
+  </si>
+  <si>
     <t>格式化</t>
   </si>
   <si>
+    <t>Format</t>
+  </si>
+  <si>
     <t>新增</t>
   </si>
   <si>
+    <t>Create</t>
+  </si>
+  <si>
     <t>ai</t>
   </si>
   <si>
@@ -2977,6 +3055,9 @@
     <t>目录</t>
   </si>
   <si>
+    <t>Table Of Contents</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -2986,12 +3067,18 @@
     <t>服务器</t>
   </si>
   <si>
+    <t>Server</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>集群</t>
   </si>
   <si>
+    <t>Cluster</t>
+  </si>
+  <si>
     <t>阿里云</t>
   </si>
   <si>
@@ -3043,12 +3130,21 @@
     <t>ceph</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>UNUSE</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>七牛云</t>
+  </si>
+  <si>
+    <t>Seven Cattle Cloud</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
@@ -3061,24 +3157,36 @@
     <t>单一文字</t>
   </si>
   <si>
+    <t>Single Text</t>
+  </si>
+  <si>
     <t>IMAGE</t>
   </si>
   <si>
     <t>单一图片</t>
   </si>
   <si>
+    <t>Single Picture</t>
+  </si>
+  <si>
     <t>TILE_TEXT</t>
   </si>
   <si>
     <t>平铺文字</t>
   </si>
   <si>
+    <t>Tile Text</t>
+  </si>
+  <si>
     <t>TILE_IMAGE</t>
   </si>
   <si>
     <t>平铺图片</t>
   </si>
   <si>
+    <t>Tile Picture</t>
+  </si>
+  <si>
     <t>值集查询视图头表</t>
   </si>
   <si>
@@ -3121,7 +3229,7 @@
     <t>children_field_name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-172</t>
+    <t>hpfm_lov_view_header-175</t>
   </si>
   <si>
     <t>HFLE.LOV.SERVER_CONFIG</t>
@@ -3130,18 +3238,21 @@
     <t>服务器上传编码lov(平台级)</t>
   </si>
   <si>
-    <t>服务器上传编码lov</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-173</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-174</t>
+    <t>Server Upload Code Lov (Platform Level)</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-176</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-177</t>
   </si>
   <si>
     <t>服务器上传编码(租户级)</t>
   </si>
   <si>
+    <t>Server Upload Code (Tenant Level)</t>
+  </si>
+  <si>
     <t>值集查询视图行表</t>
   </si>
   <si>
@@ -3154,6 +3265,12 @@
     <t>#view_header_id</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
     <t>display:zh_CN</t>
   </si>
   <si>
@@ -3172,13 +3289,16 @@
     <t>table_field_width</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-177</t>
+    <t>hpfm_lov_view_line-180</t>
   </si>
   <si>
     <t>配置编码</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-178</t>
+    <t>Configuration Code</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-181</t>
   </si>
   <si>
     <t>描述</t>
@@ -3187,31 +3307,40 @@
     <t>description</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-179</t>
+    <t>hpfm_lov_view_line-182</t>
   </si>
   <si>
     <t>所属租户</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>tenantName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-180</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-181</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-182</t>
+    <t>hpfm_lov_view_line-183</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-184</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-185</t>
   </si>
   <si>
     <t>租户名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-183</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-184</t>
+    <t>Tenant Name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-186</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-187</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -4308,7 +4437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z184"/>
+  <dimension ref="A1:Z187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4433,454 +4562,454 @@
         <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
         <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
         <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="S16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="T16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="U16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Y16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" t="s">
         <v>116</v>
       </c>
-      <c r="F17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" t="s">
-        <v>110</v>
-      </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="U17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X17" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Y17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
         <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
         <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4891,28 +5020,28 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s" s="44">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s" s="45">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s" s="46">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s" s="47">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K22" t="s">
         <v>60</v>
@@ -4927,19 +5056,19 @@
         <v>63</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q22" t="s" s="50">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="R22" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="S22" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="T22" t="s">
         <v>71</v>
@@ -4947,7 +5076,7 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F23">
         <f>值集数据!$E$8</f>
@@ -4956,33 +5085,33 @@
         <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F24">
         <f>值集数据!$E$8</f>
@@ -4991,33 +5120,33 @@
         <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="Q24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F25">
         <f>值集数据!$E$8</f>
@@ -5026,33 +5155,33 @@
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F26">
         <f>值集数据!$E$8</f>
@@ -5061,33 +5190,33 @@
         <v>77</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Q26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F27">
         <f>值集数据!$E$8</f>
@@ -5096,33 +5225,33 @@
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Q27" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="T27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F28">
         <f>值集数据!$E$8</f>
@@ -5131,33 +5260,33 @@
         <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q28" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="T28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F29">
         <f>值集数据!$E$8</f>
@@ -5166,33 +5295,33 @@
         <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q29" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="T29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F30">
         <f>值集数据!$E$8</f>
@@ -5201,33 +5330,33 @@
         <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q30" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="T30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F31">
         <f>值集数据!$E$8</f>
@@ -5236,33 +5365,33 @@
         <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="J31" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q31" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="T31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F32">
         <f>值集数据!$E$8</f>
@@ -5271,33 +5400,33 @@
         <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="I32" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Q32" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="T32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F33">
         <f>值集数据!$E$8</f>
@@ -5306,33 +5435,33 @@
         <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J33" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Q33" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="T33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F34">
         <f>值集数据!$E$8</f>
@@ -5341,33 +5470,33 @@
         <v>77</v>
       </c>
       <c r="H34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I34" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Q34" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="T34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F35">
         <f>值集数据!$E$8</f>
@@ -5376,33 +5505,33 @@
         <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I35" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J35" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Q35" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="T35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F36">
         <f>值集数据!$E$8</f>
@@ -5411,33 +5540,33 @@
         <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I36" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Q36" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="T36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F37">
         <f>值集数据!$E$8</f>
@@ -5446,33 +5575,33 @@
         <v>77</v>
       </c>
       <c r="H37" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I37" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J37" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Q37" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="T37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F38">
         <f>值集数据!$E$8</f>
@@ -5481,33 +5610,33 @@
         <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Q38" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="T38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F39">
         <f>值集数据!$E$8</f>
@@ -5516,33 +5645,33 @@
         <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J39" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Q39" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="T39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F40">
         <f>值集数据!$E$8</f>
@@ -5551,33 +5680,33 @@
         <v>77</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Q40" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="T40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F41">
         <f>值集数据!$E$8</f>
@@ -5586,33 +5715,33 @@
         <v>77</v>
       </c>
       <c r="H41" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I41" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J41" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q41" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="T41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F42">
         <f>值集数据!$E$8</f>
@@ -5621,33 +5750,33 @@
         <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J42" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q42" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="T42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F43">
         <f>值集数据!$E$8</f>
@@ -5656,33 +5785,33 @@
         <v>77</v>
       </c>
       <c r="H43" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J43" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Q43" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="T43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F44">
         <f>值集数据!$E$8</f>
@@ -5691,33 +5820,33 @@
         <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I44" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J44" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q44" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="T44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F45">
         <f>值集数据!$E$8</f>
@@ -5726,33 +5855,33 @@
         <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J45" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q45" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="T45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F46">
         <f>值集数据!$E$8</f>
@@ -5761,33 +5890,33 @@
         <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I46" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J46" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q46" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="T46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F47">
         <f>值集数据!$E$8</f>
@@ -5796,33 +5925,33 @@
         <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I47" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J47" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q47" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="T47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F48">
         <f>值集数据!$E$8</f>
@@ -5831,33 +5960,33 @@
         <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I48" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J48" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q48" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="T48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F49">
         <f>值集数据!$E$8</f>
@@ -5866,33 +5995,33 @@
         <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J49" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q49" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="T49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F50">
         <f>值集数据!$E$8</f>
@@ -5901,33 +6030,33 @@
         <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="I50" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="J50" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q50" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="T50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F51">
         <f>值集数据!$E$8</f>
@@ -5936,33 +6065,33 @@
         <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="I51" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="J51" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q51" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="T51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F52">
         <f>值集数据!$E$8</f>
@@ -5971,33 +6100,33 @@
         <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I52" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J52" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q52" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="T52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F53">
         <f>值集数据!$E$8</f>
@@ -6006,33 +6135,33 @@
         <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I53" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J53" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Q53" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="T53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F54">
         <f>值集数据!$E$8</f>
@@ -6041,4454 +6170,4553 @@
         <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J54" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q54" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="T54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F55">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="I55" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="J55" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P55" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="T55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F56">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="I56" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J56" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="T56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F57">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="I57" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="J57" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="M57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="T57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F58">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="I58" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="J58" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="T58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F59">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="I59" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J59" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="M59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="T59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F60">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="I60" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J60" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P60" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="T60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F61">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="I61" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J61" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="T61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F62">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="I62" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J62" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="M62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P62" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="T62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F63">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="I63" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J63" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="M63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P63" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="T63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F64">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="I64" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="J64" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P64" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="T64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F65">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="I65" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="J65" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="T65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F66">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="I66" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="J66" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="M66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P66" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="T66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F67">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="I67" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="J67" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="M67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P67" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="T67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F68">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="I68" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="J68" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="M68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="T68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F69">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="I69" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="J69" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="M69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="T69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F70">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="I70" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="J70" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="M70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="T70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F71">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="I71" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="J71" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="M71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P71" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="T71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F72">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="I72" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="J72" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="M72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="T72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F73">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="I73" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="J73" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="M73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="T73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F74">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="I74" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="J74" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="M74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="T74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F75">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="I75" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="J75" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="M75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="T75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F76">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I76" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="J76" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="M76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="T76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F77">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I77" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J77" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="K77" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="M77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="T77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F78">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G78" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="I78" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="J78" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="M78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="T78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F79">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="J79" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="M79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="T79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F80">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="I80" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="J80" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="M80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="T80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F81">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="I81" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="J81" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="M81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="T81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F82">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I82" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="J82" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="M82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="T82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F83">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H83" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="I83" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J83" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="M83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="T83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F84">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H84" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I84" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="J84" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="M84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="T84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F85">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H85" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="I85" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="J85" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="M85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="T85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F86">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G86" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H86" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="I86" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="J86" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="M86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="Q86" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F87">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G87" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H87" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="I87" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="J87" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="M87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q87" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F88">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G88" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H88" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="I88" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="J88" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="M88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P88" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Q88" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F89">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G89" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H89" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="I89" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="J89" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="M89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Q89" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F90">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G90" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H90" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="I90" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="J90" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="M90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q90" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T90" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F91">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G91" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H91" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="I91" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="J91" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="M91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P91" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q91" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F92">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H92" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="I92" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="J92" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="M92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P92" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q92" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F93">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G93" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H93" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="I93" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="J93" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="M93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q93" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F94">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H94" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="I94" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="J94" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="M94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Q94" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T94" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F95">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G95" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H95" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I95" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="J95" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="M95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Q95" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F96">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G96" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H96" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="I96" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="J96" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="M96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P96" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Q96" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F97">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G97" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H97" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="I97" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="J97" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="M97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P97" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Q97" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F98">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G98" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H98" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="I98" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="J98" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="M98" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N98" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Q98" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F99">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G99" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="I99" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="J99" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="M99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Q99" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F100">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G100" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H100" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="I100" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="J100" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="M100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P100" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Q100" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F101">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G101" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H101" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="I101" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="J101" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="M101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P101" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q101" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T101" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F102">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G102" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H102" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="I102" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="J102" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="M102" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N102" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q102" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F103">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G103" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H103" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="I103" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="J103" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="M103" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N103" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Q103" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F104">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G104" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H104" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="I104" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="J104" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="M104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P104" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q104" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T104" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F105">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G105" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H105" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="I105" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="J105" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="M105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q105" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F106">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G106" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H106" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="I106" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="J106" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="M106" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N106" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P106" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q106" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F107">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G107" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H107" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="I107" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="J107" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="M107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q107" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T107" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F108">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G108" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H108" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="I108" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="J108" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="M108" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N108" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P108" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q108" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F109">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G109" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H109" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="I109" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="J109" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="M109" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N109" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q109" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="T109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F110">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G110" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H110" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="I110" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="J110" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="M110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P110" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q110" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="T110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F111">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G111" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H111" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="I111" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="J111" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="M111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P111" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Q111" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="T111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F112">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G112" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H112" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="I112" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="J112" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="M112" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N112" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P112" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q112" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="T112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F113">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G113" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H113" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="I113" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="J113" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="M113" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N113" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q113" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="T113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F114">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G114" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H114" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="I114" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="J114" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="M114" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N114" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="Q114" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="T114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F115">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G115" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H115" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="I115" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J115" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="M115" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N115" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P115" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="Q115" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="T115" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F116">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G116" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H116" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="I116" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="J116" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="M116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P116" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="Q116" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="T116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F117">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G117" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H117" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="I117" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="J117" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="M117" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N117" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P117" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="Q117" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="T117" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F118">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G118" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H118" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="I118" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="J118" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="M118" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N118" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="Q118" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="T118" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F119">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G119" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H119" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="I119" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="J119" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="M119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P119" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="Q119" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="T119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F120">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G120" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H120" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="I120" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="J120" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="M120" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N120" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="Q120" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="T120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F121">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G121" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H121" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="I121" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="J121" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="M121" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N121" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P121" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="Q121" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="T121" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F122">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G122" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H122" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="I122" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="J122" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="M122" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N122" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P122" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="Q122" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="T122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F123">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G123" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H123" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="I123" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="J123" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="M123" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N123" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="Q123" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="T123" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F124">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G124" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H124" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="I124" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="J124" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="M124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P124" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="Q124" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="T124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F125">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G125" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H125" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="I125" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="J125" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="M125" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N125" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P125" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="Q125" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="T125" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F126">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G126" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H126" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="I126" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="J126" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="M126" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N126" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="Q126" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="T126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F127">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G127" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H127" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="I127" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="J127" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="M127" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N127" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P127" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="Q127" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T127" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F128">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G128" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H128" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="I128" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="J128" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="M128" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N128" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="Q128" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T128" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F129">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G129" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H129" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="I129" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="J129" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="M129" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N129" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P129" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="Q129" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T129" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F130">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G130" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H130" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="I130" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="J130" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="M130" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N130" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="Q130" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T130" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F131">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G131" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H131" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="I131" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="J131" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="M131" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N131" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P131" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="Q131" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T131" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F132">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G132" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H132" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="I132" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="J132" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="M132" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N132" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="Q132" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T132" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F133">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G133" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H133" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="I133" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="J133" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="M133" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N133" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P133" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="Q133" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T133" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F134">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G134" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H134" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="I134" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="J134" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="M134" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N134" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P134" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="Q134" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T134" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F135">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G135" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H135" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="I135" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="J135" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="M135" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N135" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="Q135" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T135" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F136">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G136" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H136" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="I136" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J136" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="M136" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N136" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="Q136" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T136" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F137">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G137" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H137" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="I137" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="J137" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="M137" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N137" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P137" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="Q137" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T137" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F138">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G138" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H138" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="I138" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="J138" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="M138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P138" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="Q138" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T138" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F139">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G139" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H139" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="I139" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="J139" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="M139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="Q139" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F140">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G140" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H140" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="I140" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J140" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="M140" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N140" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P140" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="Q140" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T140" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F141">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G141" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H141" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="I141" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="J141" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="M141" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N141" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P141" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q141" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T141" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F142">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G142" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H142" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="I142" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J142" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="M142" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N142" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P142" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Q142" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T142" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F143">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G143" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H143" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="I143" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="J143" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="M143" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N143" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P143" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Q143" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="T143" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F144">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G144" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H144" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="I144" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="J144" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="M144" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N144" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P144" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q144" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T144" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F145">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G145" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H145" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="I145" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="J145" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="M145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P145" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="Q145" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="T145" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F146">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G146" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H146" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="I146" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="J146" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="M146" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N146" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P146" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="T146" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F147">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G147" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H147" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="I147" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="J147" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="M147" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N147" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P147" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="T147" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F148">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G148" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H148" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="I148" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="J148" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="M148" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N148" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P148" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="T148" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F149">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G149" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H149" t="s">
+        <v>173</v>
+      </c>
+      <c r="I149" t="s">
+        <v>174</v>
+      </c>
+      <c r="J149" t="s">
+        <v>175</v>
+      </c>
+      <c r="M149" t="s">
+        <v>82</v>
+      </c>
+      <c r="N149" t="s">
+        <v>82</v>
+      </c>
+      <c r="P149" t="s">
         <v>160</v>
       </c>
-      <c r="I149" t="s">
-        <v>161</v>
-      </c>
-      <c r="J149" t="s">
-        <v>161</v>
-      </c>
-      <c r="M149" t="s">
-        <v>81</v>
-      </c>
-      <c r="N149" t="s">
-        <v>81</v>
-      </c>
-      <c r="P149" t="s">
-        <v>149</v>
-      </c>
       <c r="T149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F150">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G150" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H150" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="I150" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="J150" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="M150" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N150" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P150" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="T150" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F151">
         <f>值集数据!$E$15</f>
       </c>
       <c r="G151" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H151" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="I151" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="J151" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="M151" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N151" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="T151" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F152">
         <f>值集数据!$E$15</f>
       </c>
       <c r="G152" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="I152" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="J152" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="M152" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N152" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P152" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="T152" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F153">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G153" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H153" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I153" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="J153" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="M153" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N153" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P153" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="T153" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F154">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G154" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H154" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I154" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="J154" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="M154" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N154" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="T154" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F155">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G155" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H155" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="I155" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="J155" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="M155" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N155" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P155" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="T155" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F156">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G156" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H156" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="I156" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="J156" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="M156" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N156" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="T156" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F157">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="I157" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="J157" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="M157" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N157" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="T157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F158">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G158" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="I158" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="J158" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="M158" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N158" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P158" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="T158" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F159">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G159" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H159" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="I159" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="J159" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="M159" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N159" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P159" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="T159" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F160">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G160" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="I160" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="J160" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="M160" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N160" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P160" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="T160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F161">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G161" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H161" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I161" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="J161" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="M161" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N161" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P161" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="T161" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F162">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G162" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H162" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="I162" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="J162" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="M162" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N162" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P162" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="T162" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F163">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G163" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H163" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I163" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="J163" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M163" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N163" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O163" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="P163" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="T163" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F164">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G164" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="H164" t="s">
-        <v>392</v>
+        <v>160</v>
       </c>
       <c r="I164" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="J164" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="M164" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N164" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P164" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="T164" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F165">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G165" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="H165" t="s">
-        <v>393</v>
+        <v>196</v>
       </c>
       <c r="I165" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="J165" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="M165" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N165" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="T165" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F166">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G166" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="H166" t="s">
-        <v>394</v>
+        <v>185</v>
       </c>
       <c r="I166" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J166" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M166" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N166" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="O166" t="s">
+        <v>419</v>
       </c>
       <c r="P166" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="T166" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F167">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G167" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H167" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="I167" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="J167" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="M167" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N167" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P167" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T167" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F168">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G168" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H168" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="I168" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="J168" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="M168" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N168" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="T168" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F169">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G169" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H169" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="I169" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="J169" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="M169" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N169" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P169" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T169" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="E170" t="s">
+        <v>152</v>
+      </c>
+      <c r="F170">
+        <f>值集数据!$E$20</f>
+      </c>
+      <c r="G170" t="s">
+        <v>136</v>
+      </c>
+      <c r="H170" t="s">
+        <v>429</v>
+      </c>
+      <c r="I170" t="s">
+        <v>430</v>
+      </c>
+      <c r="J170" t="s">
+        <v>431</v>
+      </c>
+      <c r="M170" t="s">
+        <v>82</v>
+      </c>
+      <c r="N170" t="s">
+        <v>82</v>
+      </c>
+      <c r="P170" t="s">
+        <v>164</v>
+      </c>
+      <c r="T170" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s">
-        <v>50</v>
-      </c>
-      <c r="B171" t="s">
-        <v>51</v>
-      </c>
-      <c r="C171" t="s">
-        <v>402</v>
-      </c>
-      <c r="D171" t="s" s="51">
-        <v>403</v>
-      </c>
-      <c r="E171" t="s" s="52">
-        <v>404</v>
-      </c>
-      <c r="F171" t="s" s="53">
-        <v>405</v>
+      <c r="E171" t="s">
+        <v>152</v>
+      </c>
+      <c r="F171">
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G171" t="s">
-        <v>406</v>
+        <v>136</v>
       </c>
       <c r="H171" t="s">
-        <v>407</v>
-      </c>
-      <c r="I171" t="s" s="54">
-        <v>408</v>
-      </c>
-      <c r="J171" t="s" s="55">
-        <v>62</v>
-      </c>
-      <c r="K171" t="s" s="56">
-        <v>63</v>
-      </c>
-      <c r="L171" t="s">
-        <v>68</v>
+        <v>432</v>
+      </c>
+      <c r="I171" t="s">
+        <v>433</v>
+      </c>
+      <c r="J171" t="s">
+        <v>434</v>
       </c>
       <c r="M171" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="N171" t="s">
-        <v>409</v>
-      </c>
-      <c r="O171" t="s">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="P171" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>412</v>
-      </c>
-      <c r="R171" t="s">
-        <v>413</v>
-      </c>
-      <c r="S171" t="s">
-        <v>414</v>
+        <v>160</v>
       </c>
       <c r="T171" t="s">
-        <v>415</v>
-      </c>
-      <c r="U171" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" t="s">
-        <v>416</v>
-      </c>
-      <c r="F172" t="s">
-        <v>417</v>
+        <v>152</v>
+      </c>
+      <c r="F172">
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G172" t="s">
-        <v>418</v>
+        <v>136</v>
       </c>
       <c r="H172" t="s">
-        <v>419</v>
-      </c>
-      <c r="I172">
+        <v>435</v>
+      </c>
+      <c r="I172" t="s">
+        <v>436</v>
+      </c>
+      <c r="J172" t="s">
+        <v>437</v>
+      </c>
+      <c r="M172" t="s">
+        <v>82</v>
+      </c>
+      <c r="N172" t="s">
+        <v>82</v>
+      </c>
+      <c r="P172" t="s">
+        <v>168</v>
+      </c>
+      <c r="T172" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" t="s">
+        <v>438</v>
+      </c>
+      <c r="D174" t="s" s="51">
+        <v>439</v>
+      </c>
+      <c r="E174" t="s" s="52">
+        <v>440</v>
+      </c>
+      <c r="F174" t="s" s="53">
+        <v>441</v>
+      </c>
+      <c r="G174" t="s">
+        <v>442</v>
+      </c>
+      <c r="H174" t="s">
+        <v>443</v>
+      </c>
+      <c r="I174" t="s" s="54">
+        <v>444</v>
+      </c>
+      <c r="J174" t="s" s="55">
+        <v>62</v>
+      </c>
+      <c r="K174" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="L174" t="s">
+        <v>68</v>
+      </c>
+      <c r="M174" t="s">
+        <v>69</v>
+      </c>
+      <c r="N174" t="s">
+        <v>445</v>
+      </c>
+      <c r="O174" t="s">
+        <v>446</v>
+      </c>
+      <c r="P174" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>448</v>
+      </c>
+      <c r="R174" t="s">
+        <v>449</v>
+      </c>
+      <c r="S174" t="s">
+        <v>450</v>
+      </c>
+      <c r="T174" t="s">
+        <v>451</v>
+      </c>
+      <c r="U174" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="E175" t="s">
+        <v>452</v>
+      </c>
+      <c r="F175" t="s">
+        <v>453</v>
+      </c>
+      <c r="G175" t="s">
+        <v>454</v>
+      </c>
+      <c r="H175" t="s">
+        <v>455</v>
+      </c>
+      <c r="I175">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="J172" t="s">
-        <v>81</v>
-      </c>
-      <c r="K172" t="s">
-        <v>81</v>
-      </c>
-      <c r="L172" t="s">
+      <c r="J175" t="s">
+        <v>82</v>
+      </c>
+      <c r="K175" t="s">
+        <v>82</v>
+      </c>
+      <c r="L175" t="s">
+        <v>120</v>
+      </c>
+      <c r="M175" t="s">
+        <v>120</v>
+      </c>
+      <c r="R175" t="s">
+        <v>156</v>
+      </c>
+      <c r="S175" t="s">
+        <v>82</v>
+      </c>
+      <c r="U175" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="E176" t="s">
+        <v>456</v>
+      </c>
+      <c r="F176" t="s">
         <v>114</v>
       </c>
-      <c r="M172" t="s">
-        <v>114</v>
-      </c>
-      <c r="R172" t="s">
-        <v>146</v>
-      </c>
-      <c r="S172" t="s">
-        <v>81</v>
-      </c>
-      <c r="U172" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="E173" t="s">
-        <v>420</v>
-      </c>
-      <c r="F173" t="s">
-        <v>108</v>
-      </c>
-      <c r="G173" t="s">
-        <v>418</v>
-      </c>
-      <c r="H173" t="s">
-        <v>419</v>
-      </c>
-      <c r="I173">
+      <c r="G176" t="s">
+        <v>454</v>
+      </c>
+      <c r="H176" t="s">
+        <v>455</v>
+      </c>
+      <c r="I176">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="J173" t="s">
-        <v>81</v>
-      </c>
-      <c r="K173" t="s">
-        <v>81</v>
-      </c>
-      <c r="L173" t="s">
-        <v>114</v>
-      </c>
-      <c r="M173" t="s">
-        <v>114</v>
-      </c>
-      <c r="R173" t="s">
-        <v>146</v>
-      </c>
-      <c r="S173" t="s">
-        <v>81</v>
-      </c>
-      <c r="U173" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="E174" t="s">
-        <v>421</v>
-      </c>
-      <c r="F174" t="s">
-        <v>117</v>
-      </c>
-      <c r="G174" t="s">
-        <v>422</v>
-      </c>
-      <c r="H174" t="s">
-        <v>422</v>
-      </c>
-      <c r="I174">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="J174" t="s">
-        <v>81</v>
-      </c>
-      <c r="K174" t="s">
-        <v>81</v>
-      </c>
-      <c r="L174" t="s">
-        <v>114</v>
-      </c>
-      <c r="M174" t="s">
-        <v>114</v>
-      </c>
-      <c r="R174" t="s">
-        <v>146</v>
-      </c>
-      <c r="S174" t="s">
-        <v>81</v>
-      </c>
-      <c r="U174" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>50</v>
-      </c>
-      <c r="B176" t="s">
-        <v>51</v>
-      </c>
-      <c r="C176" t="s">
-        <v>423</v>
-      </c>
-      <c r="D176" t="s" s="57">
-        <v>424</v>
-      </c>
-      <c r="E176" t="s" s="58">
-        <v>425</v>
-      </c>
-      <c r="F176" t="s" s="59">
-        <v>426</v>
-      </c>
-      <c r="G176" t="s">
-        <v>62</v>
-      </c>
-      <c r="H176" t="s">
-        <v>63</v>
-      </c>
-      <c r="I176" t="s" s="60">
-        <v>408</v>
-      </c>
       <c r="J176" t="s">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="K176" t="s">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="L176" t="s">
-        <v>139</v>
-      </c>
-      <c r="M176" t="s" s="61">
-        <v>429</v>
-      </c>
-      <c r="N176" t="s">
-        <v>430</v>
-      </c>
-      <c r="O176" t="s">
-        <v>431</v>
-      </c>
-      <c r="P176" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>71</v>
+        <v>120</v>
+      </c>
+      <c r="M176" t="s">
+        <v>120</v>
+      </c>
+      <c r="R176" t="s">
+        <v>156</v>
+      </c>
+      <c r="S176" t="s">
+        <v>82</v>
+      </c>
+      <c r="U176" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" t="s">
-        <v>433</v>
-      </c>
-      <c r="F177">
-        <f>值集数据!$E$172</f>
+        <v>457</v>
+      </c>
+      <c r="F177" t="s">
+        <v>123</v>
       </c>
       <c r="G177" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="H177" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="I177">
-        <f>值集数据!$E$16</f>
+        <f>值集数据!$E$17</f>
       </c>
       <c r="J177" t="s">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="K177" t="s">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="L177" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="M177" t="s">
-        <v>114</v>
-      </c>
-      <c r="N177" t="s">
-        <v>83</v>
-      </c>
-      <c r="O177" t="s">
-        <v>83</v>
-      </c>
-      <c r="P177" t="s">
+        <v>120</v>
+      </c>
+      <c r="R177" t="s">
         <v>156</v>
       </c>
-      <c r="Q177" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="E178" t="s">
-        <v>435</v>
-      </c>
-      <c r="F178">
-        <f>值集数据!$E$172</f>
-      </c>
-      <c r="G178" t="s">
-        <v>81</v>
-      </c>
-      <c r="H178" t="s">
-        <v>81</v>
-      </c>
-      <c r="I178">
-        <f>值集数据!$E$16</f>
-      </c>
-      <c r="J178" t="s">
-        <v>436</v>
-      </c>
-      <c r="K178" t="s">
-        <v>437</v>
-      </c>
-      <c r="L178" t="s">
-        <v>152</v>
-      </c>
-      <c r="M178" t="s">
-        <v>437</v>
-      </c>
-      <c r="N178" t="s">
-        <v>81</v>
-      </c>
-      <c r="O178" t="s">
-        <v>83</v>
-      </c>
-      <c r="P178" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>83</v>
+      <c r="S177" t="s">
+        <v>82</v>
+      </c>
+      <c r="U177" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="179">
-      <c r="E179" t="s">
-        <v>438</v>
-      </c>
-      <c r="F179">
-        <f>值集数据!$E$172</f>
+      <c r="A179" t="s">
+        <v>50</v>
+      </c>
+      <c r="B179" t="s">
+        <v>51</v>
+      </c>
+      <c r="C179" t="s">
+        <v>460</v>
+      </c>
+      <c r="D179" t="s" s="57">
+        <v>461</v>
+      </c>
+      <c r="E179" t="s" s="58">
+        <v>462</v>
+      </c>
+      <c r="F179" t="s" s="59">
+        <v>463</v>
       </c>
       <c r="G179" t="s">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="H179" t="s">
-        <v>81</v>
-      </c>
-      <c r="I179">
-        <f>值集数据!$E$16</f>
+        <v>465</v>
+      </c>
+      <c r="I179" t="s" s="60">
+        <v>444</v>
       </c>
       <c r="J179" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="K179" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="L179" t="s">
-        <v>146</v>
-      </c>
-      <c r="M179" t="s">
-        <v>440</v>
+        <v>148</v>
+      </c>
+      <c r="M179" t="s" s="61">
+        <v>468</v>
       </c>
       <c r="N179" t="s">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="O179" t="s">
-        <v>83</v>
+        <v>470</v>
       </c>
       <c r="P179" t="s">
-        <v>156</v>
+        <v>471</v>
       </c>
       <c r="Q179" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="F180">
-        <f>值集数据!$E$173</f>
+        <f>值集数据!$E$175</f>
       </c>
       <c r="G180" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H180" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I180">
         <f>值集数据!$E$16</f>
       </c>
       <c r="J180" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="K180" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="L180" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M180" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="N180" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O180" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P180" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="Q180" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="F181">
-        <f>值集数据!$E$173</f>
+        <f>值集数据!$E$175</f>
       </c>
       <c r="G181" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H181" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I181">
         <f>值集数据!$E$16</f>
       </c>
       <c r="J181" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="K181" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="L181" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M181" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="N181" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O181" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P181" t="s">
         <v>169</v>
       </c>
       <c r="Q181" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="F182">
-        <f>值集数据!$E$173</f>
+        <f>值集数据!$E$175</f>
       </c>
       <c r="G182" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H182" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I182">
         <f>值集数据!$E$16</f>
       </c>
       <c r="J182" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="K182" t="s">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="L182" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="M182" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="N182" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O182" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="Q182" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="F183">
-        <f>值集数据!$E$174</f>
+        <f>值集数据!$E$176</f>
       </c>
       <c r="G183" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H183" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I183">
-        <f>值集数据!$E$17</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="J183" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="K183" t="s">
-        <v>81</v>
+        <v>474</v>
       </c>
       <c r="L183" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M183" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="N183" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O183" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P183" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q183" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="F184">
-        <f>值集数据!$E$174</f>
+        <f>值集数据!$E$176</f>
       </c>
       <c r="G184" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H184" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I184">
-        <f>值集数据!$E$17</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="J184" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="K184" t="s">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="L184" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M184" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="N184" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O184" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P184" t="s">
         <v>185</v>
       </c>
       <c r="Q184" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="E185" t="s">
+        <v>484</v>
+      </c>
+      <c r="F185">
+        <f>值集数据!$E$176</f>
+      </c>
+      <c r="G185" t="s">
+        <v>82</v>
+      </c>
+      <c r="H185" t="s">
+        <v>82</v>
+      </c>
+      <c r="I185">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="J185" t="s">
+        <v>485</v>
+      </c>
+      <c r="K185" t="s">
+        <v>486</v>
+      </c>
+      <c r="L185" t="s">
+        <v>156</v>
+      </c>
+      <c r="M185" t="s">
+        <v>481</v>
+      </c>
+      <c r="N185" t="s">
+        <v>82</v>
+      </c>
+      <c r="O185" t="s">
+        <v>84</v>
+      </c>
+      <c r="P185" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="E186" t="s">
+        <v>487</v>
+      </c>
+      <c r="F186">
+        <f>值集数据!$E$177</f>
+      </c>
+      <c r="G186" t="s">
+        <v>82</v>
+      </c>
+      <c r="H186" t="s">
+        <v>82</v>
+      </c>
+      <c r="I186">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J186" t="s">
+        <v>473</v>
+      </c>
+      <c r="K186" t="s">
+        <v>474</v>
+      </c>
+      <c r="L186" t="s">
+        <v>156</v>
+      </c>
+      <c r="M186" t="s">
+        <v>120</v>
+      </c>
+      <c r="N186" t="s">
+        <v>84</v>
+      </c>
+      <c r="O186" t="s">
+        <v>84</v>
+      </c>
+      <c r="P186" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="E187" t="s">
+        <v>488</v>
+      </c>
+      <c r="F187">
+        <f>值集数据!$E$177</f>
+      </c>
+      <c r="G187" t="s">
+        <v>82</v>
+      </c>
+      <c r="H187" t="s">
+        <v>82</v>
+      </c>
+      <c r="I187">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J187" t="s">
+        <v>476</v>
+      </c>
+      <c r="K187" t="s">
+        <v>489</v>
+      </c>
+      <c r="L187" t="s">
+        <v>160</v>
+      </c>
+      <c r="M187" t="s">
+        <v>477</v>
+      </c>
+      <c r="N187" t="s">
+        <v>82</v>
+      </c>
+      <c r="O187" t="s">
+        <v>84</v>
+      </c>
+      <c r="P187" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="499">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-11-17</t>
+    <t>2021-02-03</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2073,6 +2073,15 @@
     <t>decrypt_field</t>
   </si>
   <si>
+    <t>request_method</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>hpfm_lov-8</t>
   </si>
   <si>
@@ -2091,6 +2100,9 @@
     <t>存储配置目录权限值集(父值集为服务供应商)</t>
   </si>
   <si>
+    <t>Storage configuration directory permission value set (the parent value set is the service provider)</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -2100,6 +2112,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>hpfm_lov-9</t>
   </si>
   <si>
@@ -2199,7 +2220,7 @@
     <t>服务器上传配置</t>
   </si>
   <si>
-    <t>Server Upload Configuration</t>
+    <t>服务器配置</t>
   </si>
   <si>
     <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
@@ -2234,7 +2255,7 @@
     <t>服务器上传配置(租户级)</t>
   </si>
   <si>
-    <t>Server Upload Configuration (Tenant Level)</t>
+    <t>Server upload configuration (tenant level)</t>
   </si>
   <si>
     <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
@@ -2266,6 +2287,9 @@
     <t>存储服务供应商值集</t>
   </si>
   <si>
+    <t>Storage service provider value set</t>
+  </si>
+  <si>
     <t>hpfm_lov-19</t>
   </si>
   <si>
@@ -2716,6 +2740,9 @@
     <t>接口服务-文件参数</t>
   </si>
   <si>
+    <t>Interface Services - file parameters</t>
+  </si>
+  <si>
     <t>hadm01</t>
   </si>
   <si>
@@ -2746,6 +2773,12 @@
     <t>hrpt_ureport_file</t>
   </si>
   <si>
+    <t>htdo01/</t>
+  </si>
+  <si>
+    <t>htdo_matter</t>
+  </si>
+  <si>
     <t>删除</t>
   </si>
   <si>
@@ -3133,18 +3166,6 @@
     <t>UNUSE</t>
   </si>
   <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>七牛云</t>
-  </si>
-  <si>
-    <t>Seven Cattle Cloud</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -3229,24 +3250,24 @@
     <t>children_field_name</t>
   </si>
   <si>
+    <t>hpfm_lov_view_header-173</t>
+  </si>
+  <si>
+    <t>HFLE.LOV.SERVER_CONFIG</t>
+  </si>
+  <si>
+    <t>服务器上传编码lov(平台级)</t>
+  </si>
+  <si>
+    <t>Server Upload Code Lov (Platform Level)</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-174</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_header-175</t>
   </si>
   <si>
-    <t>HFLE.LOV.SERVER_CONFIG</t>
-  </si>
-  <si>
-    <t>服务器上传编码lov(平台级)</t>
-  </si>
-  <si>
-    <t>Server Upload Code Lov (Platform Level)</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-176</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-177</t>
-  </si>
-  <si>
     <t>服务器上传编码(租户级)</t>
   </si>
   <si>
@@ -3289,55 +3310,61 @@
     <t>table_field_width</t>
   </si>
   <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-178</t>
+  </si>
+  <si>
+    <t>配置编码</t>
+  </si>
+  <si>
+    <t>Configuration Code</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-179</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-180</t>
   </si>
   <si>
-    <t>配置编码</t>
-  </si>
-  <si>
-    <t>Configuration Code</t>
+    <t>所属租户</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>tenantName</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-181</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-182</t>
   </si>
   <si>
-    <t>所属租户</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>tenantName</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-183</t>
   </si>
   <si>
+    <t>租户名称</t>
+  </si>
+  <si>
+    <t>Tenant Name</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-184</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-185</t>
-  </si>
-  <si>
-    <t>租户名称</t>
-  </si>
-  <si>
-    <t>Tenant Name</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-186</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-187</t>
   </si>
   <si>
     <t>Description</t>
@@ -4437,7 +4464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z187"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4547,469 +4574,595 @@
       <c r="Z7" t="s">
         <v>75</v>
       </c>
+      <c r="AA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA10" t="s">
         <v>89</v>
       </c>
-      <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="U10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>82</v>
+      <c r="AB10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y11" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y13" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y14" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y15" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="T16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="U16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Y16" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
         <v>122</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>123</v>
       </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" t="s">
-        <v>116</v>
-      </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q17" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="U17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X17" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Y17" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y18" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y19" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y20" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -5020,28 +5173,28 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s" s="44">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s" s="45">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s" s="46">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s" s="47">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s">
         <v>60</v>
@@ -5056,5667 +5209,6581 @@
         <v>63</v>
       </c>
       <c r="O22" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Q22" t="s" s="50">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="R22" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="S22" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="T22" t="s">
         <v>71</v>
       </c>
+      <c r="U22" t="s">
+        <v>77</v>
+      </c>
+      <c r="V22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F23">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T23" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U23" t="s">
+        <v>90</v>
+      </c>
+      <c r="V23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F24">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T24" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U24" t="s">
+        <v>90</v>
+      </c>
+      <c r="V24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F25">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T25" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U25" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F26">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I26" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T26" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U26" t="s">
+        <v>90</v>
+      </c>
+      <c r="V26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F27">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q27" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="T27" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U27" t="s">
+        <v>90</v>
+      </c>
+      <c r="V27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F28">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J28" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q28" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="T28" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U28" t="s">
+        <v>90</v>
+      </c>
+      <c r="V28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F29">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I29" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J29" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q29" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="T29" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U29" t="s">
+        <v>90</v>
+      </c>
+      <c r="V29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F30">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I30" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q30" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="T30" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U30" t="s">
+        <v>90</v>
+      </c>
+      <c r="V30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F31">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I31" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J31" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q31" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="T31" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U31" t="s">
+        <v>90</v>
+      </c>
+      <c r="V31" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F32">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J32" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="M32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P32" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" t="s">
         <v>185</v>
       </c>
-      <c r="Q32" t="s">
-        <v>177</v>
-      </c>
       <c r="T32" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U32" t="s">
+        <v>90</v>
+      </c>
+      <c r="V32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F33">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="J33" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q33" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="T33" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U33" t="s">
+        <v>90</v>
+      </c>
+      <c r="V33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F34">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I34" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J34" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q34" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="T34" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U34" t="s">
+        <v>90</v>
+      </c>
+      <c r="V34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F35">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J35" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q35" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="T35" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U35" t="s">
+        <v>90</v>
+      </c>
+      <c r="V35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F36">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I36" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J36" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q36" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="T36" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U36" t="s">
+        <v>90</v>
+      </c>
+      <c r="V36" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F37">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J37" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q37" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="T37" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U37" t="s">
+        <v>90</v>
+      </c>
+      <c r="V37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F38">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I38" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J38" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q38" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="T38" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U38" t="s">
+        <v>90</v>
+      </c>
+      <c r="V38" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F39">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I39" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J39" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q39" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="T39" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U39" t="s">
+        <v>90</v>
+      </c>
+      <c r="V39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F40">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I40" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J40" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q40" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="T40" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U40" t="s">
+        <v>90</v>
+      </c>
+      <c r="V40" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F41">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I41" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J41" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q41" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="T41" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U41" t="s">
+        <v>90</v>
+      </c>
+      <c r="V41" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F42">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I42" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J42" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q42" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="T42" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U42" t="s">
+        <v>90</v>
+      </c>
+      <c r="V42" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F43">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J43" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q43" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="T43" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U43" t="s">
+        <v>90</v>
+      </c>
+      <c r="V43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F44">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J44" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q44" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="T44" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U44" t="s">
+        <v>90</v>
+      </c>
+      <c r="V44" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F45">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I45" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J45" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N45" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q45" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="T45" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U45" t="s">
+        <v>90</v>
+      </c>
+      <c r="V45" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F46">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I46" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J46" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q46" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="T46" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U46" t="s">
+        <v>90</v>
+      </c>
+      <c r="V46" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F47">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I47" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J47" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M47" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N47" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q47" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="T47" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U47" t="s">
+        <v>90</v>
+      </c>
+      <c r="V47" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F48">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I48" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J48" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q48" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="T48" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U48" t="s">
+        <v>90</v>
+      </c>
+      <c r="V48" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F49">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I49" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J49" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q49" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="T49" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U49" t="s">
+        <v>90</v>
+      </c>
+      <c r="V49" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F50">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I50" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J50" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q50" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="T50" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U50" t="s">
+        <v>90</v>
+      </c>
+      <c r="V50" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F51">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I51" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="J51" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N51" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P51" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q51" t="s">
         <v>223</v>
       </c>
-      <c r="Q51" t="s">
-        <v>215</v>
-      </c>
       <c r="T51" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U51" t="s">
+        <v>90</v>
+      </c>
+      <c r="V51" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F52">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I52" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J52" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q52" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="T52" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U52" t="s">
+        <v>90</v>
+      </c>
+      <c r="V52" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F53">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I53" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J53" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q53" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="T53" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U53" t="s">
+        <v>90</v>
+      </c>
+      <c r="V53" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F54">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I54" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J54" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M54" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N54" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q54" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="T54" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U54" t="s">
+        <v>90</v>
+      </c>
+      <c r="V54" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F55">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I55" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J55" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="T55" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U55" t="s">
+        <v>90</v>
+      </c>
+      <c r="V55" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F56">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J56" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M56" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N56" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="T56" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U56" t="s">
+        <v>90</v>
+      </c>
+      <c r="V56" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F57">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I57" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="J57" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="T57" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U57" t="s">
+        <v>90</v>
+      </c>
+      <c r="V57" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F58">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="I58" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J58" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M58" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N58" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="T58" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U58" t="s">
+        <v>90</v>
+      </c>
+      <c r="V58" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F59">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I59" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="J59" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M59" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N59" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="T59" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U59" t="s">
+        <v>90</v>
+      </c>
+      <c r="V59" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F60">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I60" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="J60" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="M60" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N60" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="T60" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U60" t="s">
+        <v>90</v>
+      </c>
+      <c r="V60" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F61">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G61" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I61" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="J61" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M61" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N61" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="T61" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U61" t="s">
+        <v>90</v>
+      </c>
+      <c r="V61" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F62">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H62" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I62" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="J62" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="T62" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U62" t="s">
+        <v>90</v>
+      </c>
+      <c r="V62" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F63">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G63" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H63" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="J63" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M63" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N63" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="T63" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U63" t="s">
+        <v>90</v>
+      </c>
+      <c r="V63" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F64">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="I64" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J64" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M64" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N64" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="T64" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U64" t="s">
+        <v>90</v>
+      </c>
+      <c r="V64" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F65">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="I65" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="J65" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="T65" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U65" t="s">
+        <v>90</v>
+      </c>
+      <c r="V65" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F66">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H66" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="I66" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J66" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M66" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N66" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="T66" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U66" t="s">
+        <v>90</v>
+      </c>
+      <c r="V66" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F67">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G67" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H67" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="I67" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="J67" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="M67" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N67" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="T67" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U67" t="s">
+        <v>90</v>
+      </c>
+      <c r="V67" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F68">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H68" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="I68" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J68" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M68" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N68" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="T68" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U68" t="s">
+        <v>90</v>
+      </c>
+      <c r="V68" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F69">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H69" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="I69" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="J69" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M69" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N69" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="T69" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U69" t="s">
+        <v>90</v>
+      </c>
+      <c r="V69" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F70">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H70" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="I70" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="J70" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M70" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N70" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="T70" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U70" t="s">
+        <v>90</v>
+      </c>
+      <c r="V70" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F71">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G71" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H71" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I71" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="J71" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M71" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N71" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="T71" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U71" t="s">
+        <v>90</v>
+      </c>
+      <c r="V71" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F72">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H72" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I72" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J72" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="T72" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U72" t="s">
+        <v>90</v>
+      </c>
+      <c r="V72" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F73">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G73" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H73" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="I73" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="J73" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M73" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N73" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="T73" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U73" t="s">
+        <v>90</v>
+      </c>
+      <c r="V73" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F74">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H74" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="I74" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="J74" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M74" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N74" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T74" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U74" t="s">
+        <v>90</v>
+      </c>
+      <c r="V74" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F75">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G75" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H75" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I75" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="J75" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M75" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N75" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="T75" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U75" t="s">
+        <v>90</v>
+      </c>
+      <c r="V75" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F76">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G76" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H76" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I76" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="J76" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M76" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N76" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="T76" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U76" t="s">
+        <v>90</v>
+      </c>
+      <c r="V76" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F77">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H77" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="I77" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="J77" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K77" t="s">
-        <v>280</v>
+        <v>288</v>
+      </c>
+      <c r="L77" t="s">
+        <v>289</v>
       </c>
       <c r="M77" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N77" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="T77" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U77" t="s">
+        <v>90</v>
+      </c>
+      <c r="V77" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F78">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G78" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H78" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="I78" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J78" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M78" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N78" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="T78" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U78" t="s">
+        <v>90</v>
+      </c>
+      <c r="V78" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F79">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I79" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J79" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="M79" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N79" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="T79" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U79" t="s">
+        <v>90</v>
+      </c>
+      <c r="V79" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F80">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G80" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H80" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I80" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="J80" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M80" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N80" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="T80" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U80" t="s">
+        <v>90</v>
+      </c>
+      <c r="V80" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F81">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G81" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H81" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="I81" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J81" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M81" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N81" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="T81" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U81" t="s">
+        <v>90</v>
+      </c>
+      <c r="V81" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F82">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G82" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H82" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I82" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="J82" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="M82" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N82" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="T82" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U82" t="s">
+        <v>90</v>
+      </c>
+      <c r="V82" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F83">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$10</f>
       </c>
       <c r="G83" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H83" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="I83" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J83" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M83" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N83" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="T83" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U83" t="s">
+        <v>90</v>
+      </c>
+      <c r="V83" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F84">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G84" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H84" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="I84" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="J84" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M84" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N84" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P84" t="s">
         <v>164</v>
       </c>
       <c r="T84" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U84" t="s">
+        <v>90</v>
+      </c>
+      <c r="V84" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F85">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G85" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H85" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="I85" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="J85" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M85" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N85" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="T85" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U85" t="s">
+        <v>90</v>
+      </c>
+      <c r="V85" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F86">
-        <f>值集数据!$E$12</f>
+        <f>值集数据!$E$11</f>
       </c>
       <c r="G86" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H86" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="I86" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="J86" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M86" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N86" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="T86" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U86" t="s">
+        <v>90</v>
+      </c>
+      <c r="V86" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F87">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G87" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H87" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="I87" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="J87" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M87" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N87" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P87" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q87" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T87" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U87" t="s">
+        <v>90</v>
+      </c>
+      <c r="V87" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F88">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G88" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H88" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="I88" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="J88" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M88" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N88" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P88" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q88" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T88" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U88" t="s">
+        <v>90</v>
+      </c>
+      <c r="V88" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F89">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G89" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H89" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I89" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="J89" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M89" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N89" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q89" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T89" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U89" t="s">
+        <v>90</v>
+      </c>
+      <c r="V89" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F90">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G90" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H90" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="I90" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J90" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M90" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N90" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q90" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T90" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U90" t="s">
+        <v>90</v>
+      </c>
+      <c r="V90" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F91">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G91" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H91" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="I91" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="J91" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="M91" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N91" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q91" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T91" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U91" t="s">
+        <v>90</v>
+      </c>
+      <c r="V91" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F92">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G92" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H92" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I92" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="J92" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M92" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N92" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q92" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T92" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U92" t="s">
+        <v>90</v>
+      </c>
+      <c r="V92" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F93">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G93" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H93" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="I93" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="J93" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="M93" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N93" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q93" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T93" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U93" t="s">
+        <v>90</v>
+      </c>
+      <c r="V93" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F94">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G94" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H94" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="I94" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="J94" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="M94" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N94" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q94" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T94" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U94" t="s">
+        <v>90</v>
+      </c>
+      <c r="V94" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F95">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G95" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H95" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="I95" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="J95" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M95" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N95" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q95" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T95" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U95" t="s">
+        <v>90</v>
+      </c>
+      <c r="V95" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F96">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G96" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H96" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="I96" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="J96" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M96" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N96" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q96" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T96" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U96" t="s">
+        <v>90</v>
+      </c>
+      <c r="V96" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F97">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G97" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H97" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="I97" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="J97" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M97" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N97" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P97" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q97" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T97" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U97" t="s">
+        <v>90</v>
+      </c>
+      <c r="V97" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F98">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G98" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H98" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I98" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="J98" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="M98" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N98" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q98" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T98" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U98" t="s">
+        <v>90</v>
+      </c>
+      <c r="V98" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F99">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G99" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H99" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="I99" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J99" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="M99" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N99" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q99" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T99" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U99" t="s">
+        <v>90</v>
+      </c>
+      <c r="V99" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F100">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G100" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H100" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="I100" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="J100" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M100" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N100" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q100" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T100" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U100" t="s">
+        <v>90</v>
+      </c>
+      <c r="V100" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F101">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G101" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H101" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="I101" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="J101" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="M101" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N101" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q101" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T101" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U101" t="s">
+        <v>90</v>
+      </c>
+      <c r="V101" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F102">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G102" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H102" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="I102" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="J102" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="M102" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N102" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q102" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T102" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U102" t="s">
+        <v>90</v>
+      </c>
+      <c r="V102" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F103">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G103" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H103" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="I103" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="J103" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M103" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N103" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q103" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T103" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U103" t="s">
+        <v>90</v>
+      </c>
+      <c r="V103" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F104">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G104" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H104" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="I104" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="J104" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M104" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N104" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q104" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="T104" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U104" t="s">
+        <v>90</v>
+      </c>
+      <c r="V104" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F105">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G105" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H105" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="I105" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="J105" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M105" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N105" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q105" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="T105" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U105" t="s">
+        <v>90</v>
+      </c>
+      <c r="V105" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F106">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G106" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="I106" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="J106" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M106" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N106" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q106" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="T106" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U106" t="s">
+        <v>90</v>
+      </c>
+      <c r="V106" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F107">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G107" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H107" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="I107" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="J107" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="M107" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N107" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q107" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="T107" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U107" t="s">
+        <v>90</v>
+      </c>
+      <c r="V107" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F108">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G108" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H108" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="I108" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J108" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M108" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N108" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q108" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="T108" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U108" t="s">
+        <v>90</v>
+      </c>
+      <c r="V108" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F109">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G109" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H109" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="I109" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="J109" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M109" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N109" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q109" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="T109" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U109" t="s">
+        <v>90</v>
+      </c>
+      <c r="V109" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F110">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G110" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H110" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="I110" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="J110" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M110" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N110" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q110" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T110" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U110" t="s">
+        <v>90</v>
+      </c>
+      <c r="V110" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F111">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G111" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H111" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="I111" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="J111" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="M111" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N111" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q111" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T111" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U111" t="s">
+        <v>90</v>
+      </c>
+      <c r="V111" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F112">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G112" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H112" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="I112" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="J112" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M112" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N112" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q112" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T112" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U112" t="s">
+        <v>90</v>
+      </c>
+      <c r="V112" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F113">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G113" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H113" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="I113" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="J113" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M113" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N113" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q113" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T113" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U113" t="s">
+        <v>90</v>
+      </c>
+      <c r="V113" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F114">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G114" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H114" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="I114" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="J114" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M114" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N114" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="Q114" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T114" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U114" t="s">
+        <v>90</v>
+      </c>
+      <c r="V114" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F115">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G115" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H115" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="I115" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="J115" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M115" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N115" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q115" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T115" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U115" t="s">
+        <v>90</v>
+      </c>
+      <c r="V115" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F116">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G116" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H116" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I116" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="J116" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M116" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N116" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q116" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T116" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U116" t="s">
+        <v>90</v>
+      </c>
+      <c r="V116" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F117">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G117" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H117" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="I117" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="J117" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M117" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N117" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q117" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T117" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U117" t="s">
+        <v>90</v>
+      </c>
+      <c r="V117" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F118">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G118" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H118" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="I118" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="J118" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M118" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N118" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P118" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q118" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="T118" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U118" t="s">
+        <v>90</v>
+      </c>
+      <c r="V118" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F119">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G119" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H119" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="I119" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="J119" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M119" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N119" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q119" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="T119" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U119" t="s">
+        <v>90</v>
+      </c>
+      <c r="V119" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F120">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G120" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H120" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="I120" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="J120" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M120" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N120" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q120" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="T120" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U120" t="s">
+        <v>90</v>
+      </c>
+      <c r="V120" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F121">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G121" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H121" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="I121" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="J121" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="M121" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N121" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q121" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="T121" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U121" t="s">
+        <v>90</v>
+      </c>
+      <c r="V121" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F122">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G122" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H122" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="I122" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="J122" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M122" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N122" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q122" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="T122" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U122" t="s">
+        <v>90</v>
+      </c>
+      <c r="V122" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F123">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G123" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H123" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="I123" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="J123" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="M123" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N123" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P123" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q123" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="T123" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U123" t="s">
+        <v>90</v>
+      </c>
+      <c r="V123" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F124">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G124" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H124" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="I124" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="J124" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="M124" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N124" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q124" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="T124" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U124" t="s">
+        <v>90</v>
+      </c>
+      <c r="V124" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F125">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G125" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H125" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="I125" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="J125" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M125" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N125" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q125" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="T125" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U125" t="s">
+        <v>90</v>
+      </c>
+      <c r="V125" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F126">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G126" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H126" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="I126" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="J126" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M126" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N126" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q126" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="T126" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U126" t="s">
+        <v>90</v>
+      </c>
+      <c r="V126" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F127">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G127" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H127" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="I127" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="J127" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M127" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N127" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P127" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q127" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="T127" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U127" t="s">
+        <v>90</v>
+      </c>
+      <c r="V127" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F128">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G128" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H128" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="I128" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="J128" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M128" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N128" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q128" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T128" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U128" t="s">
+        <v>90</v>
+      </c>
+      <c r="V128" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F129">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G129" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H129" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="I129" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="J129" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M129" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N129" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P129" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q129" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T129" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U129" t="s">
+        <v>90</v>
+      </c>
+      <c r="V129" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F130">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G130" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H130" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="I130" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="J130" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="M130" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N130" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q130" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T130" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U130" t="s">
+        <v>90</v>
+      </c>
+      <c r="V130" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F131">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G131" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H131" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="I131" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="J131" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M131" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N131" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q131" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T131" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U131" t="s">
+        <v>90</v>
+      </c>
+      <c r="V131" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F132">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G132" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="I132" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="J132" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M132" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N132" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q132" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T132" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U132" t="s">
+        <v>90</v>
+      </c>
+      <c r="V132" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F133">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G133" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H133" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="I133" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="J133" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M133" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N133" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P133" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q133" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T133" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U133" t="s">
+        <v>90</v>
+      </c>
+      <c r="V133" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F134">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G134" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H134" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="I134" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="J134" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="M134" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N134" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q134" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T134" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U134" t="s">
+        <v>90</v>
+      </c>
+      <c r="V134" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F135">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G135" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H135" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="I135" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="J135" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="M135" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N135" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P135" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q135" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T135" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U135" t="s">
+        <v>90</v>
+      </c>
+      <c r="V135" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F136">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G136" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H136" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="I136" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="J136" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M136" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N136" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q136" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T136" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U136" t="s">
+        <v>90</v>
+      </c>
+      <c r="V136" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F137">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G137" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H137" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="I137" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="J137" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M137" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N137" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P137" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q137" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T137" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U137" t="s">
+        <v>90</v>
+      </c>
+      <c r="V137" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F138">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G138" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H138" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="I138" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="J138" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M138" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N138" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q138" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T138" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U138" t="s">
+        <v>90</v>
+      </c>
+      <c r="V138" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F139">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G139" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H139" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I139" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="J139" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M139" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N139" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P139" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q139" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T139" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U139" t="s">
+        <v>90</v>
+      </c>
+      <c r="V139" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F140">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G140" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H140" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="I140" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="J140" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M140" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N140" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Q140" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="T140" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U140" t="s">
+        <v>90</v>
+      </c>
+      <c r="V140" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F141">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G141" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H141" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="I141" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="J141" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="M141" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N141" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>209</v>
+        <v>389</v>
       </c>
       <c r="Q141" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="T141" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U141" t="s">
+        <v>90</v>
+      </c>
+      <c r="V141" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F142">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G142" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H142" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I142" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="J142" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M142" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N142" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P142" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Q142" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="T142" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U142" t="s">
+        <v>90</v>
+      </c>
+      <c r="V142" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F143">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G143" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H143" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="I143" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J143" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M143" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N143" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q143" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="T143" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U143" t="s">
+        <v>90</v>
+      </c>
+      <c r="V143" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F144">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G144" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H144" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="I144" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="J144" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="M144" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N144" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="Q144" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="T144" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U144" t="s">
+        <v>90</v>
+      </c>
+      <c r="V144" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F145">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G145" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H145" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="I145" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J145" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M145" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N145" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="Q145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T145" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U145" t="s">
+        <v>90</v>
+      </c>
+      <c r="V145" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F146">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G146" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H146" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="I146" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J146" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M146" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N146" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P146" t="s">
-        <v>156</v>
+        <v>394</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>248</v>
       </c>
       <c r="T146" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U146" t="s">
+        <v>90</v>
+      </c>
+      <c r="V146" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F147">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G147" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H147" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="I147" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J147" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="M147" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N147" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="T147" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U147" t="s">
+        <v>90</v>
+      </c>
+      <c r="V147" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F148">
-        <f>值集数据!$E$14</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G148" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H148" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="I148" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J148" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M148" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N148" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P148" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="T148" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U148" t="s">
+        <v>90</v>
+      </c>
+      <c r="V148" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F149">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G149" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>401</v>
       </c>
       <c r="I149" t="s">
-        <v>174</v>
+        <v>402</v>
       </c>
       <c r="J149" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
       <c r="M149" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N149" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="T149" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U149" t="s">
+        <v>90</v>
+      </c>
+      <c r="V149" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F150">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G150" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H150" t="s">
-        <v>392</v>
+        <v>181</v>
       </c>
       <c r="I150" t="s">
-        <v>393</v>
+        <v>182</v>
       </c>
       <c r="J150" t="s">
-        <v>394</v>
+        <v>183</v>
       </c>
       <c r="M150" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N150" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>395</v>
+        <v>168</v>
       </c>
       <c r="T150" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U150" t="s">
+        <v>90</v>
+      </c>
+      <c r="V150" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F151">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G151" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H151" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="I151" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="J151" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="M151" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N151" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="T151" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U151" t="s">
+        <v>90</v>
+      </c>
+      <c r="V151" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F152">
         <f>值集数据!$E$15</f>
       </c>
       <c r="G152" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H152" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="I152" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="J152" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M152" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N152" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="T152" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U152" t="s">
+        <v>90</v>
+      </c>
+      <c r="V152" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F153">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$15</f>
       </c>
       <c r="G153" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="H153" t="s">
-        <v>84</v>
+        <v>410</v>
       </c>
       <c r="I153" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="J153" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="M153" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N153" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="T153" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U153" t="s">
+        <v>90</v>
+      </c>
+      <c r="V153" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F154">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G154" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H154" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="I154" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="J154" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="M154" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N154" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="T154" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U154" t="s">
+        <v>90</v>
+      </c>
+      <c r="V154" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F155">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G155" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H155" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I155" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="J155" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M155" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N155" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="T155" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U155" t="s">
+        <v>90</v>
+      </c>
+      <c r="V155" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F156">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G156" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H156" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I156" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="J156" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="M156" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N156" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="T156" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U156" t="s">
+        <v>90</v>
+      </c>
+      <c r="V156" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F157">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G157" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H157" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I157" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="J157" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="M157" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N157" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P157" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="T157" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U157" t="s">
+        <v>90</v>
+      </c>
+      <c r="V157" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F158">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G158" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H158" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I158" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="J158" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M158" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N158" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="T158" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U158" t="s">
+        <v>90</v>
+      </c>
+      <c r="V158" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F159">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G159" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H159" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I159" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J159" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M159" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N159" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="T159" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U159" t="s">
+        <v>90</v>
+      </c>
+      <c r="V159" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F160">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G160" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H160" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I160" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="J160" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="M160" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N160" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P160" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T160" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U160" t="s">
+        <v>90</v>
+      </c>
+      <c r="V160" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F161">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G161" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H161" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I161" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="J161" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M161" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N161" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P161" t="s">
         <v>189</v>
       </c>
       <c r="T161" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U161" t="s">
+        <v>90</v>
+      </c>
+      <c r="V161" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F162">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G162" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H162" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I162" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="J162" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M162" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N162" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="T162" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U162" t="s">
+        <v>90</v>
+      </c>
+      <c r="V162" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F163">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G163" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H163" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="I163" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="J163" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="M163" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N163" t="s">
-        <v>82</v>
-      </c>
-      <c r="O163" t="s">
-        <v>419</v>
+        <v>86</v>
       </c>
       <c r="P163" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="T163" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U163" t="s">
+        <v>90</v>
+      </c>
+      <c r="V163" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F164">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G164" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H164" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I164" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="J164" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="M164" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N164" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="O164" t="s">
+        <v>430</v>
       </c>
       <c r="P164" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="T164" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U164" t="s">
+        <v>90</v>
+      </c>
+      <c r="V164" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F165">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G165" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>431</v>
       </c>
       <c r="I165" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="J165" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="M165" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N165" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T165" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U165" t="s">
+        <v>90</v>
+      </c>
+      <c r="V165" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F166">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G166" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="H166" t="s">
-        <v>185</v>
+        <v>432</v>
       </c>
       <c r="I166" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="J166" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="M166" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N166" t="s">
-        <v>82</v>
-      </c>
-      <c r="O166" t="s">
-        <v>419</v>
+        <v>86</v>
       </c>
       <c r="P166" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="T166" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U166" t="s">
+        <v>90</v>
+      </c>
+      <c r="V166" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F167">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G167" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H167" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="I167" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="J167" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="M167" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N167" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="T167" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U167" t="s">
+        <v>90</v>
+      </c>
+      <c r="V167" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F168">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G168" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H168" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="I168" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="J168" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="M168" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N168" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="T168" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U168" t="s">
+        <v>90</v>
+      </c>
+      <c r="V168" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F169">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G169" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H169" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="I169" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="J169" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="M169" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N169" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="T169" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="U169" t="s">
+        <v>90</v>
+      </c>
+      <c r="V169" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F170">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G170" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H170" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="I170" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="J170" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="M170" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N170" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P170" t="s">
+        <v>176</v>
+      </c>
+      <c r="T170" t="s">
+        <v>88</v>
+      </c>
+      <c r="U170" t="s">
+        <v>90</v>
+      </c>
+      <c r="V170" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>50</v>
+      </c>
+      <c r="B172" t="s">
+        <v>51</v>
+      </c>
+      <c r="C172" t="s">
+        <v>445</v>
+      </c>
+      <c r="D172" t="s" s="51">
+        <v>446</v>
+      </c>
+      <c r="E172" t="s" s="52">
+        <v>447</v>
+      </c>
+      <c r="F172" t="s" s="53">
+        <v>448</v>
+      </c>
+      <c r="G172" t="s">
+        <v>449</v>
+      </c>
+      <c r="H172" t="s">
+        <v>450</v>
+      </c>
+      <c r="I172" t="s" s="54">
+        <v>451</v>
+      </c>
+      <c r="J172" t="s" s="55">
+        <v>62</v>
+      </c>
+      <c r="K172" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="L172" t="s">
+        <v>68</v>
+      </c>
+      <c r="M172" t="s">
+        <v>69</v>
+      </c>
+      <c r="N172" t="s">
+        <v>452</v>
+      </c>
+      <c r="O172" t="s">
+        <v>453</v>
+      </c>
+      <c r="P172" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>455</v>
+      </c>
+      <c r="R172" t="s">
+        <v>456</v>
+      </c>
+      <c r="S172" t="s">
+        <v>457</v>
+      </c>
+      <c r="T172" t="s">
+        <v>458</v>
+      </c>
+      <c r="U172" t="s">
+        <v>71</v>
+      </c>
+      <c r="V172" t="s">
+        <v>77</v>
+      </c>
+      <c r="W172" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="E173" t="s">
+        <v>459</v>
+      </c>
+      <c r="F173" t="s">
+        <v>460</v>
+      </c>
+      <c r="G173" t="s">
+        <v>461</v>
+      </c>
+      <c r="H173" t="s">
+        <v>462</v>
+      </c>
+      <c r="I173">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="J173" t="s">
+        <v>86</v>
+      </c>
+      <c r="K173" t="s">
+        <v>86</v>
+      </c>
+      <c r="L173" t="s">
+        <v>127</v>
+      </c>
+      <c r="M173" t="s">
+        <v>127</v>
+      </c>
+      <c r="R173" t="s">
         <v>164</v>
       </c>
-      <c r="T170" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="E171" t="s">
-        <v>152</v>
-      </c>
-      <c r="F171">
-        <f>值集数据!$E$20</f>
-      </c>
-      <c r="G171" t="s">
-        <v>136</v>
-      </c>
-      <c r="H171" t="s">
-        <v>432</v>
-      </c>
-      <c r="I171" t="s">
-        <v>433</v>
-      </c>
-      <c r="J171" t="s">
-        <v>434</v>
-      </c>
-      <c r="M171" t="s">
-        <v>82</v>
-      </c>
-      <c r="N171" t="s">
-        <v>82</v>
-      </c>
-      <c r="P171" t="s">
-        <v>160</v>
-      </c>
-      <c r="T171" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="E172" t="s">
-        <v>152</v>
-      </c>
-      <c r="F172">
-        <f>值集数据!$E$20</f>
-      </c>
-      <c r="G172" t="s">
-        <v>136</v>
-      </c>
-      <c r="H172" t="s">
-        <v>435</v>
-      </c>
-      <c r="I172" t="s">
-        <v>436</v>
-      </c>
-      <c r="J172" t="s">
-        <v>437</v>
-      </c>
-      <c r="M172" t="s">
-        <v>82</v>
-      </c>
-      <c r="N172" t="s">
-        <v>82</v>
-      </c>
-      <c r="P172" t="s">
-        <v>168</v>
-      </c>
-      <c r="T172" t="s">
-        <v>84</v>
+      <c r="S173" t="s">
+        <v>86</v>
+      </c>
+      <c r="U173" t="s">
+        <v>88</v>
+      </c>
+      <c r="V173" t="s">
+        <v>90</v>
+      </c>
+      <c r="W173" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s">
-        <v>50</v>
-      </c>
-      <c r="B174" t="s">
-        <v>51</v>
-      </c>
-      <c r="C174" t="s">
-        <v>438</v>
-      </c>
-      <c r="D174" t="s" s="51">
-        <v>439</v>
-      </c>
-      <c r="E174" t="s" s="52">
-        <v>440</v>
-      </c>
-      <c r="F174" t="s" s="53">
-        <v>441</v>
+      <c r="E174" t="s">
+        <v>463</v>
+      </c>
+      <c r="F174" t="s">
+        <v>121</v>
       </c>
       <c r="G174" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="H174" t="s">
-        <v>443</v>
-      </c>
-      <c r="I174" t="s" s="54">
-        <v>444</v>
-      </c>
-      <c r="J174" t="s" s="55">
-        <v>62</v>
-      </c>
-      <c r="K174" t="s" s="56">
-        <v>63</v>
+        <v>462</v>
+      </c>
+      <c r="I174">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="J174" t="s">
+        <v>86</v>
+      </c>
+      <c r="K174" t="s">
+        <v>86</v>
       </c>
       <c r="L174" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="M174" t="s">
-        <v>69</v>
-      </c>
-      <c r="N174" t="s">
-        <v>445</v>
-      </c>
-      <c r="O174" t="s">
-        <v>446</v>
-      </c>
-      <c r="P174" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>448</v>
+        <v>127</v>
       </c>
       <c r="R174" t="s">
-        <v>449</v>
+        <v>164</v>
       </c>
       <c r="S174" t="s">
-        <v>450</v>
-      </c>
-      <c r="T174" t="s">
-        <v>451</v>
+        <v>86</v>
       </c>
       <c r="U174" t="s">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="V174" t="s">
+        <v>90</v>
+      </c>
+      <c r="W174" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="F175" t="s">
-        <v>453</v>
+        <v>130</v>
       </c>
       <c r="G175" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="H175" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="I175">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J175" t="s">
+        <v>86</v>
+      </c>
+      <c r="K175" t="s">
+        <v>86</v>
+      </c>
+      <c r="L175" t="s">
+        <v>127</v>
+      </c>
+      <c r="M175" t="s">
+        <v>127</v>
+      </c>
+      <c r="R175" t="s">
+        <v>164</v>
+      </c>
+      <c r="S175" t="s">
+        <v>86</v>
+      </c>
+      <c r="U175" t="s">
+        <v>88</v>
+      </c>
+      <c r="V175" t="s">
+        <v>90</v>
+      </c>
+      <c r="W175" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>50</v>
+      </c>
+      <c r="B177" t="s">
+        <v>51</v>
+      </c>
+      <c r="C177" t="s">
+        <v>467</v>
+      </c>
+      <c r="D177" t="s" s="57">
+        <v>468</v>
+      </c>
+      <c r="E177" t="s" s="58">
+        <v>469</v>
+      </c>
+      <c r="F177" t="s" s="59">
+        <v>470</v>
+      </c>
+      <c r="G177" t="s">
+        <v>471</v>
+      </c>
+      <c r="H177" t="s">
+        <v>472</v>
+      </c>
+      <c r="I177" t="s" s="60">
+        <v>451</v>
+      </c>
+      <c r="J177" t="s">
+        <v>473</v>
+      </c>
+      <c r="K177" t="s">
+        <v>474</v>
+      </c>
+      <c r="L177" t="s">
+        <v>156</v>
+      </c>
+      <c r="M177" t="s" s="61">
+        <v>475</v>
+      </c>
+      <c r="N177" t="s">
+        <v>476</v>
+      </c>
+      <c r="O177" t="s">
+        <v>477</v>
+      </c>
+      <c r="P177" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>71</v>
+      </c>
+      <c r="R177" t="s">
+        <v>479</v>
+      </c>
+      <c r="S177" t="s">
+        <v>480</v>
+      </c>
+      <c r="T177" t="s">
+        <v>77</v>
+      </c>
+      <c r="U177" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="E178" t="s">
+        <v>481</v>
+      </c>
+      <c r="F178">
+        <f>值集数据!$E$173</f>
+      </c>
+      <c r="G178" t="s">
+        <v>86</v>
+      </c>
+      <c r="H178" t="s">
+        <v>86</v>
+      </c>
+      <c r="I178">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="J175" t="s">
-        <v>82</v>
-      </c>
-      <c r="K175" t="s">
-        <v>82</v>
-      </c>
-      <c r="L175" t="s">
-        <v>120</v>
-      </c>
-      <c r="M175" t="s">
-        <v>120</v>
-      </c>
-      <c r="R175" t="s">
-        <v>156</v>
-      </c>
-      <c r="S175" t="s">
-        <v>82</v>
-      </c>
-      <c r="U175" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="E176" t="s">
-        <v>456</v>
-      </c>
-      <c r="F176" t="s">
-        <v>114</v>
-      </c>
-      <c r="G176" t="s">
-        <v>454</v>
-      </c>
-      <c r="H176" t="s">
-        <v>455</v>
-      </c>
-      <c r="I176">
+      <c r="J178" t="s">
+        <v>482</v>
+      </c>
+      <c r="K178" t="s">
+        <v>483</v>
+      </c>
+      <c r="L178" t="s">
+        <v>168</v>
+      </c>
+      <c r="M178" t="s">
+        <v>127</v>
+      </c>
+      <c r="N178" t="s">
+        <v>88</v>
+      </c>
+      <c r="O178" t="s">
+        <v>88</v>
+      </c>
+      <c r="P178" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>88</v>
+      </c>
+      <c r="T178" t="s">
+        <v>90</v>
+      </c>
+      <c r="U178" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="E179" t="s">
+        <v>484</v>
+      </c>
+      <c r="F179">
+        <f>值集数据!$E$173</f>
+      </c>
+      <c r="G179" t="s">
+        <v>86</v>
+      </c>
+      <c r="H179" t="s">
+        <v>86</v>
+      </c>
+      <c r="I179">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="J176" t="s">
-        <v>82</v>
-      </c>
-      <c r="K176" t="s">
-        <v>82</v>
-      </c>
-      <c r="L176" t="s">
-        <v>120</v>
-      </c>
-      <c r="M176" t="s">
-        <v>120</v>
-      </c>
-      <c r="R176" t="s">
-        <v>156</v>
-      </c>
-      <c r="S176" t="s">
-        <v>82</v>
-      </c>
-      <c r="U176" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="E177" t="s">
-        <v>457</v>
-      </c>
-      <c r="F177" t="s">
-        <v>123</v>
-      </c>
-      <c r="G177" t="s">
-        <v>458</v>
-      </c>
-      <c r="H177" t="s">
-        <v>459</v>
-      </c>
-      <c r="I177">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="J177" t="s">
-        <v>82</v>
-      </c>
-      <c r="K177" t="s">
-        <v>82</v>
-      </c>
-      <c r="L177" t="s">
-        <v>120</v>
-      </c>
-      <c r="M177" t="s">
-        <v>120</v>
-      </c>
-      <c r="R177" t="s">
-        <v>156</v>
-      </c>
-      <c r="S177" t="s">
-        <v>82</v>
-      </c>
-      <c r="U177" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>50</v>
-      </c>
-      <c r="B179" t="s">
-        <v>51</v>
-      </c>
-      <c r="C179" t="s">
-        <v>460</v>
-      </c>
-      <c r="D179" t="s" s="57">
-        <v>461</v>
-      </c>
-      <c r="E179" t="s" s="58">
-        <v>462</v>
-      </c>
-      <c r="F179" t="s" s="59">
-        <v>463</v>
-      </c>
-      <c r="G179" t="s">
-        <v>464</v>
-      </c>
-      <c r="H179" t="s">
-        <v>465</v>
-      </c>
-      <c r="I179" t="s" s="60">
-        <v>444</v>
-      </c>
       <c r="J179" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="K179" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="L179" t="s">
-        <v>148</v>
-      </c>
-      <c r="M179" t="s" s="61">
-        <v>468</v>
+        <v>172</v>
+      </c>
+      <c r="M179" t="s">
+        <v>486</v>
       </c>
       <c r="N179" t="s">
-        <v>469</v>
+        <v>86</v>
       </c>
       <c r="O179" t="s">
-        <v>470</v>
+        <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>471</v>
+        <v>177</v>
       </c>
       <c r="Q179" t="s">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="T179" t="s">
+        <v>90</v>
+      </c>
+      <c r="U179" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="F180">
-        <f>值集数据!$E$175</f>
+        <f>值集数据!$E$173</f>
       </c>
       <c r="G180" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H180" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I180">
         <f>值集数据!$E$16</f>
       </c>
       <c r="J180" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="K180" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="L180" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M180" t="s">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="N180" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O180" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P180" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q180" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="T180" t="s">
+        <v>90</v>
+      </c>
+      <c r="U180" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="F181">
-        <f>值集数据!$E$175</f>
+        <f>值集数据!$E$174</f>
       </c>
       <c r="G181" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H181" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I181">
         <f>值集数据!$E$16</f>
       </c>
       <c r="J181" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K181" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="L181" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M181" t="s">
-        <v>477</v>
+        <v>127</v>
       </c>
       <c r="N181" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O181" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P181" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="Q181" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="T181" t="s">
+        <v>90</v>
+      </c>
+      <c r="U181" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="F182">
-        <f>值集数据!$E$175</f>
+        <f>值集数据!$E$174</f>
       </c>
       <c r="G182" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H182" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I182">
         <f>值集数据!$E$16</f>
       </c>
       <c r="J182" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="K182" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="L182" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M182" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="N182" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O182" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="Q182" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="T182" t="s">
+        <v>90</v>
+      </c>
+      <c r="U182" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="F183">
-        <f>值集数据!$E$176</f>
+        <f>值集数据!$E$174</f>
       </c>
       <c r="G183" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H183" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I183">
         <f>值集数据!$E$16</f>
       </c>
       <c r="J183" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="K183" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="L183" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M183" t="s">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="N183" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O183" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q183" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="T183" t="s">
+        <v>90</v>
+      </c>
+      <c r="U183" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" t="s">
+        <v>496</v>
+      </c>
+      <c r="F184">
+        <f>值集数据!$E$175</f>
+      </c>
+      <c r="G184" t="s">
+        <v>86</v>
+      </c>
+      <c r="H184" t="s">
+        <v>86</v>
+      </c>
+      <c r="I184">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J184" t="s">
+        <v>482</v>
+      </c>
+      <c r="K184" t="s">
         <v>483</v>
-      </c>
-      <c r="F184">
-        <f>值集数据!$E$176</f>
-      </c>
-      <c r="G184" t="s">
-        <v>82</v>
-      </c>
-      <c r="H184" t="s">
-        <v>82</v>
-      </c>
-      <c r="I184">
-        <f>值集数据!$E$16</f>
-      </c>
-      <c r="J184" t="s">
-        <v>476</v>
-      </c>
-      <c r="K184" t="s">
-        <v>477</v>
       </c>
       <c r="L184" t="s">
         <v>164</v>
       </c>
       <c r="M184" t="s">
-        <v>477</v>
+        <v>127</v>
       </c>
       <c r="N184" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O184" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="Q184" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="T184" t="s">
+        <v>90</v>
+      </c>
+      <c r="U184" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="F185">
-        <f>值集数据!$E$176</f>
+        <f>值集数据!$E$175</f>
       </c>
       <c r="G185" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H185" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I185">
-        <f>值集数据!$E$16</f>
+        <f>值集数据!$E$17</f>
       </c>
       <c r="J185" t="s">
         <v>485</v>
       </c>
       <c r="K185" t="s">
+        <v>498</v>
+      </c>
+      <c r="L185" t="s">
+        <v>168</v>
+      </c>
+      <c r="M185" t="s">
         <v>486</v>
       </c>
-      <c r="L185" t="s">
-        <v>156</v>
-      </c>
-      <c r="M185" t="s">
-        <v>481</v>
-      </c>
       <c r="N185" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O185" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q185" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="E186" t="s">
-        <v>487</v>
-      </c>
-      <c r="F186">
-        <f>值集数据!$E$177</f>
-      </c>
-      <c r="G186" t="s">
-        <v>82</v>
-      </c>
-      <c r="H186" t="s">
-        <v>82</v>
-      </c>
-      <c r="I186">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="J186" t="s">
-        <v>473</v>
-      </c>
-      <c r="K186" t="s">
-        <v>474</v>
-      </c>
-      <c r="L186" t="s">
-        <v>156</v>
-      </c>
-      <c r="M186" t="s">
-        <v>120</v>
-      </c>
-      <c r="N186" t="s">
-        <v>84</v>
-      </c>
-      <c r="O186" t="s">
-        <v>84</v>
-      </c>
-      <c r="P186" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="E187" t="s">
-        <v>488</v>
-      </c>
-      <c r="F187">
-        <f>值集数据!$E$177</f>
-      </c>
-      <c r="G187" t="s">
-        <v>82</v>
-      </c>
-      <c r="H187" t="s">
-        <v>82</v>
-      </c>
-      <c r="I187">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="J187" t="s">
-        <v>476</v>
-      </c>
-      <c r="K187" t="s">
-        <v>489</v>
-      </c>
-      <c r="L187" t="s">
-        <v>160</v>
-      </c>
-      <c r="M187" t="s">
-        <v>477</v>
-      </c>
-      <c r="N187" t="s">
-        <v>82</v>
-      </c>
-      <c r="O187" t="s">
-        <v>84</v>
-      </c>
-      <c r="P187" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="T185" t="s">
+        <v>90</v>
+      </c>
+      <c r="U185" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-platform-lov.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="533">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-03</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2160,6 +2160,18 @@
     <t>hpfm_lov-12</t>
   </si>
   <si>
+    <t>HFLE.FILE.OPERATION_TYPE</t>
+  </si>
+  <si>
+    <t>文件操作类型</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>hpfm_lov-13</t>
+  </si>
+  <si>
     <t>HFLE.FILE_FORMAT</t>
   </si>
   <si>
@@ -2169,7 +2181,10 @@
     <t>File Format</t>
   </si>
   <si>
-    <t>hpfm_lov-13</t>
+    <t>32618</t>
+  </si>
+  <si>
+    <t>hpfm_lov-14</t>
   </si>
   <si>
     <t>HFLE.MICROSOFT.ENDPOINT_SUFFIX</t>
@@ -2181,7 +2196,7 @@
     <t>Microsoft Store Endpoint Suffix</t>
   </si>
   <si>
-    <t>hpfm_lov-14</t>
+    <t>hpfm_lov-15</t>
   </si>
   <si>
     <t>HFLE.PREFIX_STRATEGY</t>
@@ -2193,7 +2208,19 @@
     <t>File Name Prefix Strategy</t>
   </si>
   <si>
-    <t>hpfm_lov-15</t>
+    <t>hpfm_lov-16</t>
+  </si>
+  <si>
+    <t>HFLE.PREVIEW_TYPE</t>
+  </si>
+  <si>
+    <t>文件预览类型</t>
+  </si>
+  <si>
+    <t>File preview type</t>
+  </si>
+  <si>
+    <t>hpfm_lov-17</t>
   </si>
   <si>
     <t>HFLE.SERVER.SOURCE_TYPE</t>
@@ -2205,7 +2232,7 @@
     <t>Server Upload Type</t>
   </si>
   <si>
-    <t>hpfm_lov-16</t>
+    <t>hpfm_lov-18</t>
   </si>
   <si>
     <t>HFLE.SERVER_CONFIG</t>
@@ -2246,7 +2273,7 @@
     <t>configId</t>
   </si>
   <si>
-    <t>hpfm_lov-17</t>
+    <t>hpfm_lov-19</t>
   </si>
   <si>
     <t>HFLE.SERVER_CONFIG.ORG</t>
@@ -2275,7 +2302,7 @@
 	AND hsc.tenant_id = #{tenantId}</t>
   </si>
   <si>
-    <t>hpfm_lov-18</t>
+    <t>hpfm_lov-20</t>
   </si>
   <si>
     <t>文件存储服务供应商</t>
@@ -2290,7 +2317,7 @@
     <t>Storage service provider value set</t>
   </si>
   <si>
-    <t>hpfm_lov-19</t>
+    <t>hpfm_lov-21</t>
   </si>
   <si>
     <t>HFLE.STORAGE_UNIT</t>
@@ -2302,7 +2329,7 @@
     <t>Storage Size Limit Unit</t>
   </si>
   <si>
-    <t>hpfm_lov-20</t>
+    <t>hpfm_lov-22</t>
   </si>
   <si>
     <t>HFLE.WATERMARK_TYPE</t>
@@ -2779,6 +2806,27 @@
     <t>htdo_matter</t>
   </si>
   <si>
+    <t>hpfm07/</t>
+  </si>
+  <si>
+    <t>hpfm_import_task</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>iiot/</t>
+  </si>
+  <si>
+    <t>iiot_ota_file</t>
+  </si>
+  <si>
+    <t>iiot01/</t>
+  </si>
+  <si>
+    <t>iiot_thing</t>
+  </si>
+  <si>
     <t>删除</t>
   </si>
   <si>
@@ -2797,6 +2845,27 @@
     <t>Create</t>
   </si>
   <si>
+    <t>UPLOAD</t>
+  </si>
+  <si>
+    <t>上传</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
     <t>ai</t>
   </si>
   <si>
@@ -3058,6 +3127,24 @@
     <t>530</t>
   </si>
   <si>
+    <t>dll</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
     <t>core.chinacloudapi.cn</t>
   </si>
   <si>
@@ -3094,6 +3181,18 @@
     <t>15</t>
   </si>
   <si>
+    <t>onlyOffice</t>
+  </si>
+  <si>
+    <t>hoffice</t>
+  </si>
+  <si>
+    <t>aspose</t>
+  </si>
+  <si>
+    <t>kkFileView</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
@@ -3118,6 +3217,9 @@
     <t>Aliyun</t>
   </si>
   <si>
+    <t>134354801085124623</t>
+  </si>
+  <si>
     <t>华为云</t>
   </si>
   <si>
@@ -3250,7 +3352,7 @@
     <t>children_field_name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-173</t>
+    <t>hpfm_lov_view_header-189</t>
   </si>
   <si>
     <t>HFLE.LOV.SERVER_CONFIG</t>
@@ -3262,10 +3364,10 @@
     <t>Server Upload Code Lov (Platform Level)</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-174</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-175</t>
+    <t>hpfm_lov_view_header-190</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-191</t>
   </si>
   <si>
     <t>服务器上传编码(租户级)</t>
@@ -3316,7 +3418,7 @@
     <t>source_code</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-178</t>
+    <t>hpfm_lov_view_line-194</t>
   </si>
   <si>
     <t>配置编码</t>
@@ -3325,7 +3427,7 @@
     <t>Configuration Code</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-179</t>
+    <t>hpfm_lov_view_line-195</t>
   </si>
   <si>
     <t>描述</t>
@@ -3334,7 +3436,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-180</t>
+    <t>hpfm_lov_view_line-196</t>
   </si>
   <si>
     <t>所属租户</t>
@@ -3346,13 +3448,13 @@
     <t>tenantName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-181</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-182</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-183</t>
+    <t>hpfm_lov_view_line-197</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-198</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-199</t>
   </si>
   <si>
     <t>租户名称</t>
@@ -3361,10 +3463,10 @@
     <t>Tenant Name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-184</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-185</t>
+    <t>hpfm_lov_view_line-200</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-201</t>
   </si>
   <si>
     <t>Description</t>
@@ -4464,7 +4566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4774,18 +4876,12 @@
         <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M12" t="s">
         <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" t="s">
         <v>86</v>
       </c>
       <c r="U12" t="s">
@@ -4804,7 +4900,7 @@
         <v>90</v>
       </c>
       <c r="AC12" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -4829,6 +4925,12 @@
       <c r="N13" t="s">
         <v>86</v>
       </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>86</v>
+      </c>
       <c r="U13" t="s">
         <v>88</v>
       </c>
@@ -4836,7 +4938,7 @@
         <v>88</v>
       </c>
       <c r="Y13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AA13" t="s">
         <v>89</v>
@@ -4845,24 +4947,24 @@
         <v>90</v>
       </c>
       <c r="AC13" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M14" t="s">
         <v>86</v>
@@ -4891,19 +4993,19 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M15" t="s">
         <v>86</v>
@@ -4932,46 +5034,31 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
         <v>123</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>124</v>
       </c>
-      <c r="J16" t="s">
-        <v>125</v>
-      </c>
       <c r="M16" t="s">
         <v>86</v>
       </c>
       <c r="N16" t="s">
         <v>86</v>
       </c>
-      <c r="Q16" t="s">
-        <v>126</v>
-      </c>
-      <c r="S16" t="s">
-        <v>127</v>
-      </c>
-      <c r="T16" t="s">
-        <v>127</v>
-      </c>
       <c r="U16" t="s">
         <v>88</v>
       </c>
       <c r="V16" t="s">
         <v>88</v>
-      </c>
-      <c r="X16" t="s">
-        <v>128</v>
       </c>
       <c r="Y16" t="s">
         <v>86</v>
@@ -4988,22 +5075,19 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M17" t="s">
         <v>86</v>
@@ -5011,17 +5095,11 @@
       <c r="N17" t="s">
         <v>86</v>
       </c>
-      <c r="Q17" t="s">
-        <v>133</v>
-      </c>
       <c r="U17" t="s">
         <v>88</v>
       </c>
       <c r="V17" t="s">
         <v>88</v>
-      </c>
-      <c r="X17" t="s">
-        <v>128</v>
       </c>
       <c r="Y17" t="s">
         <v>86</v>
@@ -5038,37 +5116,46 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
         <v>134</v>
       </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" t="s">
         <v>135</v>
       </c>
-      <c r="J18" t="s">
+      <c r="S18" t="s">
         <v>136</v>
       </c>
-      <c r="K18" t="s">
+      <c r="T18" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" t="s">
+        <v>88</v>
+      </c>
+      <c r="V18" t="s">
+        <v>88</v>
+      </c>
+      <c r="X18" t="s">
         <v>137</v>
-      </c>
-      <c r="L18" t="s">
-        <v>138</v>
-      </c>
-      <c r="M18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" t="s">
-        <v>86</v>
-      </c>
-      <c r="U18" t="s">
-        <v>88</v>
-      </c>
-      <c r="V18" t="s">
-        <v>88</v>
       </c>
       <c r="Y18" t="s">
         <v>86</v>
@@ -5085,31 +5172,40 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" t="s">
         <v>139</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" t="s">
         <v>140</v>
       </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>141</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" t="s">
         <v>142</v>
       </c>
-      <c r="M19" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" t="s">
-        <v>86</v>
-      </c>
       <c r="U19" t="s">
         <v>88</v>
       </c>
       <c r="V19" t="s">
         <v>88</v>
+      </c>
+      <c r="X19" t="s">
+        <v>137</v>
       </c>
       <c r="Y19" t="s">
         <v>86</v>
@@ -5129,17 +5225,23 @@
         <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
         <v>81</v>
       </c>
       <c r="I20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" t="s">
         <v>145</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>146</v>
       </c>
+      <c r="L20" t="s">
+        <v>147</v>
+      </c>
       <c r="M20" t="s">
         <v>86</v>
       </c>
@@ -5153,7 +5255,7 @@
         <v>88</v>
       </c>
       <c r="Y20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA20" t="s">
         <v>89</v>
@@ -5165,174 +5267,175 @@
         <v>91</v>
       </c>
     </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" t="s">
+        <v>86</v>
+      </c>
+      <c r="U21" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" t="s">
+        <v>86</v>
+      </c>
+      <c r="U22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" t="s" s="44">
-        <v>148</v>
-      </c>
-      <c r="E22" t="s" s="45">
-        <v>149</v>
-      </c>
-      <c r="F22" t="s" s="46">
-        <v>150</v>
-      </c>
-      <c r="G22" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" t="s" s="47">
-        <v>152</v>
-      </c>
-      <c r="I22" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s" s="44">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s" s="45">
+        <v>158</v>
+      </c>
+      <c r="F24" t="s" s="46">
+        <v>159</v>
+      </c>
+      <c r="G24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" t="s" s="47">
+        <v>161</v>
+      </c>
+      <c r="I24" t="s">
+        <v>162</v>
+      </c>
+      <c r="J24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" t="s">
         <v>60</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L24" t="s">
         <v>61</v>
       </c>
-      <c r="M22" t="s" s="48">
+      <c r="M24" t="s" s="48">
         <v>62</v>
       </c>
-      <c r="N22" t="s" s="49">
+      <c r="N24" t="s" s="49">
         <v>63</v>
       </c>
-      <c r="O22" t="s">
-        <v>155</v>
-      </c>
-      <c r="P22" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" t="s" s="50">
-        <v>157</v>
-      </c>
-      <c r="R22" t="s">
-        <v>158</v>
-      </c>
-      <c r="S22" t="s">
-        <v>159</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="O24" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" t="s" s="50">
+        <v>166</v>
+      </c>
+      <c r="R24" t="s">
+        <v>167</v>
+      </c>
+      <c r="S24" t="s">
+        <v>168</v>
+      </c>
+      <c r="T24" t="s">
         <v>71</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U24" t="s">
         <v>77</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V24" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23">
-        <f>值集数据!$E$8</f>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" t="s">
-        <v>163</v>
-      </c>
-      <c r="M23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N23" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>88</v>
-      </c>
-      <c r="T23" t="s">
-        <v>88</v>
-      </c>
-      <c r="U23" t="s">
-        <v>90</v>
-      </c>
-      <c r="V23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24">
-        <f>值集数据!$E$8</f>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24" t="s">
-        <v>166</v>
-      </c>
-      <c r="J24" t="s">
-        <v>167</v>
-      </c>
-      <c r="M24" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>88</v>
-      </c>
-      <c r="T24" t="s">
-        <v>88</v>
-      </c>
-      <c r="U24" t="s">
-        <v>90</v>
-      </c>
-      <c r="V24" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25">
+        <v>169</v>
+      </c>
+      <c r="F25" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G25" t="s">
         <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25" t="s">
         <v>86</v>
@@ -5341,7 +5444,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25" t="s">
         <v>88</v>
@@ -5358,22 +5461,23 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26">
+        <v>169</v>
+      </c>
+      <c r="F26" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G26" t="s">
         <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s">
         <v>86</v>
@@ -5382,7 +5486,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26" t="s">
         <v>88</v>
@@ -5399,22 +5503,23 @@
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27">
+        <v>169</v>
+      </c>
+      <c r="F27" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G27" t="s">
         <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s">
         <v>86</v>
@@ -5423,10 +5528,10 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q27" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="T27" t="s">
         <v>88</v>
@@ -5440,22 +5545,23 @@
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28">
+        <v>169</v>
+      </c>
+      <c r="F28" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G28" t="s">
         <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="I28" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="J28" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M28" t="s">
         <v>86</v>
@@ -5464,10 +5570,10 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q28" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="T28" t="s">
         <v>88</v>
@@ -5481,22 +5587,23 @@
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29">
+        <v>169</v>
+      </c>
+      <c r="F29" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G29" t="s">
         <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s">
         <v>86</v>
@@ -5505,10 +5612,10 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q29" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="T29" t="s">
         <v>88</v>
@@ -5522,22 +5629,23 @@
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30">
+        <v>169</v>
+      </c>
+      <c r="F30" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G30" t="s">
         <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M30" t="s">
         <v>86</v>
@@ -5546,10 +5654,10 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="T30" t="s">
         <v>88</v>
@@ -5563,22 +5671,23 @@
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31">
+        <v>169</v>
+      </c>
+      <c r="F31" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G31" t="s">
         <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s">
         <v>86</v>
@@ -5590,7 +5699,7 @@
         <v>189</v>
       </c>
       <c r="Q31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="T31" t="s">
         <v>88</v>
@@ -5604,10 +5713,11 @@
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32">
+        <v>169</v>
+      </c>
+      <c r="F32" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G32" t="s">
         <v>80</v>
@@ -5631,7 +5741,7 @@
         <v>193</v>
       </c>
       <c r="Q32" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="T32" t="s">
         <v>88</v>
@@ -5645,34 +5755,35 @@
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33">
+        <v>169</v>
+      </c>
+      <c r="F33" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G33" t="s">
         <v>80</v>
       </c>
       <c r="H33" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" t="s">
+        <v>197</v>
+      </c>
+      <c r="M33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N33" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" t="s">
         <v>194</v>
-      </c>
-      <c r="I33" t="s">
-        <v>195</v>
-      </c>
-      <c r="J33" t="s">
-        <v>196</v>
-      </c>
-      <c r="M33" t="s">
-        <v>86</v>
-      </c>
-      <c r="N33" t="s">
-        <v>86</v>
-      </c>
-      <c r="P33" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>185</v>
       </c>
       <c r="T33" t="s">
         <v>88</v>
@@ -5686,22 +5797,23 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34">
+        <v>169</v>
+      </c>
+      <c r="F34" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G34" t="s">
         <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="J34" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="M34" t="s">
         <v>86</v>
@@ -5710,10 +5822,10 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q34" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T34" t="s">
         <v>88</v>
@@ -5727,22 +5839,23 @@
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G35" t="s">
         <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="I35" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="J35" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s">
         <v>86</v>
@@ -5751,10 +5864,10 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T35" t="s">
         <v>88</v>
@@ -5768,22 +5881,23 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36">
+        <v>169</v>
+      </c>
+      <c r="F36" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G36" t="s">
         <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s">
         <v>86</v>
@@ -5792,10 +5906,10 @@
         <v>86</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q36" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="T36" t="s">
         <v>88</v>
@@ -5809,22 +5923,23 @@
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37">
+        <v>169</v>
+      </c>
+      <c r="F37" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G37" t="s">
         <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M37" t="s">
         <v>86</v>
@@ -5833,10 +5948,10 @@
         <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q37" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="T37" t="s">
         <v>88</v>
@@ -5850,22 +5965,23 @@
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38">
+        <v>169</v>
+      </c>
+      <c r="F38" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G38" t="s">
         <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I38" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s">
         <v>86</v>
@@ -5874,10 +5990,10 @@
         <v>86</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q38" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="T38" t="s">
         <v>88</v>
@@ -5891,22 +6007,23 @@
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39">
+        <v>169</v>
+      </c>
+      <c r="F39" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G39" t="s">
         <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I39" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="J39" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s">
         <v>86</v>
@@ -5915,10 +6032,10 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="T39" t="s">
         <v>88</v>
@@ -5932,22 +6049,23 @@
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40">
+        <v>169</v>
+      </c>
+      <c r="F40" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G40" t="s">
         <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J40" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M40" t="s">
         <v>86</v>
@@ -5956,10 +6074,10 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q40" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="T40" t="s">
         <v>88</v>
@@ -5973,22 +6091,23 @@
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41">
+        <v>169</v>
+      </c>
+      <c r="F41" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G41" t="s">
         <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M41" t="s">
         <v>86</v>
@@ -5997,10 +6116,10 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q41" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="T41" t="s">
         <v>88</v>
@@ -6014,22 +6133,23 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42">
+        <v>169</v>
+      </c>
+      <c r="F42" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G42" t="s">
         <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s">
         <v>86</v>
@@ -6038,10 +6158,10 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q42" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="T42" t="s">
         <v>88</v>
@@ -6055,22 +6175,23 @@
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43">
+        <v>169</v>
+      </c>
+      <c r="F43" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G43" t="s">
         <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I43" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M43" t="s">
         <v>86</v>
@@ -6079,10 +6200,10 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q43" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="T43" t="s">
         <v>88</v>
@@ -6096,22 +6217,23 @@
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44">
+        <v>169</v>
+      </c>
+      <c r="F44" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G44" t="s">
         <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="J44" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M44" t="s">
         <v>86</v>
@@ -6120,10 +6242,10 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q44" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="T44" t="s">
         <v>88</v>
@@ -6137,22 +6259,23 @@
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45">
+        <v>169</v>
+      </c>
+      <c r="F45" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G45" t="s">
         <v>80</v>
       </c>
       <c r="H45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M45" t="s">
         <v>86</v>
@@ -6161,10 +6284,10 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q45" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="T45" t="s">
         <v>88</v>
@@ -6178,22 +6301,23 @@
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46">
+        <v>169</v>
+      </c>
+      <c r="F46" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G46" t="s">
         <v>80</v>
       </c>
       <c r="H46" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I46" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J46" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M46" t="s">
         <v>86</v>
@@ -6202,10 +6326,10 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q46" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="T46" t="s">
         <v>88</v>
@@ -6219,22 +6343,23 @@
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47">
+        <v>169</v>
+      </c>
+      <c r="F47" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G47" t="s">
         <v>80</v>
       </c>
       <c r="H47" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="I47" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="J47" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M47" t="s">
         <v>86</v>
@@ -6243,10 +6368,10 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q47" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="T47" t="s">
         <v>88</v>
@@ -6260,22 +6385,23 @@
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48">
+        <v>169</v>
+      </c>
+      <c r="F48" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G48" t="s">
         <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M48" t="s">
         <v>86</v>
@@ -6284,10 +6410,10 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q48" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="T48" t="s">
         <v>88</v>
@@ -6301,22 +6427,23 @@
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49">
+        <v>169</v>
+      </c>
+      <c r="F49" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G49" t="s">
         <v>80</v>
       </c>
       <c r="H49" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="I49" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="J49" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="M49" t="s">
         <v>86</v>
@@ -6325,10 +6452,10 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="T49" t="s">
         <v>88</v>
@@ -6342,22 +6469,23 @@
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50">
+        <v>169</v>
+      </c>
+      <c r="F50" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G50" t="s">
         <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="I50" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="J50" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="M50" t="s">
         <v>86</v>
@@ -6369,7 +6497,7 @@
         <v>227</v>
       </c>
       <c r="Q50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="T50" t="s">
         <v>88</v>
@@ -6383,10 +6511,11 @@
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F51">
+        <v>169</v>
+      </c>
+      <c r="F51" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G51" t="s">
         <v>80</v>
@@ -6410,7 +6539,7 @@
         <v>231</v>
       </c>
       <c r="Q51" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="T51" t="s">
         <v>88</v>
@@ -6424,22 +6553,23 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52">
+        <v>169</v>
+      </c>
+      <c r="F52" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G52" t="s">
         <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="I52" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="J52" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="M52" t="s">
         <v>86</v>
@@ -6448,10 +6578,10 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q52" t="s">
         <v>232</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>233</v>
       </c>
       <c r="T52" t="s">
         <v>88</v>
@@ -6465,22 +6595,23 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53">
+        <v>169</v>
+      </c>
+      <c r="F53" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G53" t="s">
         <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="I53" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="J53" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="M53" t="s">
         <v>86</v>
@@ -6489,10 +6620,10 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T53" t="s">
         <v>88</v>
@@ -6506,22 +6637,23 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54">
+        <v>169</v>
+      </c>
+      <c r="F54" t="n">
         <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G54" t="s">
         <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I54" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J54" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s">
         <v>86</v>
@@ -6530,10 +6662,10 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q54" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="T54" t="s">
         <v>88</v>
@@ -6547,22 +6679,23 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55">
-        <f>值集数据!$E$9</f>
+        <v>169</v>
+      </c>
+      <c r="F55" t="n">
+        <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="I55" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="J55" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="M55" t="s">
         <v>86</v>
@@ -6571,7 +6704,10 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>243</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>242</v>
       </c>
       <c r="T55" t="s">
         <v>88</v>
@@ -6585,22 +6721,23 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>160</v>
-      </c>
-      <c r="F56">
-        <f>值集数据!$E$9</f>
+        <v>169</v>
+      </c>
+      <c r="F56" t="n">
+        <f>值集数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G56" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="I56" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="J56" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="M56" t="s">
         <v>86</v>
@@ -6609,7 +6746,10 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>244</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>242</v>
       </c>
       <c r="T56" t="s">
         <v>88</v>
@@ -6623,22 +6763,23 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57">
+        <v>169</v>
+      </c>
+      <c r="F57" t="n">
         <f>值集数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G57" t="s">
         <v>93</v>
       </c>
       <c r="H57" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I57" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J57" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M57" t="s">
         <v>86</v>
@@ -6647,7 +6788,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T57" t="s">
         <v>88</v>
@@ -6661,22 +6802,23 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58">
+        <v>169</v>
+      </c>
+      <c r="F58" t="n">
         <f>值集数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G58" t="s">
         <v>93</v>
       </c>
       <c r="H58" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I58" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J58" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M58" t="s">
         <v>86</v>
@@ -6685,7 +6827,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="T58" t="s">
         <v>88</v>
@@ -6699,22 +6841,23 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>160</v>
-      </c>
-      <c r="F59">
+        <v>169</v>
+      </c>
+      <c r="F59" t="n">
         <f>值集数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G59" t="s">
         <v>93</v>
       </c>
       <c r="H59" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I59" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J59" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M59" t="s">
         <v>86</v>
@@ -6723,7 +6866,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="T59" t="s">
         <v>88</v>
@@ -6737,22 +6880,23 @@
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60">
-        <f>值集数据!$E$10</f>
+        <v>169</v>
+      </c>
+      <c r="F60" t="n">
+        <f>值集数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I60" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J60" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M60" t="s">
         <v>86</v>
@@ -6761,7 +6905,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="T60" t="s">
         <v>88</v>
@@ -6775,22 +6919,23 @@
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>160</v>
-      </c>
-      <c r="F61">
-        <f>值集数据!$E$10</f>
+        <v>169</v>
+      </c>
+      <c r="F61" t="n">
+        <f>值集数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G61" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I61" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="J61" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M61" t="s">
         <v>86</v>
@@ -6799,7 +6944,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="T61" t="s">
         <v>88</v>
@@ -6813,22 +6958,23 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>160</v>
-      </c>
-      <c r="F62">
+        <v>169</v>
+      </c>
+      <c r="F62" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G62" t="s">
         <v>97</v>
       </c>
       <c r="H62" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I62" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J62" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M62" t="s">
         <v>86</v>
@@ -6837,7 +6983,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T62" t="s">
         <v>88</v>
@@ -6851,22 +6997,23 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>160</v>
-      </c>
-      <c r="F63">
+        <v>169</v>
+      </c>
+      <c r="F63" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G63" t="s">
         <v>97</v>
       </c>
       <c r="H63" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I63" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J63" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M63" t="s">
         <v>86</v>
@@ -6875,7 +7022,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T63" t="s">
         <v>88</v>
@@ -6889,22 +7036,23 @@
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>160</v>
-      </c>
-      <c r="F64">
+        <v>169</v>
+      </c>
+      <c r="F64" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G64" t="s">
         <v>97</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I64" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J64" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M64" t="s">
         <v>86</v>
@@ -6913,7 +7061,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="T64" t="s">
         <v>88</v>
@@ -6927,22 +7075,23 @@
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65">
+        <v>169</v>
+      </c>
+      <c r="F65" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
       </c>
       <c r="H65" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I65" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="J65" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M65" t="s">
         <v>86</v>
@@ -6951,7 +7100,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="T65" t="s">
         <v>88</v>
@@ -6965,22 +7114,23 @@
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>160</v>
-      </c>
-      <c r="F66">
+        <v>169</v>
+      </c>
+      <c r="F66" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G66" t="s">
         <v>97</v>
       </c>
       <c r="H66" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I66" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="J66" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M66" t="s">
         <v>86</v>
@@ -6989,7 +7139,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="T66" t="s">
         <v>88</v>
@@ -7003,22 +7153,23 @@
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>160</v>
-      </c>
-      <c r="F67">
+        <v>169</v>
+      </c>
+      <c r="F67" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G67" t="s">
         <v>97</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="I67" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J67" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M67" t="s">
         <v>86</v>
@@ -7027,7 +7178,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="T67" t="s">
         <v>88</v>
@@ -7041,22 +7192,23 @@
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68">
+        <v>169</v>
+      </c>
+      <c r="F68" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G68" t="s">
         <v>97</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="I68" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="J68" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M68" t="s">
         <v>86</v>
@@ -7079,22 +7231,23 @@
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>160</v>
-      </c>
-      <c r="F69">
+        <v>169</v>
+      </c>
+      <c r="F69" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
       </c>
       <c r="H69" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I69" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J69" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M69" t="s">
         <v>86</v>
@@ -7117,22 +7270,23 @@
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70">
+        <v>169</v>
+      </c>
+      <c r="F70" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G70" t="s">
         <v>97</v>
       </c>
       <c r="H70" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I70" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J70" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M70" t="s">
         <v>86</v>
@@ -7141,7 +7295,7 @@
         <v>86</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T70" t="s">
         <v>88</v>
@@ -7155,22 +7309,23 @@
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>160</v>
-      </c>
-      <c r="F71">
+        <v>169</v>
+      </c>
+      <c r="F71" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G71" t="s">
         <v>97</v>
       </c>
       <c r="H71" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I71" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J71" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M71" t="s">
         <v>86</v>
@@ -7179,7 +7334,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="T71" t="s">
         <v>88</v>
@@ -7193,22 +7348,23 @@
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>160</v>
-      </c>
-      <c r="F72">
+        <v>169</v>
+      </c>
+      <c r="F72" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G72" t="s">
         <v>97</v>
       </c>
       <c r="H72" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I72" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J72" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M72" t="s">
         <v>86</v>
@@ -7217,7 +7373,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="T72" t="s">
         <v>88</v>
@@ -7231,22 +7387,23 @@
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>160</v>
-      </c>
-      <c r="F73">
+        <v>169</v>
+      </c>
+      <c r="F73" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
       </c>
       <c r="H73" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I73" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J73" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M73" t="s">
         <v>86</v>
@@ -7255,7 +7412,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="T73" t="s">
         <v>88</v>
@@ -7269,22 +7426,23 @@
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>160</v>
-      </c>
-      <c r="F74">
+        <v>169</v>
+      </c>
+      <c r="F74" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G74" t="s">
         <v>97</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I74" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J74" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M74" t="s">
         <v>86</v>
@@ -7293,7 +7451,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="T74" t="s">
         <v>88</v>
@@ -7307,22 +7465,23 @@
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75">
+        <v>169</v>
+      </c>
+      <c r="F75" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G75" t="s">
         <v>97</v>
       </c>
       <c r="H75" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="I75" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J75" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M75" t="s">
         <v>86</v>
@@ -7331,7 +7490,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="T75" t="s">
         <v>88</v>
@@ -7345,22 +7504,23 @@
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76">
+        <v>169</v>
+      </c>
+      <c r="F76" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G76" t="s">
         <v>97</v>
       </c>
       <c r="H76" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I76" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="J76" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M76" t="s">
         <v>86</v>
@@ -7369,7 +7529,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="T76" t="s">
         <v>88</v>
@@ -7383,28 +7543,23 @@
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>160</v>
-      </c>
-      <c r="F77">
+        <v>169</v>
+      </c>
+      <c r="F77" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G77" t="s">
         <v>97</v>
       </c>
       <c r="H77" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I77" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="J77" t="s">
-        <v>287</v>
-      </c>
-      <c r="K77" t="s">
-        <v>288</v>
-      </c>
-      <c r="L77" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M77" t="s">
         <v>86</v>
@@ -7413,7 +7568,7 @@
         <v>86</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="T77" t="s">
         <v>88</v>
@@ -7427,22 +7582,23 @@
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>160</v>
-      </c>
-      <c r="F78">
+        <v>169</v>
+      </c>
+      <c r="F78" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
       </c>
       <c r="H78" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I78" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="J78" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M78" t="s">
         <v>86</v>
@@ -7451,7 +7607,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="T78" t="s">
         <v>88</v>
@@ -7465,22 +7621,29 @@
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79">
+        <v>169</v>
+      </c>
+      <c r="F79" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G79" t="s">
         <v>97</v>
       </c>
       <c r="H79" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I79" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J79" t="s">
-        <v>293</v>
+        <v>296</v>
+      </c>
+      <c r="K79" t="s">
+        <v>297</v>
+      </c>
+      <c r="L79" t="s">
+        <v>298</v>
       </c>
       <c r="M79" t="s">
         <v>86</v>
@@ -7489,7 +7652,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="T79" t="s">
         <v>88</v>
@@ -7503,22 +7666,23 @@
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>160</v>
-      </c>
-      <c r="F80">
+        <v>169</v>
+      </c>
+      <c r="F80" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G80" t="s">
         <v>97</v>
       </c>
       <c r="H80" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I80" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J80" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M80" t="s">
         <v>86</v>
@@ -7527,7 +7691,7 @@
         <v>86</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="T80" t="s">
         <v>88</v>
@@ -7541,22 +7705,23 @@
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>160</v>
-      </c>
-      <c r="F81">
+        <v>169</v>
+      </c>
+      <c r="F81" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G81" t="s">
         <v>97</v>
       </c>
       <c r="H81" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I81" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="J81" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M81" t="s">
         <v>86</v>
@@ -7565,7 +7730,7 @@
         <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="T81" t="s">
         <v>88</v>
@@ -7579,22 +7744,23 @@
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82">
+        <v>169</v>
+      </c>
+      <c r="F82" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G82" t="s">
         <v>97</v>
       </c>
       <c r="H82" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="I82" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J82" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M82" t="s">
         <v>86</v>
@@ -7603,7 +7769,7 @@
         <v>86</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="T82" t="s">
         <v>88</v>
@@ -7617,22 +7783,23 @@
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83">
+        <v>169</v>
+      </c>
+      <c r="F83" t="n">
         <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G83" t="s">
         <v>97</v>
       </c>
       <c r="H83" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="I83" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J83" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M83" t="s">
         <v>86</v>
@@ -7641,7 +7808,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="T83" t="s">
         <v>88</v>
@@ -7655,22 +7822,23 @@
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>160</v>
-      </c>
-      <c r="F84">
-        <f>值集数据!$E$11</f>
+        <v>169</v>
+      </c>
+      <c r="F84" t="n">
+        <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G84" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H84" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I84" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J84" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M84" t="s">
         <v>86</v>
@@ -7679,7 +7847,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="T84" t="s">
         <v>88</v>
@@ -7693,22 +7861,23 @@
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>160</v>
-      </c>
-      <c r="F85">
-        <f>值集数据!$E$11</f>
+        <v>169</v>
+      </c>
+      <c r="F85" t="n">
+        <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G85" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H85" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I85" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="J85" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M85" t="s">
         <v>86</v>
@@ -7717,7 +7886,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="T85" t="s">
         <v>88</v>
@@ -7731,22 +7900,23 @@
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>160</v>
-      </c>
-      <c r="F86">
-        <f>值集数据!$E$11</f>
+        <v>169</v>
+      </c>
+      <c r="F86" t="n">
+        <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H86" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I86" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="J86" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M86" t="s">
         <v>86</v>
@@ -7755,7 +7925,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="T86" t="s">
         <v>88</v>
@@ -7764,27 +7934,28 @@
         <v>90</v>
       </c>
       <c r="V86" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>160</v>
-      </c>
-      <c r="F87">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F87" t="n">
+        <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H87" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I87" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="J87" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M87" t="s">
         <v>86</v>
@@ -7793,10 +7964,7 @@
         <v>86</v>
       </c>
       <c r="P87" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="T87" t="s">
         <v>88</v>
@@ -7805,27 +7973,28 @@
         <v>90</v>
       </c>
       <c r="V87" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>160</v>
-      </c>
-      <c r="F88">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F88" t="n">
+        <f>值集数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G88" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H88" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="I88" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J88" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M88" t="s">
         <v>86</v>
@@ -7834,9 +8003,6 @@
         <v>86</v>
       </c>
       <c r="P88" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q88" t="s">
         <v>236</v>
       </c>
       <c r="T88" t="s">
@@ -7846,27 +8012,28 @@
         <v>90</v>
       </c>
       <c r="V88" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>160</v>
-      </c>
-      <c r="F89">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F89" t="n">
+        <f>值集数据!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H89" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="I89" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J89" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M89" t="s">
         <v>86</v>
@@ -7875,10 +8042,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="T89" t="s">
         <v>88</v>
@@ -7892,22 +8056,23 @@
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>160</v>
-      </c>
-      <c r="F90">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F90" t="n">
+        <f>值集数据!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G90" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H90" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I90" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J90" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M90" t="s">
         <v>86</v>
@@ -7916,10 +8081,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="T90" t="s">
         <v>88</v>
@@ -7933,22 +8095,23 @@
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>160</v>
-      </c>
-      <c r="F91">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F91" t="n">
+        <f>值集数据!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H91" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="I91" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="J91" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="M91" t="s">
         <v>86</v>
@@ -7957,10 +8120,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="T91" t="s">
         <v>88</v>
@@ -7974,22 +8134,23 @@
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>160</v>
-      </c>
-      <c r="F92">
+        <v>169</v>
+      </c>
+      <c r="F92" t="n">
         <f>值集数据!$E$12</f>
+        <v>0.0</v>
       </c>
       <c r="G92" t="s">
         <v>105</v>
       </c>
       <c r="H92" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="I92" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="J92" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="M92" t="s">
         <v>86</v>
@@ -7998,10 +8159,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="T92" t="s">
         <v>88</v>
@@ -8010,27 +8168,28 @@
         <v>90</v>
       </c>
       <c r="V92" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>160</v>
-      </c>
-      <c r="F93">
+        <v>169</v>
+      </c>
+      <c r="F93" t="n">
         <f>值集数据!$E$12</f>
+        <v>0.0</v>
       </c>
       <c r="G93" t="s">
         <v>105</v>
       </c>
       <c r="H93" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="I93" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="J93" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="M93" t="s">
         <v>86</v>
@@ -8039,10 +8198,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="T93" t="s">
         <v>88</v>
@@ -8051,27 +8207,28 @@
         <v>90</v>
       </c>
       <c r="V93" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>160</v>
-      </c>
-      <c r="F94">
+        <v>169</v>
+      </c>
+      <c r="F94" t="n">
         <f>值集数据!$E$12</f>
+        <v>0.0</v>
       </c>
       <c r="G94" t="s">
         <v>105</v>
       </c>
       <c r="H94" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="I94" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="J94" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M94" t="s">
         <v>86</v>
@@ -8080,10 +8237,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="T94" t="s">
         <v>88</v>
@@ -8092,27 +8246,28 @@
         <v>90</v>
       </c>
       <c r="V94" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>160</v>
-      </c>
-      <c r="F95">
+        <v>169</v>
+      </c>
+      <c r="F95" t="n">
         <f>值集数据!$E$12</f>
+        <v>0.0</v>
       </c>
       <c r="G95" t="s">
         <v>105</v>
       </c>
       <c r="H95" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="I95" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J95" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M95" t="s">
         <v>86</v>
@@ -8121,10 +8276,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="T95" t="s">
         <v>88</v>
@@ -8133,27 +8285,28 @@
         <v>90</v>
       </c>
       <c r="V95" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>160</v>
-      </c>
-      <c r="F96">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F96" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G96" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H96" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="I96" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="J96" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="M96" t="s">
         <v>86</v>
@@ -8162,10 +8315,10 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="Q96" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T96" t="s">
         <v>88</v>
@@ -8179,22 +8332,23 @@
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>160</v>
-      </c>
-      <c r="F97">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F97" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G97" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H97" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="I97" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J97" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="M97" t="s">
         <v>86</v>
@@ -8203,10 +8357,10 @@
         <v>86</v>
       </c>
       <c r="P97" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="Q97" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T97" t="s">
         <v>88</v>
@@ -8220,22 +8374,23 @@
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>160</v>
-      </c>
-      <c r="F98">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F98" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G98" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H98" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="I98" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="J98" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M98" t="s">
         <v>86</v>
@@ -8244,10 +8399,10 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q98" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T98" t="s">
         <v>88</v>
@@ -8261,22 +8416,23 @@
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>160</v>
-      </c>
-      <c r="F99">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F99" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G99" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H99" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="I99" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="J99" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="M99" t="s">
         <v>86</v>
@@ -8285,10 +8441,10 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="Q99" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T99" t="s">
         <v>88</v>
@@ -8302,22 +8458,23 @@
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>160</v>
-      </c>
-      <c r="F100">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F100" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G100" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H100" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="I100" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="J100" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="M100" t="s">
         <v>86</v>
@@ -8326,10 +8483,10 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="Q100" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T100" t="s">
         <v>88</v>
@@ -8343,22 +8500,23 @@
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>160</v>
-      </c>
-      <c r="F101">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F101" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G101" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H101" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="I101" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="J101" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="M101" t="s">
         <v>86</v>
@@ -8367,10 +8525,10 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="Q101" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T101" t="s">
         <v>88</v>
@@ -8384,22 +8542,23 @@
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>160</v>
-      </c>
-      <c r="F102">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F102" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G102" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H102" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="I102" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="J102" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="M102" t="s">
         <v>86</v>
@@ -8408,10 +8567,10 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="Q102" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T102" t="s">
         <v>88</v>
@@ -8425,22 +8584,23 @@
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>160</v>
-      </c>
-      <c r="F103">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F103" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G103" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H103" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="I103" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="J103" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M103" t="s">
         <v>86</v>
@@ -8449,10 +8609,10 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="Q103" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T103" t="s">
         <v>88</v>
@@ -8466,22 +8626,23 @@
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>160</v>
-      </c>
-      <c r="F104">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F104" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G104" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H104" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="I104" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="J104" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="M104" t="s">
         <v>86</v>
@@ -8490,10 +8651,10 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q104" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T104" t="s">
         <v>88</v>
@@ -8507,22 +8668,23 @@
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>160</v>
-      </c>
-      <c r="F105">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F105" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G105" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H105" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="I105" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="J105" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M105" t="s">
         <v>86</v>
@@ -8531,10 +8693,10 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q105" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="T105" t="s">
         <v>88</v>
@@ -8548,22 +8710,23 @@
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>160</v>
-      </c>
-      <c r="F106">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F106" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G106" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H106" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="I106" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="J106" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="M106" t="s">
         <v>86</v>
@@ -8572,10 +8735,10 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q106" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="T106" t="s">
         <v>88</v>
@@ -8589,22 +8752,23 @@
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>160</v>
-      </c>
-      <c r="F107">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F107" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G107" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H107" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="I107" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="J107" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="M107" t="s">
         <v>86</v>
@@ -8613,10 +8777,10 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q107" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="T107" t="s">
         <v>88</v>
@@ -8630,22 +8794,23 @@
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>160</v>
-      </c>
-      <c r="F108">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F108" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G108" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H108" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="I108" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="J108" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="M108" t="s">
         <v>86</v>
@@ -8654,10 +8819,10 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q108" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="T108" t="s">
         <v>88</v>
@@ -8671,22 +8836,23 @@
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>160</v>
-      </c>
-      <c r="F109">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F109" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G109" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H109" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="I109" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="J109" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="M109" t="s">
         <v>86</v>
@@ -8695,10 +8861,10 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q109" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="T109" t="s">
         <v>88</v>
@@ -8712,22 +8878,23 @@
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>160</v>
-      </c>
-      <c r="F110">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F110" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G110" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="I110" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="J110" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M110" t="s">
         <v>86</v>
@@ -8736,10 +8903,10 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="Q110" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T110" t="s">
         <v>88</v>
@@ -8753,22 +8920,23 @@
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>160</v>
-      </c>
-      <c r="F111">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F111" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G111" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H111" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="I111" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="J111" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="M111" t="s">
         <v>86</v>
@@ -8777,10 +8945,10 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="Q111" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T111" t="s">
         <v>88</v>
@@ -8794,22 +8962,23 @@
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>160</v>
-      </c>
-      <c r="F112">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F112" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G112" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H112" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="I112" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="J112" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="M112" t="s">
         <v>86</v>
@@ -8818,10 +8987,10 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="Q112" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T112" t="s">
         <v>88</v>
@@ -8835,22 +9004,23 @@
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>160</v>
-      </c>
-      <c r="F113">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F113" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G113" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H113" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="I113" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="J113" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="M113" t="s">
         <v>86</v>
@@ -8859,10 +9029,10 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="Q113" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T113" t="s">
         <v>88</v>
@@ -8876,22 +9046,23 @@
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>160</v>
-      </c>
-      <c r="F114">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F114" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G114" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H114" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="I114" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="J114" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="M114" t="s">
         <v>86</v>
@@ -8900,10 +9071,10 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Q114" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="T114" t="s">
         <v>88</v>
@@ -8917,22 +9088,23 @@
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>160</v>
-      </c>
-      <c r="F115">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F115" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G115" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H115" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="I115" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="J115" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="M115" t="s">
         <v>86</v>
@@ -8941,10 +9113,10 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>337</v>
+        <v>223</v>
       </c>
       <c r="Q115" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="T115" t="s">
         <v>88</v>
@@ -8958,22 +9130,23 @@
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>160</v>
-      </c>
-      <c r="F116">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F116" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G116" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H116" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I116" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="J116" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="M116" t="s">
         <v>86</v>
@@ -8982,10 +9155,10 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="Q116" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="T116" t="s">
         <v>88</v>
@@ -8999,22 +9172,23 @@
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>160</v>
-      </c>
-      <c r="F117">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F117" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G117" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H117" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="I117" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="J117" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="M117" t="s">
         <v>86</v>
@@ -9023,10 +9197,10 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="Q117" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="T117" t="s">
         <v>88</v>
@@ -9040,22 +9214,23 @@
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>160</v>
-      </c>
-      <c r="F118">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F118" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G118" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H118" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I118" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="J118" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="M118" t="s">
         <v>86</v>
@@ -9064,10 +9239,10 @@
         <v>86</v>
       </c>
       <c r="P118" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="Q118" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="T118" t="s">
         <v>88</v>
@@ -9081,22 +9256,23 @@
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>160</v>
-      </c>
-      <c r="F119">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F119" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G119" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H119" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="I119" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="J119" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M119" t="s">
         <v>86</v>
@@ -9105,10 +9281,10 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="Q119" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="T119" t="s">
         <v>88</v>
@@ -9122,22 +9298,23 @@
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>160</v>
-      </c>
-      <c r="F120">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F120" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G120" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H120" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="I120" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="J120" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M120" t="s">
         <v>86</v>
@@ -9146,10 +9323,10 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="Q120" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="T120" t="s">
         <v>88</v>
@@ -9163,22 +9340,23 @@
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>160</v>
-      </c>
-      <c r="F121">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F121" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G121" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H121" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="I121" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J121" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M121" t="s">
         <v>86</v>
@@ -9187,10 +9365,10 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>349</v>
+        <v>243</v>
       </c>
       <c r="Q121" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="T121" t="s">
         <v>88</v>
@@ -9204,22 +9382,23 @@
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>160</v>
-      </c>
-      <c r="F122">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F122" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G122" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H122" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="I122" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="J122" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M122" t="s">
         <v>86</v>
@@ -9228,10 +9407,10 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="Q122" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="T122" t="s">
         <v>88</v>
@@ -9245,22 +9424,23 @@
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>160</v>
-      </c>
-      <c r="F123">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F123" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G123" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H123" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I123" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="J123" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M123" t="s">
         <v>86</v>
@@ -9269,10 +9449,10 @@
         <v>86</v>
       </c>
       <c r="P123" t="s">
-        <v>353</v>
+        <v>244</v>
       </c>
       <c r="Q123" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="T123" t="s">
         <v>88</v>
@@ -9286,22 +9466,23 @@
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>160</v>
-      </c>
-      <c r="F124">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F124" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G124" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H124" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I124" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J124" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M124" t="s">
         <v>86</v>
@@ -9310,10 +9491,10 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q124" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="T124" t="s">
         <v>88</v>
@@ -9327,22 +9508,23 @@
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>160</v>
-      </c>
-      <c r="F125">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F125" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G125" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H125" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="I125" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="J125" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M125" t="s">
         <v>86</v>
@@ -9351,10 +9533,10 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q125" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="T125" t="s">
         <v>88</v>
@@ -9368,22 +9550,23 @@
     </row>
     <row r="126">
       <c r="E126" t="s">
-        <v>160</v>
-      </c>
-      <c r="F126">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F126" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G126" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H126" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I126" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="J126" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M126" t="s">
         <v>86</v>
@@ -9392,10 +9575,10 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q126" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="T126" t="s">
         <v>88</v>
@@ -9409,22 +9592,23 @@
     </row>
     <row r="127">
       <c r="E127" t="s">
-        <v>160</v>
-      </c>
-      <c r="F127">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F127" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G127" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H127" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="I127" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J127" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M127" t="s">
         <v>86</v>
@@ -9433,10 +9617,10 @@
         <v>86</v>
       </c>
       <c r="P127" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q127" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="T127" t="s">
         <v>88</v>
@@ -9450,22 +9634,23 @@
     </row>
     <row r="128">
       <c r="E128" t="s">
-        <v>160</v>
-      </c>
-      <c r="F128">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F128" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G128" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H128" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="I128" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J128" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M128" t="s">
         <v>86</v>
@@ -9474,10 +9659,10 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q128" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="T128" t="s">
         <v>88</v>
@@ -9491,22 +9676,23 @@
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>160</v>
-      </c>
-      <c r="F129">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F129" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G129" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H129" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="I129" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="J129" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M129" t="s">
         <v>86</v>
@@ -9515,10 +9701,10 @@
         <v>86</v>
       </c>
       <c r="P129" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q129" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="T129" t="s">
         <v>88</v>
@@ -9532,22 +9718,23 @@
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>160</v>
-      </c>
-      <c r="F130">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F130" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G130" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H130" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I130" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="J130" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M130" t="s">
         <v>86</v>
@@ -9556,10 +9743,10 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q130" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="T130" t="s">
         <v>88</v>
@@ -9573,22 +9760,23 @@
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>160</v>
-      </c>
-      <c r="F131">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F131" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G131" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H131" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="I131" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="J131" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M131" t="s">
         <v>86</v>
@@ -9597,10 +9785,10 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q131" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="T131" t="s">
         <v>88</v>
@@ -9614,22 +9802,23 @@
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>160</v>
-      </c>
-      <c r="F132">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F132" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G132" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H132" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I132" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="J132" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M132" t="s">
         <v>86</v>
@@ -9638,10 +9827,10 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q132" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="T132" t="s">
         <v>88</v>
@@ -9655,22 +9844,23 @@
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>160</v>
-      </c>
-      <c r="F133">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F133" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G133" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H133" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="I133" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="J133" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M133" t="s">
         <v>86</v>
@@ -9679,10 +9869,10 @@
         <v>86</v>
       </c>
       <c r="P133" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q133" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="T133" t="s">
         <v>88</v>
@@ -9696,22 +9886,23 @@
     </row>
     <row r="134">
       <c r="E134" t="s">
-        <v>160</v>
-      </c>
-      <c r="F134">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F134" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G134" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H134" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="I134" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="J134" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M134" t="s">
         <v>86</v>
@@ -9720,10 +9911,10 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q134" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="T134" t="s">
         <v>88</v>
@@ -9737,22 +9928,23 @@
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>160</v>
-      </c>
-      <c r="F135">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F135" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G135" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H135" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I135" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="J135" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M135" t="s">
         <v>86</v>
@@ -9761,10 +9953,10 @@
         <v>86</v>
       </c>
       <c r="P135" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q135" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="T135" t="s">
         <v>88</v>
@@ -9778,22 +9970,23 @@
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>160</v>
-      </c>
-      <c r="F136">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F136" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G136" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H136" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I136" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="J136" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M136" t="s">
         <v>86</v>
@@ -9802,10 +9995,10 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q136" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="T136" t="s">
         <v>88</v>
@@ -9819,22 +10012,23 @@
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>160</v>
-      </c>
-      <c r="F137">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F137" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G137" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H137" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I137" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="J137" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M137" t="s">
         <v>86</v>
@@ -9843,10 +10037,10 @@
         <v>86</v>
       </c>
       <c r="P137" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q137" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="T137" t="s">
         <v>88</v>
@@ -9860,22 +10054,23 @@
     </row>
     <row r="138">
       <c r="E138" t="s">
-        <v>160</v>
-      </c>
-      <c r="F138">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F138" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G138" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H138" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="I138" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="J138" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M138" t="s">
         <v>86</v>
@@ -9884,10 +10079,10 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q138" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="T138" t="s">
         <v>88</v>
@@ -9901,22 +10096,23 @@
     </row>
     <row r="139">
       <c r="E139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F139">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F139" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G139" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H139" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I139" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="J139" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M139" t="s">
         <v>86</v>
@@ -9925,10 +10121,10 @@
         <v>86</v>
       </c>
       <c r="P139" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q139" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="T139" t="s">
         <v>88</v>
@@ -9942,22 +10138,23 @@
     </row>
     <row r="140">
       <c r="E140" t="s">
-        <v>160</v>
-      </c>
-      <c r="F140">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F140" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G140" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H140" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="I140" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="J140" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M140" t="s">
         <v>86</v>
@@ -9966,10 +10163,10 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q140" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="T140" t="s">
         <v>88</v>
@@ -9983,22 +10180,23 @@
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>160</v>
-      </c>
-      <c r="F141">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F141" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G141" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H141" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I141" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J141" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M141" t="s">
         <v>86</v>
@@ -10007,10 +10205,10 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q141" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="T141" t="s">
         <v>88</v>
@@ -10024,22 +10222,23 @@
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>160</v>
-      </c>
-      <c r="F142">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F142" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G142" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H142" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="I142" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="J142" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M142" t="s">
         <v>86</v>
@@ -10048,10 +10247,10 @@
         <v>86</v>
       </c>
       <c r="P142" t="s">
-        <v>217</v>
+        <v>396</v>
       </c>
       <c r="Q142" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="T142" t="s">
         <v>88</v>
@@ -10065,22 +10264,23 @@
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>160</v>
-      </c>
-      <c r="F143">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F143" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G143" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H143" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="I143" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="J143" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="M143" t="s">
         <v>86</v>
@@ -10089,10 +10289,10 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>193</v>
+        <v>398</v>
       </c>
       <c r="Q143" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="T143" t="s">
         <v>88</v>
@@ -10106,22 +10306,23 @@
     </row>
     <row r="144">
       <c r="E144" t="s">
-        <v>160</v>
-      </c>
-      <c r="F144">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F144" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G144" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H144" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="I144" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J144" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M144" t="s">
         <v>86</v>
@@ -10130,10 +10331,10 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="Q144" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="T144" t="s">
         <v>88</v>
@@ -10147,22 +10348,23 @@
     </row>
     <row r="145">
       <c r="E145" t="s">
-        <v>160</v>
-      </c>
-      <c r="F145">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F145" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G145" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H145" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="I145" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="J145" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M145" t="s">
         <v>86</v>
@@ -10171,10 +10373,10 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>217</v>
+        <v>402</v>
       </c>
       <c r="Q145" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="T145" t="s">
         <v>88</v>
@@ -10188,22 +10390,23 @@
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>160</v>
-      </c>
-      <c r="F146">
-        <f>值集数据!$E$12</f>
+        <v>169</v>
+      </c>
+      <c r="F146" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G146" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H146" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="I146" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="J146" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="M146" t="s">
         <v>86</v>
@@ -10212,10 +10415,10 @@
         <v>86</v>
       </c>
       <c r="P146" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="Q146" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="T146" t="s">
         <v>88</v>
@@ -10229,22 +10432,23 @@
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>160</v>
-      </c>
-      <c r="F147">
+        <v>169</v>
+      </c>
+      <c r="F147" t="n">
         <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G147" t="s">
         <v>109</v>
       </c>
       <c r="H147" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="I147" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="J147" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M147" t="s">
         <v>86</v>
@@ -10253,7 +10457,10 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>164</v>
+        <v>406</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>257</v>
       </c>
       <c r="T147" t="s">
         <v>88</v>
@@ -10267,22 +10474,23 @@
     </row>
     <row r="148">
       <c r="E148" t="s">
-        <v>160</v>
-      </c>
-      <c r="F148">
+        <v>169</v>
+      </c>
+      <c r="F148" t="n">
         <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G148" t="s">
         <v>109</v>
       </c>
       <c r="H148" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="I148" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J148" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M148" t="s">
         <v>86</v>
@@ -10291,7 +10499,10 @@
         <v>86</v>
       </c>
       <c r="P148" t="s">
-        <v>168</v>
+        <v>408</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>257</v>
       </c>
       <c r="T148" t="s">
         <v>88</v>
@@ -10305,22 +10516,23 @@
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>160</v>
-      </c>
-      <c r="F149">
-        <f>值集数据!$E$14</f>
+        <v>169</v>
+      </c>
+      <c r="F149" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G149" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H149" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="I149" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="J149" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M149" t="s">
         <v>86</v>
@@ -10329,7 +10541,10 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>164</v>
+        <v>410</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>257</v>
       </c>
       <c r="T149" t="s">
         <v>88</v>
@@ -10343,22 +10558,23 @@
     </row>
     <row r="150">
       <c r="E150" t="s">
-        <v>160</v>
-      </c>
-      <c r="F150">
-        <f>值集数据!$E$14</f>
+        <v>169</v>
+      </c>
+      <c r="F150" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G150" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="I150" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="J150" t="s">
-        <v>183</v>
+        <v>411</v>
       </c>
       <c r="M150" t="s">
         <v>86</v>
@@ -10367,7 +10583,10 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>168</v>
+        <v>412</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>257</v>
       </c>
       <c r="T150" t="s">
         <v>88</v>
@@ -10381,22 +10600,23 @@
     </row>
     <row r="151">
       <c r="E151" t="s">
-        <v>160</v>
-      </c>
-      <c r="F151">
-        <f>值集数据!$E$14</f>
+        <v>169</v>
+      </c>
+      <c r="F151" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G151" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H151" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="I151" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="J151" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M151" t="s">
         <v>86</v>
@@ -10405,7 +10625,10 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>406</v>
+        <v>226</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>248</v>
       </c>
       <c r="T151" t="s">
         <v>88</v>
@@ -10419,22 +10642,23 @@
     </row>
     <row r="152">
       <c r="E152" t="s">
-        <v>160</v>
-      </c>
-      <c r="F152">
-        <f>值集数据!$E$15</f>
+        <v>169</v>
+      </c>
+      <c r="F152" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G152" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H152" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="I152" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J152" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M152" t="s">
         <v>86</v>
@@ -10443,7 +10667,10 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>164</v>
+        <v>202</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>245</v>
       </c>
       <c r="T152" t="s">
         <v>88</v>
@@ -10457,22 +10684,23 @@
     </row>
     <row r="153">
       <c r="E153" t="s">
-        <v>160</v>
-      </c>
-      <c r="F153">
-        <f>值集数据!$E$15</f>
+        <v>169</v>
+      </c>
+      <c r="F153" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G153" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H153" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I153" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="J153" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M153" t="s">
         <v>86</v>
@@ -10481,7 +10709,10 @@
         <v>86</v>
       </c>
       <c r="P153" t="s">
-        <v>168</v>
+        <v>206</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>245</v>
       </c>
       <c r="T153" t="s">
         <v>88</v>
@@ -10495,22 +10726,23 @@
     </row>
     <row r="154">
       <c r="E154" t="s">
-        <v>160</v>
-      </c>
-      <c r="F154">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F154" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G154" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H154" t="s">
-        <v>88</v>
+        <v>415</v>
       </c>
       <c r="I154" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J154" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M154" t="s">
         <v>86</v>
@@ -10519,7 +10751,10 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>164</v>
+        <v>226</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>248</v>
       </c>
       <c r="T154" t="s">
         <v>88</v>
@@ -10533,19 +10768,20 @@
     </row>
     <row r="155">
       <c r="E155" t="s">
-        <v>160</v>
-      </c>
-      <c r="F155">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F155" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G155" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="I155" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J155" t="s">
         <v>416</v>
@@ -10557,7 +10793,10 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>168</v>
+        <v>417</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>257</v>
       </c>
       <c r="T155" t="s">
         <v>88</v>
@@ -10571,22 +10810,23 @@
     </row>
     <row r="156">
       <c r="E156" t="s">
-        <v>160</v>
-      </c>
-      <c r="F156">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F156" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G156" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H156" t="s">
-        <v>185</v>
+        <v>418</v>
       </c>
       <c r="I156" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J156" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M156" t="s">
         <v>86</v>
@@ -10595,7 +10835,10 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>172</v>
+        <v>419</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>257</v>
       </c>
       <c r="T156" t="s">
         <v>88</v>
@@ -10604,27 +10847,28 @@
         <v>90</v>
       </c>
       <c r="V156" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" t="s">
-        <v>160</v>
-      </c>
-      <c r="F157">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F157" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G157" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H157" t="s">
-        <v>199</v>
+        <v>420</v>
       </c>
       <c r="I157" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J157" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M157" t="s">
         <v>86</v>
@@ -10633,7 +10877,10 @@
         <v>86</v>
       </c>
       <c r="P157" t="s">
-        <v>176</v>
+        <v>421</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>257</v>
       </c>
       <c r="T157" t="s">
         <v>88</v>
@@ -10642,27 +10889,28 @@
         <v>90</v>
       </c>
       <c r="V157" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" t="s">
-        <v>160</v>
-      </c>
-      <c r="F158">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F158" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G158" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H158" t="s">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="I158" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J158" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M158" t="s">
         <v>86</v>
@@ -10671,7 +10919,10 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>177</v>
+        <v>423</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>257</v>
       </c>
       <c r="T158" t="s">
         <v>88</v>
@@ -10680,27 +10931,28 @@
         <v>90</v>
       </c>
       <c r="V158" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" t="s">
-        <v>160</v>
-      </c>
-      <c r="F159">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F159" t="n">
+        <f>值集数据!$E$14</f>
+        <v>0.0</v>
       </c>
       <c r="G159" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H159" t="s">
-        <v>208</v>
+        <v>424</v>
       </c>
       <c r="I159" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J159" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M159" t="s">
         <v>86</v>
@@ -10709,7 +10961,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="T159" t="s">
         <v>88</v>
@@ -10723,22 +10975,23 @@
     </row>
     <row r="160">
       <c r="E160" t="s">
-        <v>160</v>
-      </c>
-      <c r="F160">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F160" t="n">
+        <f>值集数据!$E$14</f>
+        <v>0.0</v>
       </c>
       <c r="G160" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H160" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="I160" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="J160" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M160" t="s">
         <v>86</v>
@@ -10747,7 +11000,7 @@
         <v>86</v>
       </c>
       <c r="P160" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="T160" t="s">
         <v>88</v>
@@ -10761,22 +11014,23 @@
     </row>
     <row r="161">
       <c r="E161" t="s">
-        <v>160</v>
-      </c>
-      <c r="F161">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F161" t="n">
+        <f>值集数据!$E$15</f>
+        <v>0.0</v>
       </c>
       <c r="G161" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="H161" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
       <c r="I161" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="J161" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M161" t="s">
         <v>86</v>
@@ -10785,7 +11039,7 @@
         <v>86</v>
       </c>
       <c r="P161" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="T161" t="s">
         <v>88</v>
@@ -10799,22 +11053,23 @@
     </row>
     <row r="162">
       <c r="E162" t="s">
-        <v>160</v>
-      </c>
-      <c r="F162">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F162" t="n">
+        <f>值集数据!$E$15</f>
+        <v>0.0</v>
       </c>
       <c r="G162" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="H162" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="I162" t="s">
-        <v>427</v>
+        <v>191</v>
       </c>
       <c r="J162" t="s">
-        <v>428</v>
+        <v>192</v>
       </c>
       <c r="M162" t="s">
         <v>86</v>
@@ -10823,7 +11078,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="T162" t="s">
         <v>88</v>
@@ -10837,22 +11092,23 @@
     </row>
     <row r="163">
       <c r="E163" t="s">
-        <v>160</v>
-      </c>
-      <c r="F163">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F163" t="n">
+        <f>值集数据!$E$15</f>
+        <v>0.0</v>
       </c>
       <c r="G163" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="H163" t="s">
-        <v>233</v>
+        <v>432</v>
       </c>
       <c r="I163" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="J163" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M163" t="s">
         <v>86</v>
@@ -10861,7 +11117,7 @@
         <v>86</v>
       </c>
       <c r="P163" t="s">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="T163" t="s">
         <v>88</v>
@@ -10875,22 +11131,23 @@
     </row>
     <row r="164">
       <c r="E164" t="s">
-        <v>160</v>
-      </c>
-      <c r="F164">
-        <f>值集数据!$E$18</f>
+        <v>169</v>
+      </c>
+      <c r="F164" t="n">
+        <f>值集数据!$E$16</f>
+        <v>0.0</v>
       </c>
       <c r="G164" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="H164" t="s">
-        <v>164</v>
+        <v>436</v>
       </c>
       <c r="I164" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="J164" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="M164" t="s">
         <v>86</v>
@@ -10898,11 +11155,8 @@
       <c r="N164" t="s">
         <v>86</v>
       </c>
-      <c r="O164" t="s">
-        <v>430</v>
-      </c>
       <c r="P164" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="T164" t="s">
         <v>88</v>
@@ -10916,22 +11170,23 @@
     </row>
     <row r="165">
       <c r="E165" t="s">
-        <v>160</v>
-      </c>
-      <c r="F165">
-        <f>值集数据!$E$19</f>
+        <v>169</v>
+      </c>
+      <c r="F165" t="n">
+        <f>值集数据!$E$16</f>
+        <v>0.0</v>
       </c>
       <c r="G165" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="H165" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I165" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="J165" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M165" t="s">
         <v>86</v>
@@ -10940,7 +11195,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="T165" t="s">
         <v>88</v>
@@ -10954,22 +11209,23 @@
     </row>
     <row r="166">
       <c r="E166" t="s">
-        <v>160</v>
-      </c>
-      <c r="F166">
-        <f>值集数据!$E$19</f>
+        <v>169</v>
+      </c>
+      <c r="F166" t="n">
+        <f>值集数据!$E$16</f>
+        <v>0.0</v>
       </c>
       <c r="G166" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="H166" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="I166" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="J166" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M166" t="s">
         <v>86</v>
@@ -10978,7 +11234,7 @@
         <v>86</v>
       </c>
       <c r="P166" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="T166" t="s">
         <v>88</v>
@@ -10992,22 +11248,23 @@
     </row>
     <row r="167">
       <c r="E167" t="s">
-        <v>160</v>
-      </c>
-      <c r="F167">
-        <f>值集数据!$E$20</f>
+        <v>169</v>
+      </c>
+      <c r="F167" t="n">
+        <f>值集数据!$E$16</f>
+        <v>0.0</v>
       </c>
       <c r="G167" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H167" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="I167" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="J167" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M167" t="s">
         <v>86</v>
@@ -11016,7 +11273,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="T167" t="s">
         <v>88</v>
@@ -11030,22 +11287,23 @@
     </row>
     <row r="168">
       <c r="E168" t="s">
-        <v>160</v>
-      </c>
-      <c r="F168">
-        <f>值集数据!$E$20</f>
+        <v>169</v>
+      </c>
+      <c r="F168" t="n">
+        <f>值集数据!$E$17</f>
+        <v>0.0</v>
       </c>
       <c r="G168" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H168" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I168" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J168" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M168" t="s">
         <v>86</v>
@@ -11054,7 +11312,7 @@
         <v>86</v>
       </c>
       <c r="P168" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T168" t="s">
         <v>88</v>
@@ -11068,22 +11326,23 @@
     </row>
     <row r="169">
       <c r="E169" t="s">
-        <v>160</v>
-      </c>
-      <c r="F169">
-        <f>值集数据!$E$20</f>
+        <v>169</v>
+      </c>
+      <c r="F169" t="n">
+        <f>值集数据!$E$17</f>
+        <v>0.0</v>
       </c>
       <c r="G169" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H169" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="I169" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="J169" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M169" t="s">
         <v>86</v>
@@ -11092,7 +11351,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T169" t="s">
         <v>88</v>
@@ -11106,22 +11365,23 @@
     </row>
     <row r="170">
       <c r="E170" t="s">
-        <v>160</v>
-      </c>
-      <c r="F170">
+        <v>169</v>
+      </c>
+      <c r="F170" t="n">
         <f>值集数据!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G170" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="H170" t="s">
-        <v>442</v>
+        <v>88</v>
       </c>
       <c r="I170" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J170" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M170" t="s">
         <v>86</v>
@@ -11130,7 +11390,7 @@
         <v>86</v>
       </c>
       <c r="P170" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="T170" t="s">
         <v>88</v>
@@ -11139,650 +11399,1296 @@
         <v>90</v>
       </c>
       <c r="V170" t="s">
-        <v>91</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="E171" t="s">
+        <v>169</v>
+      </c>
+      <c r="F171" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>87</v>
+      </c>
+      <c r="H171" t="s">
+        <v>187</v>
+      </c>
+      <c r="I171" t="s">
+        <v>449</v>
+      </c>
+      <c r="J171" t="s">
+        <v>450</v>
+      </c>
+      <c r="M171" t="s">
+        <v>86</v>
+      </c>
+      <c r="N171" t="s">
+        <v>86</v>
+      </c>
+      <c r="P171" t="s">
+        <v>177</v>
+      </c>
+      <c r="T171" t="s">
+        <v>88</v>
+      </c>
+      <c r="U171" t="s">
+        <v>90</v>
+      </c>
+      <c r="V171" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s">
-        <v>50</v>
-      </c>
-      <c r="B172" t="s">
-        <v>51</v>
-      </c>
-      <c r="C172" t="s">
-        <v>445</v>
-      </c>
-      <c r="D172" t="s" s="51">
-        <v>446</v>
-      </c>
-      <c r="E172" t="s" s="52">
-        <v>447</v>
-      </c>
-      <c r="F172" t="s" s="53">
-        <v>448</v>
+      <c r="E172" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G172" t="s">
-        <v>449</v>
+        <v>87</v>
       </c>
       <c r="H172" t="s">
-        <v>450</v>
-      </c>
-      <c r="I172" t="s" s="54">
+        <v>194</v>
+      </c>
+      <c r="I172" t="s">
         <v>451</v>
       </c>
-      <c r="J172" t="s" s="55">
-        <v>62</v>
-      </c>
-      <c r="K172" t="s" s="56">
-        <v>63</v>
-      </c>
-      <c r="L172" t="s">
-        <v>68</v>
+      <c r="J172" t="s">
+        <v>451</v>
       </c>
       <c r="M172" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="N172" t="s">
-        <v>452</v>
-      </c>
-      <c r="O172" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>455</v>
-      </c>
-      <c r="R172" t="s">
-        <v>456</v>
-      </c>
-      <c r="S172" t="s">
-        <v>457</v>
+        <v>181</v>
       </c>
       <c r="T172" t="s">
-        <v>458</v>
+        <v>88</v>
       </c>
       <c r="U172" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="V172" t="s">
-        <v>77</v>
-      </c>
-      <c r="W172" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" t="s">
-        <v>459</v>
-      </c>
-      <c r="F173" t="s">
-        <v>460</v>
+        <v>169</v>
+      </c>
+      <c r="F173" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G173" t="s">
-        <v>461</v>
+        <v>87</v>
       </c>
       <c r="H173" t="s">
-        <v>462</v>
-      </c>
-      <c r="I173">
-        <f>值集数据!$E$16</f>
+        <v>208</v>
+      </c>
+      <c r="I173" t="s">
+        <v>452</v>
       </c>
       <c r="J173" t="s">
-        <v>86</v>
-      </c>
-      <c r="K173" t="s">
-        <v>86</v>
-      </c>
-      <c r="L173" t="s">
-        <v>127</v>
+        <v>453</v>
       </c>
       <c r="M173" t="s">
-        <v>127</v>
-      </c>
-      <c r="R173" t="s">
-        <v>164</v>
-      </c>
-      <c r="S173" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="N173" t="s">
+        <v>86</v>
+      </c>
+      <c r="P173" t="s">
+        <v>185</v>
+      </c>
+      <c r="T173" t="s">
+        <v>88</v>
       </c>
       <c r="U173" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V173" t="s">
-        <v>90</v>
-      </c>
-      <c r="W173" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" t="s">
-        <v>463</v>
-      </c>
-      <c r="F174" t="s">
-        <v>121</v>
+        <v>169</v>
+      </c>
+      <c r="F174" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G174" t="s">
-        <v>461</v>
+        <v>87</v>
       </c>
       <c r="H174" t="s">
-        <v>462</v>
-      </c>
-      <c r="I174">
-        <f>值集数据!$E$16</f>
+        <v>215</v>
+      </c>
+      <c r="I174" t="s">
+        <v>454</v>
       </c>
       <c r="J174" t="s">
-        <v>86</v>
-      </c>
-      <c r="K174" t="s">
-        <v>86</v>
-      </c>
-      <c r="L174" t="s">
-        <v>127</v>
+        <v>455</v>
       </c>
       <c r="M174" t="s">
-        <v>127</v>
-      </c>
-      <c r="R174" t="s">
-        <v>164</v>
-      </c>
-      <c r="S174" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="N174" t="s">
+        <v>86</v>
+      </c>
+      <c r="P174" t="s">
+        <v>186</v>
+      </c>
+      <c r="T174" t="s">
+        <v>88</v>
       </c>
       <c r="U174" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V174" t="s">
-        <v>90</v>
-      </c>
-      <c r="W174" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" t="s">
-        <v>464</v>
-      </c>
-      <c r="F175" t="s">
-        <v>130</v>
+        <v>169</v>
+      </c>
+      <c r="F175" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G175" t="s">
-        <v>465</v>
+        <v>87</v>
       </c>
       <c r="H175" t="s">
-        <v>466</v>
-      </c>
-      <c r="I175">
-        <f>值集数据!$E$17</f>
+        <v>217</v>
+      </c>
+      <c r="I175" t="s">
+        <v>456</v>
       </c>
       <c r="J175" t="s">
-        <v>86</v>
-      </c>
-      <c r="K175" t="s">
-        <v>86</v>
-      </c>
-      <c r="L175" t="s">
-        <v>127</v>
+        <v>457</v>
       </c>
       <c r="M175" t="s">
-        <v>127</v>
-      </c>
-      <c r="R175" t="s">
-        <v>164</v>
-      </c>
-      <c r="S175" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="N175" t="s">
+        <v>86</v>
+      </c>
+      <c r="P175" t="s">
+        <v>189</v>
+      </c>
+      <c r="T175" t="s">
+        <v>88</v>
       </c>
       <c r="U175" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V175" t="s">
-        <v>90</v>
-      </c>
-      <c r="W175" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="E176" t="s">
+        <v>169</v>
+      </c>
+      <c r="F176" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>87</v>
+      </c>
+      <c r="H176" t="s">
+        <v>221</v>
+      </c>
+      <c r="I176" t="s">
+        <v>458</v>
+      </c>
+      <c r="J176" t="s">
+        <v>458</v>
+      </c>
+      <c r="M176" t="s">
+        <v>86</v>
+      </c>
+      <c r="N176" t="s">
+        <v>86</v>
+      </c>
+      <c r="P176" t="s">
+        <v>193</v>
+      </c>
+      <c r="T176" t="s">
+        <v>88</v>
+      </c>
+      <c r="U176" t="s">
+        <v>90</v>
+      </c>
+      <c r="V176" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s">
-        <v>50</v>
-      </c>
-      <c r="B177" t="s">
-        <v>51</v>
-      </c>
-      <c r="C177" t="s">
-        <v>467</v>
-      </c>
-      <c r="D177" t="s" s="57">
-        <v>468</v>
-      </c>
-      <c r="E177" t="s" s="58">
-        <v>469</v>
-      </c>
-      <c r="F177" t="s" s="59">
-        <v>470</v>
+      <c r="E177" t="s">
+        <v>169</v>
+      </c>
+      <c r="F177" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G177" t="s">
-        <v>471</v>
+        <v>87</v>
       </c>
       <c r="H177" t="s">
-        <v>472</v>
-      </c>
-      <c r="I177" t="s" s="60">
-        <v>451</v>
+        <v>225</v>
+      </c>
+      <c r="I177" t="s">
+        <v>459</v>
       </c>
       <c r="J177" t="s">
-        <v>473</v>
-      </c>
-      <c r="K177" t="s">
-        <v>474</v>
-      </c>
-      <c r="L177" t="s">
-        <v>156</v>
-      </c>
-      <c r="M177" t="s" s="61">
-        <v>475</v>
+        <v>460</v>
+      </c>
+      <c r="M177" t="s">
+        <v>86</v>
       </c>
       <c r="N177" t="s">
-        <v>476</v>
-      </c>
-      <c r="O177" t="s">
-        <v>477</v>
+        <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>71</v>
-      </c>
-      <c r="R177" t="s">
-        <v>479</v>
-      </c>
-      <c r="S177" t="s">
-        <v>480</v>
+        <v>198</v>
       </c>
       <c r="T177" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="U177" t="s">
-        <v>78</v>
+        <v>90</v>
+      </c>
+      <c r="V177" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" t="s">
-        <v>481</v>
-      </c>
-      <c r="F178">
-        <f>值集数据!$E$173</f>
+        <v>169</v>
+      </c>
+      <c r="F178" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G178" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H178" t="s">
-        <v>86</v>
-      </c>
-      <c r="I178">
-        <f>值集数据!$E$16</f>
+        <v>232</v>
+      </c>
+      <c r="I178" t="s">
+        <v>461</v>
       </c>
       <c r="J178" t="s">
-        <v>482</v>
-      </c>
-      <c r="K178" t="s">
-        <v>483</v>
-      </c>
-      <c r="L178" t="s">
-        <v>168</v>
+        <v>462</v>
       </c>
       <c r="M178" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="N178" t="s">
-        <v>88</v>
-      </c>
-      <c r="O178" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="T178" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U178" t="s">
+        <v>90</v>
+      </c>
+      <c r="V178" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" t="s">
-        <v>484</v>
-      </c>
-      <c r="F179">
-        <f>值集数据!$E$173</f>
+        <v>169</v>
+      </c>
+      <c r="F179" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G179" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H179" t="s">
-        <v>86</v>
-      </c>
-      <c r="I179">
-        <f>值集数据!$E$16</f>
+        <v>242</v>
+      </c>
+      <c r="I179" t="s">
+        <v>463</v>
       </c>
       <c r="J179" t="s">
-        <v>485</v>
-      </c>
-      <c r="K179" t="s">
-        <v>486</v>
-      </c>
-      <c r="L179" t="s">
-        <v>172</v>
+        <v>463</v>
       </c>
       <c r="M179" t="s">
-        <v>486</v>
+        <v>86</v>
       </c>
       <c r="N179" t="s">
         <v>86</v>
       </c>
-      <c r="O179" t="s">
-        <v>88</v>
-      </c>
       <c r="P179" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="T179" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U179" t="s">
+        <v>90</v>
+      </c>
+      <c r="V179" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" t="s">
-        <v>487</v>
-      </c>
-      <c r="F180">
-        <f>值集数据!$E$173</f>
+        <v>169</v>
+      </c>
+      <c r="F180" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G180" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H180" t="s">
-        <v>86</v>
-      </c>
-      <c r="I180">
-        <f>值集数据!$E$16</f>
+        <v>173</v>
+      </c>
+      <c r="I180" t="s">
+        <v>441</v>
       </c>
       <c r="J180" t="s">
-        <v>488</v>
-      </c>
-      <c r="K180" t="s">
-        <v>489</v>
-      </c>
-      <c r="L180" t="s">
-        <v>164</v>
+        <v>442</v>
       </c>
       <c r="M180" t="s">
-        <v>490</v>
+        <v>86</v>
       </c>
       <c r="N180" t="s">
         <v>86</v>
       </c>
       <c r="O180" t="s">
-        <v>88</v>
+        <v>464</v>
       </c>
       <c r="P180" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="T180" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U180" t="s">
+        <v>90</v>
+      </c>
+      <c r="V180" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" t="s">
-        <v>491</v>
-      </c>
-      <c r="F181">
-        <f>值集数据!$E$174</f>
+        <v>169</v>
+      </c>
+      <c r="F181" t="n">
+        <f>值集数据!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G181" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="H181" t="s">
-        <v>86</v>
-      </c>
-      <c r="I181">
-        <f>值集数据!$E$16</f>
+        <v>465</v>
+      </c>
+      <c r="I181" t="s">
+        <v>465</v>
       </c>
       <c r="J181" t="s">
-        <v>482</v>
-      </c>
-      <c r="K181" t="s">
-        <v>483</v>
-      </c>
-      <c r="L181" t="s">
-        <v>168</v>
+        <v>465</v>
       </c>
       <c r="M181" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="N181" t="s">
-        <v>88</v>
-      </c>
-      <c r="O181" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P181" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="T181" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U181" t="s">
+        <v>90</v>
+      </c>
+      <c r="V181" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" t="s">
-        <v>492</v>
-      </c>
-      <c r="F182">
-        <f>值集数据!$E$174</f>
+        <v>169</v>
+      </c>
+      <c r="F182" t="n">
+        <f>值集数据!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G182" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="H182" t="s">
-        <v>86</v>
-      </c>
-      <c r="I182">
-        <f>值集数据!$E$16</f>
+        <v>466</v>
+      </c>
+      <c r="I182" t="s">
+        <v>466</v>
       </c>
       <c r="J182" t="s">
-        <v>485</v>
-      </c>
-      <c r="K182" t="s">
-        <v>486</v>
-      </c>
-      <c r="L182" t="s">
-        <v>172</v>
+        <v>466</v>
       </c>
       <c r="M182" t="s">
-        <v>486</v>
+        <v>86</v>
       </c>
       <c r="N182" t="s">
         <v>86</v>
       </c>
-      <c r="O182" t="s">
-        <v>88</v>
-      </c>
       <c r="P182" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="T182" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U182" t="s">
+        <v>90</v>
+      </c>
+      <c r="V182" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" t="s">
-        <v>493</v>
-      </c>
-      <c r="F183">
-        <f>值集数据!$E$174</f>
+        <v>169</v>
+      </c>
+      <c r="F183" t="n">
+        <f>值集数据!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G183" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="H183" t="s">
-        <v>86</v>
-      </c>
-      <c r="I183">
-        <f>值集数据!$E$16</f>
+        <v>467</v>
+      </c>
+      <c r="I183" t="s">
+        <v>468</v>
       </c>
       <c r="J183" t="s">
-        <v>494</v>
-      </c>
-      <c r="K183" t="s">
-        <v>495</v>
-      </c>
-      <c r="L183" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
       <c r="M183" t="s">
-        <v>490</v>
+        <v>86</v>
       </c>
       <c r="N183" t="s">
         <v>86</v>
       </c>
-      <c r="O183" t="s">
-        <v>88</v>
-      </c>
       <c r="P183" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="T183" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U183" t="s">
+        <v>90</v>
+      </c>
+      <c r="V183" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" t="s">
-        <v>496</v>
-      </c>
-      <c r="F184">
-        <f>值集数据!$E$175</f>
+        <v>169</v>
+      </c>
+      <c r="F184" t="n">
+        <f>值集数据!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G184" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="H184" t="s">
-        <v>86</v>
-      </c>
-      <c r="I184">
-        <f>值集数据!$E$17</f>
+        <v>470</v>
+      </c>
+      <c r="I184" t="s">
+        <v>471</v>
       </c>
       <c r="J184" t="s">
-        <v>482</v>
-      </c>
-      <c r="K184" t="s">
-        <v>483</v>
-      </c>
-      <c r="L184" t="s">
-        <v>164</v>
+        <v>472</v>
       </c>
       <c r="M184" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="N184" t="s">
-        <v>88</v>
-      </c>
-      <c r="O184" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="T184" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U184" t="s">
+        <v>90</v>
+      </c>
+      <c r="V184" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" t="s">
+        <v>169</v>
+      </c>
+      <c r="F185" t="n">
+        <f>值集数据!$E$22</f>
+        <v>0.0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>153</v>
+      </c>
+      <c r="H185" t="s">
+        <v>473</v>
+      </c>
+      <c r="I185" t="s">
+        <v>474</v>
+      </c>
+      <c r="J185" t="s">
+        <v>475</v>
+      </c>
+      <c r="M185" t="s">
+        <v>86</v>
+      </c>
+      <c r="N185" t="s">
+        <v>86</v>
+      </c>
+      <c r="P185" t="s">
+        <v>177</v>
+      </c>
+      <c r="T185" t="s">
+        <v>88</v>
+      </c>
+      <c r="U185" t="s">
+        <v>90</v>
+      </c>
+      <c r="V185" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="E186" t="s">
+        <v>169</v>
+      </c>
+      <c r="F186" t="n">
+        <f>值集数据!$E$22</f>
+        <v>0.0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>153</v>
+      </c>
+      <c r="H186" t="s">
+        <v>476</v>
+      </c>
+      <c r="I186" t="s">
+        <v>477</v>
+      </c>
+      <c r="J186" t="s">
+        <v>478</v>
+      </c>
+      <c r="M186" t="s">
+        <v>86</v>
+      </c>
+      <c r="N186" t="s">
+        <v>86</v>
+      </c>
+      <c r="P186" t="s">
+        <v>185</v>
+      </c>
+      <c r="T186" t="s">
+        <v>88</v>
+      </c>
+      <c r="U186" t="s">
+        <v>90</v>
+      </c>
+      <c r="V186" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>50</v>
+      </c>
+      <c r="B188" t="s">
+        <v>51</v>
+      </c>
+      <c r="C188" t="s">
+        <v>479</v>
+      </c>
+      <c r="D188" t="s" s="51">
+        <v>480</v>
+      </c>
+      <c r="E188" t="s" s="52">
+        <v>481</v>
+      </c>
+      <c r="F188" t="s" s="53">
+        <v>482</v>
+      </c>
+      <c r="G188" t="s">
+        <v>483</v>
+      </c>
+      <c r="H188" t="s">
+        <v>484</v>
+      </c>
+      <c r="I188" t="s" s="54">
+        <v>485</v>
+      </c>
+      <c r="J188" t="s" s="55">
+        <v>62</v>
+      </c>
+      <c r="K188" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="L188" t="s">
+        <v>68</v>
+      </c>
+      <c r="M188" t="s">
+        <v>69</v>
+      </c>
+      <c r="N188" t="s">
+        <v>486</v>
+      </c>
+      <c r="O188" t="s">
+        <v>487</v>
+      </c>
+      <c r="P188" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>489</v>
+      </c>
+      <c r="R188" t="s">
+        <v>490</v>
+      </c>
+      <c r="S188" t="s">
+        <v>491</v>
+      </c>
+      <c r="T188" t="s">
+        <v>492</v>
+      </c>
+      <c r="U188" t="s">
+        <v>71</v>
+      </c>
+      <c r="V188" t="s">
+        <v>77</v>
+      </c>
+      <c r="W188" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="E189" t="s">
+        <v>493</v>
+      </c>
+      <c r="F189" t="s">
+        <v>494</v>
+      </c>
+      <c r="G189" t="s">
+        <v>495</v>
+      </c>
+      <c r="H189" t="s">
+        <v>496</v>
+      </c>
+      <c r="I189" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>86</v>
+      </c>
+      <c r="K189" t="s">
+        <v>86</v>
+      </c>
+      <c r="L189" t="s">
+        <v>136</v>
+      </c>
+      <c r="M189" t="s">
+        <v>136</v>
+      </c>
+      <c r="R189" t="s">
+        <v>173</v>
+      </c>
+      <c r="S189" t="s">
+        <v>86</v>
+      </c>
+      <c r="U189" t="s">
+        <v>88</v>
+      </c>
+      <c r="V189" t="s">
+        <v>90</v>
+      </c>
+      <c r="W189" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="E190" t="s">
         <v>497</v>
       </c>
-      <c r="F185">
-        <f>值集数据!$E$175</f>
-      </c>
-      <c r="G185" t="s">
-        <v>86</v>
-      </c>
-      <c r="H185" t="s">
-        <v>86</v>
-      </c>
-      <c r="I185">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="J185" t="s">
+      <c r="F190" t="s">
+        <v>130</v>
+      </c>
+      <c r="G190" t="s">
+        <v>495</v>
+      </c>
+      <c r="H190" t="s">
+        <v>496</v>
+      </c>
+      <c r="I190" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>86</v>
+      </c>
+      <c r="K190" t="s">
+        <v>86</v>
+      </c>
+      <c r="L190" t="s">
+        <v>136</v>
+      </c>
+      <c r="M190" t="s">
+        <v>136</v>
+      </c>
+      <c r="R190" t="s">
+        <v>173</v>
+      </c>
+      <c r="S190" t="s">
+        <v>86</v>
+      </c>
+      <c r="U190" t="s">
+        <v>88</v>
+      </c>
+      <c r="V190" t="s">
+        <v>90</v>
+      </c>
+      <c r="W190" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="E191" t="s">
+        <v>498</v>
+      </c>
+      <c r="F191" t="s">
+        <v>139</v>
+      </c>
+      <c r="G191" t="s">
+        <v>499</v>
+      </c>
+      <c r="H191" t="s">
+        <v>500</v>
+      </c>
+      <c r="I191" t="n">
+        <f>值集数据!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>86</v>
+      </c>
+      <c r="K191" t="s">
+        <v>86</v>
+      </c>
+      <c r="L191" t="s">
+        <v>136</v>
+      </c>
+      <c r="M191" t="s">
+        <v>136</v>
+      </c>
+      <c r="R191" t="s">
+        <v>173</v>
+      </c>
+      <c r="S191" t="s">
+        <v>86</v>
+      </c>
+      <c r="U191" t="s">
+        <v>88</v>
+      </c>
+      <c r="V191" t="s">
+        <v>90</v>
+      </c>
+      <c r="W191" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>50</v>
+      </c>
+      <c r="B193" t="s">
+        <v>51</v>
+      </c>
+      <c r="C193" t="s">
+        <v>501</v>
+      </c>
+      <c r="D193" t="s" s="57">
+        <v>502</v>
+      </c>
+      <c r="E193" t="s" s="58">
+        <v>503</v>
+      </c>
+      <c r="F193" t="s" s="59">
+        <v>504</v>
+      </c>
+      <c r="G193" t="s">
+        <v>505</v>
+      </c>
+      <c r="H193" t="s">
+        <v>506</v>
+      </c>
+      <c r="I193" t="s" s="60">
         <v>485</v>
       </c>
-      <c r="K185" t="s">
-        <v>498</v>
-      </c>
-      <c r="L185" t="s">
-        <v>168</v>
-      </c>
-      <c r="M185" t="s">
-        <v>486</v>
-      </c>
-      <c r="N185" t="s">
-        <v>86</v>
-      </c>
-      <c r="O185" t="s">
-        <v>88</v>
-      </c>
-      <c r="P185" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>88</v>
-      </c>
-      <c r="T185" t="s">
-        <v>90</v>
-      </c>
-      <c r="U185" t="s">
+      <c r="J193" t="s">
+        <v>507</v>
+      </c>
+      <c r="K193" t="s">
+        <v>508</v>
+      </c>
+      <c r="L193" t="s">
+        <v>165</v>
+      </c>
+      <c r="M193" t="s" s="61">
+        <v>509</v>
+      </c>
+      <c r="N193" t="s">
+        <v>510</v>
+      </c>
+      <c r="O193" t="s">
+        <v>511</v>
+      </c>
+      <c r="P193" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>71</v>
+      </c>
+      <c r="R193" t="s">
+        <v>513</v>
+      </c>
+      <c r="S193" t="s">
+        <v>514</v>
+      </c>
+      <c r="T193" t="s">
+        <v>77</v>
+      </c>
+      <c r="U193" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="E194" t="s">
+        <v>515</v>
+      </c>
+      <c r="F194" t="n">
+        <f>值集数据!$E$189</f>
+        <v>0.0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>86</v>
+      </c>
+      <c r="H194" t="s">
+        <v>86</v>
+      </c>
+      <c r="I194" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>516</v>
+      </c>
+      <c r="K194" t="s">
+        <v>517</v>
+      </c>
+      <c r="L194" t="s">
+        <v>177</v>
+      </c>
+      <c r="M194" t="s">
+        <v>136</v>
+      </c>
+      <c r="N194" t="s">
+        <v>88</v>
+      </c>
+      <c r="O194" t="s">
+        <v>88</v>
+      </c>
+      <c r="P194" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>88</v>
+      </c>
+      <c r="T194" t="s">
+        <v>90</v>
+      </c>
+      <c r="U194" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="E195" t="s">
+        <v>518</v>
+      </c>
+      <c r="F195" t="n">
+        <f>值集数据!$E$189</f>
+        <v>0.0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>86</v>
+      </c>
+      <c r="H195" t="s">
+        <v>86</v>
+      </c>
+      <c r="I195" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>519</v>
+      </c>
+      <c r="K195" t="s">
+        <v>520</v>
+      </c>
+      <c r="L195" t="s">
+        <v>181</v>
+      </c>
+      <c r="M195" t="s">
+        <v>520</v>
+      </c>
+      <c r="N195" t="s">
+        <v>86</v>
+      </c>
+      <c r="O195" t="s">
+        <v>88</v>
+      </c>
+      <c r="P195" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>88</v>
+      </c>
+      <c r="T195" t="s">
+        <v>90</v>
+      </c>
+      <c r="U195" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="E196" t="s">
+        <v>521</v>
+      </c>
+      <c r="F196" t="n">
+        <f>值集数据!$E$189</f>
+        <v>0.0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>86</v>
+      </c>
+      <c r="H196" t="s">
+        <v>86</v>
+      </c>
+      <c r="I196" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>522</v>
+      </c>
+      <c r="K196" t="s">
+        <v>523</v>
+      </c>
+      <c r="L196" t="s">
+        <v>173</v>
+      </c>
+      <c r="M196" t="s">
+        <v>524</v>
+      </c>
+      <c r="N196" t="s">
+        <v>86</v>
+      </c>
+      <c r="O196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P196" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>88</v>
+      </c>
+      <c r="T196" t="s">
+        <v>90</v>
+      </c>
+      <c r="U196" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="E197" t="s">
+        <v>525</v>
+      </c>
+      <c r="F197" t="n">
+        <f>值集数据!$E$190</f>
+        <v>0.0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>86</v>
+      </c>
+      <c r="H197" t="s">
+        <v>86</v>
+      </c>
+      <c r="I197" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>516</v>
+      </c>
+      <c r="K197" t="s">
+        <v>517</v>
+      </c>
+      <c r="L197" t="s">
+        <v>177</v>
+      </c>
+      <c r="M197" t="s">
+        <v>136</v>
+      </c>
+      <c r="N197" t="s">
+        <v>88</v>
+      </c>
+      <c r="O197" t="s">
+        <v>88</v>
+      </c>
+      <c r="P197" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>88</v>
+      </c>
+      <c r="T197" t="s">
+        <v>90</v>
+      </c>
+      <c r="U197" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="E198" t="s">
+        <v>526</v>
+      </c>
+      <c r="F198" t="n">
+        <f>值集数据!$E$190</f>
+        <v>0.0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>86</v>
+      </c>
+      <c r="H198" t="s">
+        <v>86</v>
+      </c>
+      <c r="I198" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J198" t="s">
+        <v>519</v>
+      </c>
+      <c r="K198" t="s">
+        <v>520</v>
+      </c>
+      <c r="L198" t="s">
+        <v>181</v>
+      </c>
+      <c r="M198" t="s">
+        <v>520</v>
+      </c>
+      <c r="N198" t="s">
+        <v>86</v>
+      </c>
+      <c r="O198" t="s">
+        <v>88</v>
+      </c>
+      <c r="P198" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>88</v>
+      </c>
+      <c r="T198" t="s">
+        <v>90</v>
+      </c>
+      <c r="U198" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="E199" t="s">
+        <v>527</v>
+      </c>
+      <c r="F199" t="n">
+        <f>值集数据!$E$190</f>
+        <v>0.0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>86</v>
+      </c>
+      <c r="H199" t="s">
+        <v>86</v>
+      </c>
+      <c r="I199" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J199" t="s">
+        <v>528</v>
+      </c>
+      <c r="K199" t="s">
+        <v>529</v>
+      </c>
+      <c r="L199" t="s">
+        <v>173</v>
+      </c>
+      <c r="M199" t="s">
+        <v>524</v>
+      </c>
+      <c r="N199" t="s">
+        <v>86</v>
+      </c>
+      <c r="O199" t="s">
+        <v>88</v>
+      </c>
+      <c r="P199" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>88</v>
+      </c>
+      <c r="T199" t="s">
+        <v>90</v>
+      </c>
+      <c r="U199" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="E200" t="s">
+        <v>530</v>
+      </c>
+      <c r="F200" t="n">
+        <f>值集数据!$E$191</f>
+        <v>0.0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>86</v>
+      </c>
+      <c r="H200" t="s">
+        <v>86</v>
+      </c>
+      <c r="I200" t="n">
+        <f>值集数据!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>516</v>
+      </c>
+      <c r="K200" t="s">
+        <v>517</v>
+      </c>
+      <c r="L200" t="s">
+        <v>173</v>
+      </c>
+      <c r="M200" t="s">
+        <v>136</v>
+      </c>
+      <c r="N200" t="s">
+        <v>88</v>
+      </c>
+      <c r="O200" t="s">
+        <v>88</v>
+      </c>
+      <c r="P200" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>88</v>
+      </c>
+      <c r="T200" t="s">
+        <v>90</v>
+      </c>
+      <c r="U200" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="E201" t="s">
+        <v>531</v>
+      </c>
+      <c r="F201" t="n">
+        <f>值集数据!$E$191</f>
+        <v>0.0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>86</v>
+      </c>
+      <c r="H201" t="s">
+        <v>86</v>
+      </c>
+      <c r="I201" t="n">
+        <f>值集数据!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>519</v>
+      </c>
+      <c r="K201" t="s">
+        <v>532</v>
+      </c>
+      <c r="L201" t="s">
+        <v>177</v>
+      </c>
+      <c r="M201" t="s">
+        <v>520</v>
+      </c>
+      <c r="N201" t="s">
+        <v>86</v>
+      </c>
+      <c r="O201" t="s">
+        <v>88</v>
+      </c>
+      <c r="P201" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>88</v>
+      </c>
+      <c r="T201" t="s">
+        <v>90</v>
+      </c>
+      <c r="U201" t="s">
         <v>91</v>
       </c>
     </row>
